--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlVFeElrMzAtbGo1ckkwSTZBMFhnUGNVRnpjVHNXZ084cGZSc05iMDdGZGciLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NTUzMDM2LCJuYmYiOjE3NDQ1NTMwMzYsImV4cCI6MTc0NDU1Nzc2MCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQmtyK1BFWk9maGxJY3dsN1BaVWwvZFA0dDQ1eDVyVVlWOGc5K1o2a0VMbWVKOVM1NFFzTWd5UGxzbVdnaDlXdG1GNmRtSnAwUk9qOGVvTjlZVE1vYTIxRjdFT3hyRGM2ckczbkU2ZFVTSEVzeGRWbHpqakhQWnZLYVlXRjREZlgiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJuRHlGLUhPbS1rS01FaGMtZG9FZUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InNjM0lSX09mOEVIMi15OE1UQnJTbkVnd3pzSW1wUzcwa1pJU05IbTc1UVEiLCJ4bXNfaWRyZWwiOiIxIDI0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.L_CKdjiM4gWoNc_te5xXQyoAltuGMhMU9OVUWpNvstHUKpmyKDPd__ZfrmgaFGXHp-G6tb4wpDUIOJxf4F6NBFt6XNMpcYvTVmVy4Uhf4zepMhRrj4uvFYgHZs7aQUoClLqcka7uKkD3UPRPA_tQ6V_uoelJTbwesm64W7O2AEkycramLUpxxA6GsfKBYuHYwOK6hAwq9_vCZAbkJpLau0yB6InrIXPrHm-UjE6EkL_CaZGILt49OEXJ_LJh4nV4hyqwbO9WVyIsX1tjo3EnPRMu0mdx3NW09O3Z6aEmvJZ-9GRrcMN7zDp-cniAywYBVoqMBY-zBhII0Q3OIJCKcg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlNTZVBrYTZnc29pbXF6V2JwdEx5Qk9lN1hHTS1LMk9ydUJUa2Y4VG8yOFUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NTU2MjgyLCJuYmYiOjE3NDQ1NTYyODIsImV4cCI6MTc0NDU2MTAwOCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQ0tseWZ3alRxcmloSVBlVFhNWDBYeUF1ZXlqcmVlY0kvdWwvY1NMZWFoN25vNkN3b1lNK2NENHl0VFZVUmNHYXQ5eElVU2hna1VpRlJmdlAyWWRDbmF0MkQyU2MrbFdKUzJCUHNhN2Yybmc1M0EzbERFcGtQSlJtRXZrQy93VjAiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJQQnl5YV9kU2lFbUQyTGVTQmNtZEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImN3S0NSeHFzUXF6NUxFTldkZ0V1T2E0NGNUTVhQeS1zbTJyblJTdWQ5OWMiLCJ4bXNfaWRyZWwiOiIxIDEwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Ddo_HrM_oIJLwRn-QtJoe3H6P5MR3jSCJXE2DkdzoAk7Kn-LDL8QngrcoMcqiRsNiM6fU47bPwG9LPV6bVLAhxP8nscUO6oPSJHAX1-Fq24rSXVyEqGdcXZqhOv6mFWhjSE5fgB40JdThsutnQ8ToSTFR5oknxM_FtLCQ6xp3i99lUMTgVr9QrYr_H5NzANPUlqJ3uSq91XxTsNcUVPKfB7Go4jRKToY4UI-DMpzU8NFh6UJlYeYjJBCGJnJPHayjbP89_JHeZQx9w_khwpuVf53NdReD3LoInSYRFVXX2zmrTvfkneB1DWkXjMvUvpnSW7b5-oLO4Syqv7mcSjBRg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9iYnMFcK_H3uG75CKVcbFHLQcXA5wgJrVyU5w2O5t5p5Dz5dMVmARskBEI_4JYCzFMVtDBQelpdUu752a1AcCp7TOlu7OcA99oQVNHtPKSbMDeO0DnVG0q0b8bAGSgJ7hULHarwwsiuGv82RWCZ355xp68-EHQwob48c2MJKWT2P0JNHo0bL_3ZzFtSMWa5CbL9R4pNsOnJHFnt_37pNwMRXTi-0G_MmW-9HvLCOvbUYgDf0QiUTdHo-8TznEwC3pG6cSEhIDcuNjORwjBh0qYNz7NJc9XOANsGCYmibU2lZnUoSg6ldhvKcaeaPC0aB7reFxsaYgNamNJ4zWXWyXn4A1gMrKksF1hSs83eRLTOWzj_-_PQcBbc-U9kwZTY8jCVU9Hx5KMqoJ0on5k8EoP_o3c0nZrdOnMXWZdwJSfYrpGLYCv4gfU8Z32JrZXSWMl1Rp4GgVyJYx1x_-2j9xB1yufjboa-1pwphdMuVF8JiAmbOYZKxvq6fGZ0a2KEoFwJ3ALn8CxSKIFZTxgihXVAG__YeiQAwMGweO5spQTw8e69obgg90MIcs1-yDkj3t40LWgRMBKXEbII-mE76-GkcICZ9kEK6zVzTmdXB-cP6rl3wMODTQnpbv4ipgdaG37ulAvM8Iu5R0YXjtmT57C2LD3Tlh5RJC0DDLISSvF5NoGlz5ZoMCmnv3LGP5fYARo6rCfNJpxCRCRaIBflFOQ6JjeuDApqZIsuBVxYoY0IsO8FE_Dmp0Rf0yokNBoimQ6AoLOhUDM0b2EmPq112Q6F_1Kf2_EERYSSTD-HnUOvhLmBua2EAJejZ02nmgGqK9r2j3LrpmLiwqp071xZuYReAlIFJU</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-0PXPg6rfuLnC8XmEg4lNLPyyB_9uvAw9k9xD7ZvgIz0m8ox4f3v5jxuOOqenz6xAZYrDz-GnyAK0tWk8uK8volxw0fBTg-jqncsUtBqPjZo8JgDTp5j5DFvAWeEMOQrjLmLk4nbtoFQ02giX11B4l23KFNxSThBrhb5g9J3MD_vEpcY3txL-byTZBYnSYepswBfl9nBqdQuNZyakhr-vxBPmxMmW7cUNJxxaBKnywKPseb5-nu8s16DaIb3dpY7B-h6jIOyu6WsHOCDdXo6ln2x0DEU7sXKTPuz6EFdcXFiYvn5JRLlQAip1eZSEo9X9ZmAaSeC12SArYbYrF_9qG3EX6rx_MrcylRqR4eL2OUQWxW_2tA3aPZ-Z_OTsKQKXZzMHzm80SsQ6gk6WrfCu5Zb-nsPxXLZUtzLHlLy4C658X9IhjG6Y0CGaArQzvF4Gl_ZZTn7D6bMYJ3df7s3gXPqtz2bhJRbpS3BZHaLBzm2fHB-FvdBCU09BT350kllvMMopLlX0OZIGo-227LWwx5_WYJUiIUDsUmRmegBwHaocafrCl8zKyOcE6xu-CYuEnk_Ir-KylkFKwv6V9tffvTLRxjdP4I78OeoIutRCf0AdOj7pC0O24umZoHv6JyTLZuTEqMkEwu-r4rVFw0slaXV-KdJ-wFS37kpjRTgOG8hJj6l9x-8IRfolUzMBnVkXZ5M03M-BQ7FxslFAxYSKQnhkhZWNO3VrV3b20WHWK_atq1XayErGrrJ_43qjQF-AL2mwgLbxcP3JfuynYqkzCBEiX3qaXgxBoOggL6buil5QiK6Gp5_C5AkakGxxLGPLrxd1roPWdx76TBtJioDQOwoNAJz4</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlNTZVBrYTZnc29pbXF6V2JwdEx5Qk9lN1hHTS1LMk9ydUJUa2Y4VG8yOFUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NTU2MjgyLCJuYmYiOjE3NDQ1NTYyODIsImV4cCI6MTc0NDU2MTAwOCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQ0tseWZ3alRxcmloSVBlVFhNWDBYeUF1ZXlqcmVlY0kvdWwvY1NMZWFoN25vNkN3b1lNK2NENHl0VFZVUmNHYXQ5eElVU2hna1VpRlJmdlAyWWRDbmF0MkQyU2MrbFdKUzJCUHNhN2Yybmc1M0EzbERFcGtQSlJtRXZrQy93VjAiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJQQnl5YV9kU2lFbUQyTGVTQmNtZEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImN3S0NSeHFzUXF6NUxFTldkZ0V1T2E0NGNUTVhQeS1zbTJyblJTdWQ5OWMiLCJ4bXNfaWRyZWwiOiIxIDEwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Ddo_HrM_oIJLwRn-QtJoe3H6P5MR3jSCJXE2DkdzoAk7Kn-LDL8QngrcoMcqiRsNiM6fU47bPwG9LPV6bVLAhxP8nscUO6oPSJHAX1-Fq24rSXVyEqGdcXZqhOv6mFWhjSE5fgB40JdThsutnQ8ToSTFR5oknxM_FtLCQ6xp3i99lUMTgVr9QrYr_H5NzANPUlqJ3uSq91XxTsNcUVPKfB7Go4jRKToY4UI-DMpzU8NFh6UJlYeYjJBCGJnJPHayjbP89_JHeZQx9w_khwpuVf53NdReD3LoInSYRFVXX2zmrTvfkneB1DWkXjMvUvpnSW7b5-oLO4Syqv7mcSjBRg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkNoMVpWSVVhb0lsblZTbGdCWW9zbTU1dzg1djBWRmlqSGNMLVZYOE5MeFEiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NTU3NDM3LCJuYmYiOjE3NDQ1NTc0MzcsImV4cCI6MTc0NDU2MjQyNywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBaVd6OWlBSmNvY1N4RVByVElqMnZUNjlQckxKMC84S1Z2VDJUcXdVaFlrRVFjZkc2VXh1QTh1c3hiNldRQU8zSzZPd3k2Q3Y2Vy9iQTZmMFN1VXIxaDFxUFJUWXo3SktYdzVDdGRJMDZsZVdUbG9GajVaTnhLOWo2dlM2SzRWK00iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ2R256c2dmTUEwdTBpY3ZRMXZSMUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IllxOEVNRjhUb2t4ZzNuZGs3YlpnSGNwVV9LbWFrek1UVi1GR0FBRk0yMWMiLCJ4bXNfaWRyZWwiOiIxIDQiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.g3jcaW5OdbhzgOSH4hsh-LTBoFP0PHWwoZWnb8oq0NJ2UFI0-aHv-IYn2_0S5YCALx1lCheGZHiD7P-25XlD33BtZDYCBhXP9s5ALmlW11hjvEO5Cs1w1silFz8xDMmj5_2ReUM2-RtayosU8WJuJq2Xs88ap-qVr57YQdcy7O56veJjiraM0EOPl8H4R2DkAFLfusXUURv25x-wGm8FbtWPwZQ_7WIqaBw8_f4z3yRz59OYEqwc7j00wHWq48v378UBRQ606GownGIzT6PvaJBBVif_6qqXzRNdwFpNBIu2kYQWLFJOM5Q7yTjrgBdeLpy46d3e_JAvoLJdU6-hlw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-0PXPg6rfuLnC8XmEg4lNLPyyB_9uvAw9k9xD7ZvgIz0m8ox4f3v5jxuOOqenz6xAZYrDz-GnyAK0tWk8uK8volxw0fBTg-jqncsUtBqPjZo8JgDTp5j5DFvAWeEMOQrjLmLk4nbtoFQ02giX11B4l23KFNxSThBrhb5g9J3MD_vEpcY3txL-byTZBYnSYepswBfl9nBqdQuNZyakhr-vxBPmxMmW7cUNJxxaBKnywKPseb5-nu8s16DaIb3dpY7B-h6jIOyu6WsHOCDdXo6ln2x0DEU7sXKTPuz6EFdcXFiYvn5JRLlQAip1eZSEo9X9ZmAaSeC12SArYbYrF_9qG3EX6rx_MrcylRqR4eL2OUQWxW_2tA3aPZ-Z_OTsKQKXZzMHzm80SsQ6gk6WrfCu5Zb-nsPxXLZUtzLHlLy4C658X9IhjG6Y0CGaArQzvF4Gl_ZZTn7D6bMYJ3df7s3gXPqtz2bhJRbpS3BZHaLBzm2fHB-FvdBCU09BT350kllvMMopLlX0OZIGo-227LWwx5_WYJUiIUDsUmRmegBwHaocafrCl8zKyOcE6xu-CYuEnk_Ir-KylkFKwv6V9tffvTLRxjdP4I78OeoIutRCf0AdOj7pC0O24umZoHv6JyTLZuTEqMkEwu-r4rVFw0slaXV-KdJ-wFS37kpjRTgOG8hJj6l9x-8IRfolUzMBnVkXZ5M03M-BQ7FxslFAxYSKQnhkhZWNO3VrV3b20WHWK_atq1XayErGrrJ_43qjQF-AL2mwgLbxcP3JfuynYqkzCBEiX3qaXgxBoOggL6buil5QiK6Gp5_C5AkakGxxLGPLrxd1roPWdx76TBtJioDQOwoNAJz4</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P83Y_YgFluylUt76FICSVKU8TPPbyPm5qTruoi6xvjpth3kBlgcYbmezGWvxB8nO3SxfDiHE8TYeECb20NmYBzY4BtYYq2GG_GVax7HQArUeqGLNdxkvJFXBr5Ak36iPccq62oL2qTrPD_0R90NMPUqcGEgKNyav5uQQdrj0NsJrxHYkJLjY8uwgPEti7DBFaC1rroND4wtllQ8EnE1uranohkcn6tKCtpR5q7pnzTeuHea4qd-XipzcR-8A3aNMPYPWX4xJZBQV0-PENAPz7jSIqLh1F5PG1QVMzOLX96sVYQTVsDiDx7XJoY3MXq47aypYsvyvEXd6x9abH_j4ugiXcxKpVftqW76jX-HO3pqi-2_sCp3zBNf5K4WdsDQZt1rUZ6pV3BAPibxAe5tNNAqxskAJePe_ul0L_hIagUZ9UFCQ2nGG5IP-BqnY_gPvN0Ruc9-URNwcTLs4XPMJYs7NDr3e8kL2SCJgi7rPHyc7IeHLaZMXHad3Y5QG2InD4io5Fzm1Pj6AWXpq2XoxBNuXc1lGwylHgAHjB3uDNaTqYSK4h-sLxtHncFbglgI8Ny_uXiC6cr5JBnykgr5OaYl1X5X9rILRAA1OOTwElMjp1feScKvxv17Si2_sG9VR6__-gT0px9sYcJ4iSkGCk0tqZiNXtkBEGbQvL5tSFQ3aTtDIg9FldVo_AZaFK-QZjbEjLD82DzSlQIwv7c6cxy1DMuDnjZbQ3Jn1BnKVBHu4Oc2SfyJKXIVhoa7ZijpIpdzKbX5vtvgfRhNGiwdmPRNea_tKS-HoMvyVpAmtJ6KK8Nryls0PJqk5Ql70xnc91W_j_lC_xQOKdMpmefg9Odwemz7mLg</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkNoMVpWSVVhb0lsblZTbGdCWW9zbTU1dzg1djBWRmlqSGNMLVZYOE5MeFEiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NTU3NDM3LCJuYmYiOjE3NDQ1NTc0MzcsImV4cCI6MTc0NDU2MjQyNywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBaVd6OWlBSmNvY1N4RVByVElqMnZUNjlQckxKMC84S1Z2VDJUcXdVaFlrRVFjZkc2VXh1QTh1c3hiNldRQU8zSzZPd3k2Q3Y2Vy9iQTZmMFN1VXIxaDFxUFJUWXo3SktYdzVDdGRJMDZsZVdUbG9GajVaTnhLOWo2dlM2SzRWK00iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ2R256c2dmTUEwdTBpY3ZRMXZSMUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IllxOEVNRjhUb2t4ZzNuZGs3YlpnSGNwVV9LbWFrek1UVi1GR0FBRk0yMWMiLCJ4bXNfaWRyZWwiOiIxIDQiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.g3jcaW5OdbhzgOSH4hsh-LTBoFP0PHWwoZWnb8oq0NJ2UFI0-aHv-IYn2_0S5YCALx1lCheGZHiD7P-25XlD33BtZDYCBhXP9s5ALmlW11hjvEO5Cs1w1silFz8xDMmj5_2ReUM2-RtayosU8WJuJq2Xs88ap-qVr57YQdcy7O56veJjiraM0EOPl8H4R2DkAFLfusXUURv25x-wGm8FbtWPwZQ_7WIqaBw8_f4z3yRz59OYEqwc7j00wHWq48v378UBRQ606GownGIzT6PvaJBBVif_6qqXzRNdwFpNBIu2kYQWLFJOM5Q7yTjrgBdeLpy46d3e_JAvoLJdU6-hlw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlB3RWVqaUJrMUtuSHdfcURSUHNvYTFmWHRfQlNQRDQyR3hEbzBSTkN4bnMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NTU3NTMwLCJuYmYiOjE3NDQ1NTc1MzAsImV4cCI6MTc0NDU2MjU5MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBTXExZGRHcWhuOWNqYUhVOWZyWjdCT211QWNyT1ZYRHY3cFZpaGlLaEZTRndJRE9SdUd3YmFQeDE5dThWeXJDdkl4VUVWSHpZcWRTN1Q4Q2FwMTc2VGkwS256NERVbmZ2TEdLaldkUEJYZkR4OWpQNHRDQ3NNTENzeDV2ZnNFcGsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJUYVpVMXRYdHpFS1Bma2lIMTE2cEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IndhV3dSREhqSmpYNm5DX25JTFNReDJzVk02cS1GYmxBVTdCSTZEZGdvUGciLCJ4bXNfaWRyZWwiOiIxIDI4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.FouE7zEBERDxEGUB49gURlJV5lH4SzNu9gXiFNdBqkO2neZ4yZbKHsPz5eJKzNkMJodthZVG8w8lm_70eHLL8KB1QBtrqRMnk9UdINk2qnYIdxC_-0F2jBf6cQTc9Ll9VudLYoF5Tk8SYXABi9OGXyGXowdl_h67IJD0tb71uup0o_lq9ydr6vFxRGVbZ872GEHLPG_O2YHa9y_uD1w4V1m3ScevnWJ_rsgPYqXhuQdpQJp6tJI9yWjTkJa55BG6KCd3rXLfa1aKxkNB7TphnSzAGzCkrJZwJEolIJcI9lqNOC_TYEpqxWNappzpYbjbjYxzZU7NsesAAAtbx5azHw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P83Y_YgFluylUt76FICSVKU8TPPbyPm5qTruoi6xvjpth3kBlgcYbmezGWvxB8nO3SxfDiHE8TYeECb20NmYBzY4BtYYq2GG_GVax7HQArUeqGLNdxkvJFXBr5Ak36iPccq62oL2qTrPD_0R90NMPUqcGEgKNyav5uQQdrj0NsJrxHYkJLjY8uwgPEti7DBFaC1rroND4wtllQ8EnE1uranohkcn6tKCtpR5q7pnzTeuHea4qd-XipzcR-8A3aNMPYPWX4xJZBQV0-PENAPz7jSIqLh1F5PG1QVMzOLX96sVYQTVsDiDx7XJoY3MXq47aypYsvyvEXd6x9abH_j4ugiXcxKpVftqW76jX-HO3pqi-2_sCp3zBNf5K4WdsDQZt1rUZ6pV3BAPibxAe5tNNAqxskAJePe_ul0L_hIagUZ9UFCQ2nGG5IP-BqnY_gPvN0Ruc9-URNwcTLs4XPMJYs7NDr3e8kL2SCJgi7rPHyc7IeHLaZMXHad3Y5QG2InD4io5Fzm1Pj6AWXpq2XoxBNuXc1lGwylHgAHjB3uDNaTqYSK4h-sLxtHncFbglgI8Ny_uXiC6cr5JBnykgr5OaYl1X5X9rILRAA1OOTwElMjp1feScKvxv17Si2_sG9VR6__-gT0px9sYcJ4iSkGCk0tqZiNXtkBEGbQvL5tSFQ3aTtDIg9FldVo_AZaFK-QZjbEjLD82DzSlQIwv7c6cxy1DMuDnjZbQ3Jn1BnKVBHu4Oc2SfyJKXIVhoa7ZijpIpdzKbX5vtvgfRhNGiwdmPRNea_tKS-HoMvyVpAmtJ6KK8Nryls0PJqk5Ql70xnc91W_j_lC_xQOKdMpmefg9Odwemz7mLg</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8KuG95BUX399m8ORIq0-3I4r2hgNQ1-Nde5cNJijUq9rUMnRjSzNFykSmcq1JSTKvks45-4Z2cOV0kRi9QMhkYwuoEh584HTL45drtPX0_SuIdPyGVyz4Thxevos-ZfWe7HL6G3nvX1Bqi3DrmSNbpfjKMB6QGDnN6H_9waeILNnfkfiPHMZeDf367r6Lv1M9HwkyLxeb8aVxKU3aZf5ggqXKWCpSYm_V3EjbSwjK8jK5HM8fKLoaMJ1q-mGcaqYKyoWxg1lbEaS24odMJG_jUZ75Msuc5REGT9AMv45vYqGji-3j77INMsGb64mtAMmjPvEJySJpHBl-5cwKSJxLiPkBN6OuJRKuuH8YapXXGhCzaBUFWSloaeO7_bxMqVECNWMiPPKeXXgQWMOY09RyP7BDqLHXlZPac_lHpWyNfhy8nn3HRjJbdAhg1JGMmdxjsYVx-12q7IFL4lRkvPpKY8P13f71zMygEv2mehmgwSYDR-Z3lyIVMN0U98V1Rt9un-KvhkJ5PTEn4bBGWodh1fQRPhJup9E67bry_6DyfSLPPrFvCIlXjfUjKnn1eP7AvIJDTg6J1qJFSkQ1PrcWEVb7yO0ZtMWDazRAcmQUuTLBOHZgp3uZ-NF3dK2ZQFPUiF9WdIi177vq8Dw6n3nJnn1DTdgYnhOCT5_jmJHhugkfq-qMFaIhpzUo7z8TR6zZjYZ5OSlkWOqbscOyU6P0-jdID9-Znf-W-N6kh-ZWxjBwjc0Tz67AWkjTRFUQPLMvbbWoINcMhhYIg4eK6xx_sfqid4f6GCVTzxHzKsxzIWivEfvHHVKe6kz5fzrUyjswZMz7aaqLiJCM5q1d0MiDW7_mrBNA</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlB3RWVqaUJrMUtuSHdfcURSUHNvYTFmWHRfQlNQRDQyR3hEbzBSTkN4bnMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NTU3NTMwLCJuYmYiOjE3NDQ1NTc1MzAsImV4cCI6MTc0NDU2MjU5MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBTXExZGRHcWhuOWNqYUhVOWZyWjdCT211QWNyT1ZYRHY3cFZpaGlLaEZTRndJRE9SdUd3YmFQeDE5dThWeXJDdkl4VUVWSHpZcWRTN1Q4Q2FwMTc2VGkwS256NERVbmZ2TEdLaldkUEJYZkR4OWpQNHRDQ3NNTENzeDV2ZnNFcGsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJUYVpVMXRYdHpFS1Bma2lIMTE2cEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IndhV3dSREhqSmpYNm5DX25JTFNReDJzVk02cS1GYmxBVTdCSTZEZGdvUGciLCJ4bXNfaWRyZWwiOiIxIDI4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.FouE7zEBERDxEGUB49gURlJV5lH4SzNu9gXiFNdBqkO2neZ4yZbKHsPz5eJKzNkMJodthZVG8w8lm_70eHLL8KB1QBtrqRMnk9UdINk2qnYIdxC_-0F2jBf6cQTc9Ll9VudLYoF5Tk8SYXABi9OGXyGXowdl_h67IJD0tb71uup0o_lq9ydr6vFxRGVbZ872GEHLPG_O2YHa9y_uD1w4V1m3ScevnWJ_rsgPYqXhuQdpQJp6tJI9yWjTkJa55BG6KCd3rXLfa1aKxkNB7TphnSzAGzCkrJZwJEolIJcI9lqNOC_TYEpqxWNappzpYbjbjYxzZU7NsesAAAtbx5azHw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InVDenVMWUh2U2g3MFFVQ1dRbF9ya0p2elYzVWRhRUYzNng5cVNrQTgyaW8iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjAzNzI4LCJuYmYiOjE3NDQ2MDM3MjgsImV4cCI6MTc0NDYwOTI3MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBaVd6OWlBSmNvY1N4RVByVElqMnZUNjlQckxKMC84S1Z2VDJUcXdVaFlrRVFjZkc2VXh1QTh1c3hiNldRQU8zSzZPd3k2Q3Y2Vy9iQTZmMFN1VXIxaDFxUFJUWXo3SktYdzVDdGRJMDZsZVdUbG9GajVaTnhLOWo2dlM2SzRWK00iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJIaXA4aE9VdDcwLWZ1T0U0bHNRdEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjF3d1JwS0NLbEZWTDBPeFl1T0pMZGNRQVltTDczZVRHSGNFNFhUcks3dU0iLCJ4bXNfaWRyZWwiOiIyMiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Pjx2jZoDQFFsxDi96ADRMvTn7S6GM5Cpna1UEYfK9LH9E5ET_FyyAktjvlITJbMB-wRtUQDvlYhv-74Wn4vrVoJkOSHT1uraiqyJPrvxhiBORllZ-a9M_EynovjD94qZJkSK3hoZlNr24yc2vb-xQjxs8ROVbqdUlIB7iowurM-7retqbOe-ullYSBVVh0rreklM7FneLElRY73ckXEVWmy7buRY1SRP441q-72zyZaWfdoh8E7UUrC8diP_w0ni_Hf6_a7MVptVnyq6fI2__RHLOSV2KXlHxFbOQHDdA73H-7FQ9BzPYQxQ2l8EZWyxhuFz6V9JLadRZjVVqoFvNA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8KuG95BUX399m8ORIq0-3I4r2hgNQ1-Nde5cNJijUq9rUMnRjSzNFykSmcq1JSTKvks45-4Z2cOV0kRi9QMhkYwuoEh584HTL45drtPX0_SuIdPyGVyz4Thxevos-ZfWe7HL6G3nvX1Bqi3DrmSNbpfjKMB6QGDnN6H_9waeILNnfkfiPHMZeDf367r6Lv1M9HwkyLxeb8aVxKU3aZf5ggqXKWCpSYm_V3EjbSwjK8jK5HM8fKLoaMJ1q-mGcaqYKyoWxg1lbEaS24odMJG_jUZ75Msuc5REGT9AMv45vYqGji-3j77INMsGb64mtAMmjPvEJySJpHBl-5cwKSJxLiPkBN6OuJRKuuH8YapXXGhCzaBUFWSloaeO7_bxMqVECNWMiPPKeXXgQWMOY09RyP7BDqLHXlZPac_lHpWyNfhy8nn3HRjJbdAhg1JGMmdxjsYVx-12q7IFL4lRkvPpKY8P13f71zMygEv2mehmgwSYDR-Z3lyIVMN0U98V1Rt9un-KvhkJ5PTEn4bBGWodh1fQRPhJup9E67bry_6DyfSLPPrFvCIlXjfUjKnn1eP7AvIJDTg6J1qJFSkQ1PrcWEVb7yO0ZtMWDazRAcmQUuTLBOHZgp3uZ-NF3dK2ZQFPUiF9WdIi177vq8Dw6n3nJnn1DTdgYnhOCT5_jmJHhugkfq-qMFaIhpzUo7z8TR6zZjYZ5OSlkWOqbscOyU6P0-jdID9-Znf-W-N6kh-ZWxjBwjc0Tz67AWkjTRFUQPLMvbbWoINcMhhYIg4eK6xx_sfqid4f6GCVTzxHzKsxzIWivEfvHHVKe6kz5fzrUyjswZMz7aaqLiJCM5q1d0MiDW7_mrBNA</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8sU6zCCpexEnNXl5yXn_Q1kEkccE6n71eayDlXIwDp_1Vb9uS56hUPzJGz5-GYOG7vrHpqgRVcpd5CLAnkEtHChI8icpwsFl7jP5StZHYwMx5CU77YJ1zOAeOOP8qGhUw0Ajewfr6i8gq6zfUJL0VsnHVx-RjVBhujNeCqLosY-tjT0_OzwxF1_Qs-mGg25lUGbUG-dUw8HZAB0CGAx7MqzTZ8LYUCHvlmXrj9iZZAr0ZSFPi07lGS-4NxTTXYRnKePTKMuwdYsb3KQXHfkLYdB3ZHA3qnA0KM104YgzpWhhuh8zuEByWKBKijaehwq6-2HQQtmFzPjOP0_NPG9gOG4y4B0MIO2hCiWjoWxXLXgI6J543r0vL-peJCVU7k_vHuDw5ya0cvVyM_CtqzIioamiy1PpqWEedU2flfmSlxFdFG6z8VYZdkj5bZeOVmeVSV2-e6S32hv_GFYohLUVwln8tNDI0IycoKtzeDBVVTKXcewzWvpU5B60huTH4-9eq2baHOn0llThKbKQ8KsLhejXb5ivZDYo222OCzls-1AhIK5B_iLA6EZMHw3WiMx_PZlS1BTzomvSr43gy5VMCtmX3RJmhvbIgJByveRADdFyScR3UahpnINqjBla6_WdkiQZ_xTcczDq-bz2_l2VxqyvKnSTapzZrQ0TZcm2hGu6eUEBKY1cEjfpuAxR8Z3LW1e5qJBoZBVaA76sII9p3IL3IVRl92HZVqgyQNjkZ7MJvdvENdn1sh-8csK-G3z88kF8v3gQtPnKDjMImaTjGCVU1M_OpLJXbSOtxxzlwLI6Iy3XSzrKZoeIFYdifw0KU7pKRLBQ94JAcnh_a1pSTDGnm9DKg</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InVDenVMWUh2U2g3MFFVQ1dRbF9ya0p2elYzVWRhRUYzNng5cVNrQTgyaW8iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjAzNzI4LCJuYmYiOjE3NDQ2MDM3MjgsImV4cCI6MTc0NDYwOTI3MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBaVd6OWlBSmNvY1N4RVByVElqMnZUNjlQckxKMC84S1Z2VDJUcXdVaFlrRVFjZkc2VXh1QTh1c3hiNldRQU8zSzZPd3k2Q3Y2Vy9iQTZmMFN1VXIxaDFxUFJUWXo3SktYdzVDdGRJMDZsZVdUbG9GajVaTnhLOWo2dlM2SzRWK00iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJIaXA4aE9VdDcwLWZ1T0U0bHNRdEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjF3d1JwS0NLbEZWTDBPeFl1T0pMZGNRQVltTDczZVRHSGNFNFhUcks3dU0iLCJ4bXNfaWRyZWwiOiIyMiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Pjx2jZoDQFFsxDi96ADRMvTn7S6GM5Cpna1UEYfK9LH9E5ET_FyyAktjvlITJbMB-wRtUQDvlYhv-74Wn4vrVoJkOSHT1uraiqyJPrvxhiBORllZ-a9M_EynovjD94qZJkSK3hoZlNr24yc2vb-xQjxs8ROVbqdUlIB7iowurM-7retqbOe-ullYSBVVh0rreklM7FneLElRY73ckXEVWmy7buRY1SRP441q-72zyZaWfdoh8E7UUrC8diP_w0ni_Hf6_a7MVptVnyq6fI2__RHLOSV2KXlHxFbOQHDdA73H-7FQ9BzPYQxQ2l8EZWyxhuFz6V9JLadRZjVVqoFvNA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Imgzd3lRSlppMUNDTlNJYk9TQWMxNVcydG1BRjliUWc0RGpxNXZRRjk4clUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA0NTI4LCJuYmYiOjE3NDQ2MDQ1MjgsImV4cCI6MTc0NDYwODQ1OSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBakFNWXRDOWZ3dlVYOEJLRlJ2UVRpRUJOOHF1aEFTWDVIcmZDNDlxYTl2QUtzOHJuRG5kK1FoeXBIYmk2b25kSWlXYzY4UElMZTc4MEdQR3NQa2cyWm43djUyb0pEQWhlRWtLeTRmKzQxc3paTE1JTCtucVFtdU5aQmY5WVl2Z2giLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJqclhhRUQ0N0owS19vMnRpUERxTEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlRkZHRvekY3T2RnTkQtdHZVcmR0QlFlWmFzUl9SeWJ1SkNqWnJWTHRZSVEiLCJ4bXNfaWRyZWwiOiIxIDE0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.LMrtPPc8yi8qHKIZJam7iNwlDg9cvP1g1nnYz-vDDox9drfLleOnlYn_MmBUochkpBkcmMGA6IvtFhTofvlZsSvFFyXAquf4G55cYsQfPepUBV4bvBfIySTATFqyH-0todEtRc-7OdlkKlGfaT6-nYLkEBLBcJZyv92DdtXJjB_9l01U3Q2sP8e6jHgvDZATLsfzfd-xu3FyOV0_NKmNPmgw7JGKPtXfdzoEjbqOe_SbNICQmK4RUz9RXDI3Mw9uKtfHel_CyeiuQQ2Ly2VeVLhibgZfnMJ5KpPj2hCuvXZ0WBMxkHrEfNtjJYqTKihrJR6tFtvgW8z6xCqCiEcaeg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8sU6zCCpexEnNXl5yXn_Q1kEkccE6n71eayDlXIwDp_1Vb9uS56hUPzJGz5-GYOG7vrHpqgRVcpd5CLAnkEtHChI8icpwsFl7jP5StZHYwMx5CU77YJ1zOAeOOP8qGhUw0Ajewfr6i8gq6zfUJL0VsnHVx-RjVBhujNeCqLosY-tjT0_OzwxF1_Qs-mGg25lUGbUG-dUw8HZAB0CGAx7MqzTZ8LYUCHvlmXrj9iZZAr0ZSFPi07lGS-4NxTTXYRnKePTKMuwdYsb3KQXHfkLYdB3ZHA3qnA0KM104YgzpWhhuh8zuEByWKBKijaehwq6-2HQQtmFzPjOP0_NPG9gOG4y4B0MIO2hCiWjoWxXLXgI6J543r0vL-peJCVU7k_vHuDw5ya0cvVyM_CtqzIioamiy1PpqWEedU2flfmSlxFdFG6z8VYZdkj5bZeOVmeVSV2-e6S32hv_GFYohLUVwln8tNDI0IycoKtzeDBVVTKXcewzWvpU5B60huTH4-9eq2baHOn0llThKbKQ8KsLhejXb5ivZDYo222OCzls-1AhIK5B_iLA6EZMHw3WiMx_PZlS1BTzomvSr43gy5VMCtmX3RJmhvbIgJByveRADdFyScR3UahpnINqjBla6_WdkiQZ_xTcczDq-bz2_l2VxqyvKnSTapzZrQ0TZcm2hGu6eUEBKY1cEjfpuAxR8Z3LW1e5qJBoZBVaA76sII9p3IL3IVRl92HZVqgyQNjkZ7MJvdvENdn1sh-8csK-G3z88kF8v3gQtPnKDjMImaTjGCVU1M_OpLJXbSOtxxzlwLI6Iy3XSzrKZoeIFYdifw0KU7pKRLBQ94JAcnh_a1pSTDGnm9DKg</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-ZX8f36eO9Zk4ep7H4IM8Shaq6XHcgSFsNDAyz_oeQCf4ciRZZeiyEWtEow0lwPYlT-slE37WghPFpsiPyxFhtUz0PzlwrcrX6Jzt7g91DNDvi1KWb1VsO95BzokpjjcUCAcYSv4mc4UTpu1mTs92vyTQy9eaUtRDUJedDD2oYPFxkZ3tbesZMiG4Qc-w9UlQhfWhrtgXrue2xIsQx4Kvdfv95T5B82lvRQfZWtQ0EfALqEMi75WeQAk1iQKVIBIggbGgq5NhUh3LWrD-ZjQ0I1TFf7_bwF0P0tJ6NVoINTYzDsDmX6NZG369C75YVitqdhehAitFlcFXvPH8v5X-XKTnzqYal80sSLEbsf51WGapV6BqQ6PYhBMBLk_-nc2GmC2UMcsHMx6w7IzkG7d_drCUou5s2UrKkxi97nKrIGGkzGuTK_mbT7TmqI8Ct69psvxQ9cbqkCqwg27Mbpez6QwZfLGsAh8Y28WgGc0xYFkEwKCNbR5ZVPISff4RLEPqC0CRlh0g81zUQaVCjF9nTTqlKApYKLsfVZbpPQDRnrjqxNFGRG2Rs5yg8xBxWP8va9E-Uv9A_nFM7-lY-hR1qD6G-mq8ogM9-qgGSn1MKhKauyocjfos7bvgUcW6raEIQy_9XQsCKpqXvFS56e-ejq-qR9shlQ6qyu9hDgbarSqC_TUemXfpsg_NbfrqzjgrWVXiDTfGD4D5p7R0CYy5sdpqED7Fgo23K2dBaIm-aJdFZVX3TUfZQIOaCmKUP_Y2z_yTix5NA8NnFuKHdqKjxmx1ozt1Vf5viMYeSQlf2Iw3VjDuXpLZ4JqLih1uVNoOe4Va-wTyNALM8dDH7drP2uLpz94A</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Imgzd3lRSlppMUNDTlNJYk9TQWMxNVcydG1BRjliUWc0RGpxNXZRRjk4clUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA0NTI4LCJuYmYiOjE3NDQ2MDQ1MjgsImV4cCI6MTc0NDYwODQ1OSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBakFNWXRDOWZ3dlVYOEJLRlJ2UVRpRUJOOHF1aEFTWDVIcmZDNDlxYTl2QUtzOHJuRG5kK1FoeXBIYmk2b25kSWlXYzY4UElMZTc4MEdQR3NQa2cyWm43djUyb0pEQWhlRWtLeTRmKzQxc3paTE1JTCtucVFtdU5aQmY5WVl2Z2giLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJqclhhRUQ0N0owS19vMnRpUERxTEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlRkZHRvekY3T2RnTkQtdHZVcmR0QlFlWmFzUl9SeWJ1SkNqWnJWTHRZSVEiLCJ4bXNfaWRyZWwiOiIxIDE0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.LMrtPPc8yi8qHKIZJam7iNwlDg9cvP1g1nnYz-vDDox9drfLleOnlYn_MmBUochkpBkcmMGA6IvtFhTofvlZsSvFFyXAquf4G55cYsQfPepUBV4bvBfIySTATFqyH-0todEtRc-7OdlkKlGfaT6-nYLkEBLBcJZyv92DdtXJjB_9l01U3Q2sP8e6jHgvDZATLsfzfd-xu3FyOV0_NKmNPmgw7JGKPtXfdzoEjbqOe_SbNICQmK4RUz9RXDI3Mw9uKtfHel_CyeiuQQ2Ly2VeVLhibgZfnMJ5KpPj2hCuvXZ0WBMxkHrEfNtjJYqTKihrJR6tFtvgW8z6xCqCiEcaeg</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InJybUdXNUpSeWZyZjBPbXZQeXNsa19Tb1FWa1k0RG95ZVVvQ3dPM1dOTGciLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA1NjI4LCJuYmYiOjE3NDQ2MDU2MjgsImV4cCI6MTc0NDYxMDIwMCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSTVMVVhqZ2d4ckgzdW96Y0JUZ3ZvWWR0K3dJbFFGa29JOHpLQTBQWVAvbjk0ZHpkM21EbnFCekRxb1FNQVo3NGVKd01TbWZTUU5TLzdhUDIveDcwclhrN1hFTUMzaFZsR09TRkdJelBycnYzclU1NjM1Q0NubUt2TGJFak5tRkEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJwUTl4cDlSc01rV3FQT0lFSHEwckFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InBsaHNGQ1RTVlR1aVFaaFBnYmFCWEdDQ1M3eFhtczBKN0VZYjZkQWt6NGciLCJ4bXNfaWRyZWwiOiIxIDIwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hr0ydkCL9KZsqUSWhRMOI3TssDVxPAakoLik9Q3zR2xA427ipq6NrFnT8lyhZ40MRfjOwzn7FWVFdrFYyztNuRN9MFU0On7_EQmwTS8ixp0OYVuAiTz4XzjV0bbPfljLzwCpEA2SfawJ0tJ5W-c2tnFx05NzpZQlhEmyqyBlDT4SqQqHDhaMmVre9fhZIKS0VirMd3uIYStF_Lj0LCZphN5ZvqEffpPTc0eJ4lfMGVx8ixS0oay9sRsAWDUyNSbKhRVpGfFrG56-Yd2kOlaRLin7Zcq09wzONewYufuWcNj2bzRiK8EtZqa8Gqy5NuEGGqdLi_p9RTFh-OYtnEqIcA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-ZX8f36eO9Zk4ep7H4IM8Shaq6XHcgSFsNDAyz_oeQCf4ciRZZeiyEWtEow0lwPYlT-slE37WghPFpsiPyxFhtUz0PzlwrcrX6Jzt7g91DNDvi1KWb1VsO95BzokpjjcUCAcYSv4mc4UTpu1mTs92vyTQy9eaUtRDUJedDD2oYPFxkZ3tbesZMiG4Qc-w9UlQhfWhrtgXrue2xIsQx4Kvdfv95T5B82lvRQfZWtQ0EfALqEMi75WeQAk1iQKVIBIggbGgq5NhUh3LWrD-ZjQ0I1TFf7_bwF0P0tJ6NVoINTYzDsDmX6NZG369C75YVitqdhehAitFlcFXvPH8v5X-XKTnzqYal80sSLEbsf51WGapV6BqQ6PYhBMBLk_-nc2GmC2UMcsHMx6w7IzkG7d_drCUou5s2UrKkxi97nKrIGGkzGuTK_mbT7TmqI8Ct69psvxQ9cbqkCqwg27Mbpez6QwZfLGsAh8Y28WgGc0xYFkEwKCNbR5ZVPISff4RLEPqC0CRlh0g81zUQaVCjF9nTTqlKApYKLsfVZbpPQDRnrjqxNFGRG2Rs5yg8xBxWP8va9E-Uv9A_nFM7-lY-hR1qD6G-mq8ogM9-qgGSn1MKhKauyocjfos7bvgUcW6raEIQy_9XQsCKpqXvFS56e-ejq-qR9shlQ6qyu9hDgbarSqC_TUemXfpsg_NbfrqzjgrWVXiDTfGD4D5p7R0CYy5sdpqED7Fgo23K2dBaIm-aJdFZVX3TUfZQIOaCmKUP_Y2z_yTix5NA8NnFuKHdqKjxmx1ozt1Vf5viMYeSQlf2Iw3VjDuXpLZ4JqLih1uVNoOe4Va-wTyNALM8dDH7drP2uLpz94A</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-P2aMvVc25Y-w_OFRkFIJwCADzhklxf8m8BwoQraf-6yKSdDnDF61bB5UPkN59Kfr1Wfc4rr1j4XYkcjG7kXwgDYQ9xEWJbQcMZqEv-8hnQwIKg3p03efZgMT09bcXR4lHWGQHjz0uDI58FjbEs8PD1QsWCexlhHG2M1lmAdo7pNEdu3rt0aVZhgb0CU6mLiK-S777bnq319hHQiJ7oEMi65tarPazh8GzisCBYGCjQSTwmG5Z8dOVoG3GXqwpEn66WLZYtpt5q6QXxxzOGc6JRkDv2CWYw6_5RvxniOUQAMX4kTxPBpoRUy3l0ao5zHcXpC-UHrCajRryQIneyNA65vQxbNjb_i5BOIwBaV_ReqDq24gN7ak8CfVVfbpmQKSSQi2q6gVRnJlQ6d7U9RrL69CI0DVUEuWg-YqgGO6hAmwAgGarGNpJZrKRIpR0qZ02aexqTBFw0UL8ndJT5BDXW_ZU8UvbyIbiZ11zenQ-vOF0XZiTotIfbIdQAKnjTxEe7Yx6rON3HRnh8jes1XhPiq0dbSRcuiFp1o-pG38M9If314gpyiB4Jw9ASLp7WC_J398gsagKFJPcHuYi3noSdWUexsVkqFKYtpvXcNwbfisBTvcKJeg9ogwBP0iDQestjJUi8F-h2SRMNyrKMuMIzJvLspo2P_Gl2zaLx0VH6PJrnxdds-Eygo9ZDCen5dMICqzPAH3ihAPnGhbE2WQVfqPzIMRmnwkcouy2J88rPQSy_1gw6XM-AVnmSYXmzfGhT6j_pydkE9WsU8-uasSBPUQKXFnBWUlINKRkl5iRbF9hZZk4Ir2OO3JDf-R6exquUqR-ChV6bXFKArdQG9zxmI8ggSE</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InJybUdXNUpSeWZyZjBPbXZQeXNsa19Tb1FWa1k0RG95ZVVvQ3dPM1dOTGciLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA1NjI4LCJuYmYiOjE3NDQ2MDU2MjgsImV4cCI6MTc0NDYxMDIwMCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSTVMVVhqZ2d4ckgzdW96Y0JUZ3ZvWWR0K3dJbFFGa29JOHpLQTBQWVAvbjk0ZHpkM21EbnFCekRxb1FNQVo3NGVKd01TbWZTUU5TLzdhUDIveDcwclhrN1hFTUMzaFZsR09TRkdJelBycnYzclU1NjM1Q0NubUt2TGJFak5tRkEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJwUTl4cDlSc01rV3FQT0lFSHEwckFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InBsaHNGQ1RTVlR1aVFaaFBnYmFCWEdDQ1M3eFhtczBKN0VZYjZkQWt6NGciLCJ4bXNfaWRyZWwiOiIxIDIwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hr0ydkCL9KZsqUSWhRMOI3TssDVxPAakoLik9Q3zR2xA427ipq6NrFnT8lyhZ40MRfjOwzn7FWVFdrFYyztNuRN9MFU0On7_EQmwTS8ixp0OYVuAiTz4XzjV0bbPfljLzwCpEA2SfawJ0tJ5W-c2tnFx05NzpZQlhEmyqyBlDT4SqQqHDhaMmVre9fhZIKS0VirMd3uIYStF_Lj0LCZphN5ZvqEffpPTc0eJ4lfMGVx8ixS0oay9sRsAWDUyNSbKhRVpGfFrG56-Yd2kOlaRLin7Zcq09wzONewYufuWcNj2bzRiK8EtZqa8Gqy5NuEGGqdLi_p9RTFh-OYtnEqIcA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkJRei1CclNWalZnbDhlcnlZelNoOVhmRFc2ZXFLLUdvV2I1Z3RBRkgzRjgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA2MzU3LCJuYmYiOjE3NDQ2MDYzNTcsImV4cCI6MTc0NDYxMTg5NywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBUmRnSXcrZUg0bloveTAvanA3dURqYUhwOUZMSmIrU1RYaGtjelIxNk9hOGdhZUFBazloTmZ3dDVSTHVDU1lvSG01dndJVm9VMHJNTEZSZ29vL1dxRnpSSW5qT1ZTL2VHS29DbGVLSEp0UzhmVkhsNDFneUZ1NG9xOGM3TGNucysiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJGYnFZcmxvSUYwU0NIelRUd3cwdUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Im1uQ0lVSE91dzA3Rl94YjhzMFJJTXMwcHFhdUtDcXJsdHNPZHBxem5EU3MiLCJ4bXNfaWRyZWwiOiIyMCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.BdKa7it631ygXdv0i0fQ15-7Wu6lgpa7s3_Qm9NbqRIEReMvRdJ1i_kIcaQLaP0lprBkq0JgGPMHcC7dqWypqcL_CCSOOFPzR5Oe7DJ-iY-EVw-4S5e7RYI--y_p9wP4TGoWyoqOUA2LdbACylGU_3oclCMPahen8nXcTf2PCtiJmd4nH1SFcbt0FgoGiIpx0Kr3SycXeMZSOODvjsWS8KC2wvRYqNgPFMq5nWu7Y9A6iURGCuLCoxvOdbekSwPj5u9SqA41cqsDRHWX83_fYhgoxRBVjRIScIGK-1ZZP4qAT9GBIW2ptwsA8fTR9KHsSPt2AewhCm7J2EmH23iTmw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-P2aMvVc25Y-w_OFRkFIJwCADzhklxf8m8BwoQraf-6yKSdDnDF61bB5UPkN59Kfr1Wfc4rr1j4XYkcjG7kXwgDYQ9xEWJbQcMZqEv-8hnQwIKg3p03efZgMT09bcXR4lHWGQHjz0uDI58FjbEs8PD1QsWCexlhHG2M1lmAdo7pNEdu3rt0aVZhgb0CU6mLiK-S777bnq319hHQiJ7oEMi65tarPazh8GzisCBYGCjQSTwmG5Z8dOVoG3GXqwpEn66WLZYtpt5q6QXxxzOGc6JRkDv2CWYw6_5RvxniOUQAMX4kTxPBpoRUy3l0ao5zHcXpC-UHrCajRryQIneyNA65vQxbNjb_i5BOIwBaV_ReqDq24gN7ak8CfVVfbpmQKSSQi2q6gVRnJlQ6d7U9RrL69CI0DVUEuWg-YqgGO6hAmwAgGarGNpJZrKRIpR0qZ02aexqTBFw0UL8ndJT5BDXW_ZU8UvbyIbiZ11zenQ-vOF0XZiTotIfbIdQAKnjTxEe7Yx6rON3HRnh8jes1XhPiq0dbSRcuiFp1o-pG38M9If314gpyiB4Jw9ASLp7WC_J398gsagKFJPcHuYi3noSdWUexsVkqFKYtpvXcNwbfisBTvcKJeg9ogwBP0iDQestjJUi8F-h2SRMNyrKMuMIzJvLspo2P_Gl2zaLx0VH6PJrnxdds-Eygo9ZDCen5dMICqzPAH3ihAPnGhbE2WQVfqPzIMRmnwkcouy2J88rPQSy_1gw6XM-AVnmSYXmzfGhT6j_pydkE9WsU8-uasSBPUQKXFnBWUlINKRkl5iRbF9hZZk4Ir2OO3JDf-R6exquUqR-ChV6bXFKArdQG9zxmI8ggSE</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_dDrbZW7dzR05ViGp2p-fPtZk9W0jsqv45ao4ynNsOADZhqYObwhAO7C0Dk2XEW9SIfgiLHyW8chrcTSelJzF9w5whrJ2-jXRausZBLb-cugmDKsybqAEP27c_h63h1FtLvtMpA62u4suvF8AyIFSDIlX_lVgNX9pijJX79n6KaItG21GaQYfVWHUxkD8rv63GhzfnA7LpSaP4N7IQZZIUQBmfaJ8SzFFydCvEgrId6Unu7NKy5LvCQoR71wLpSbaGR3ZWmFqpgysvuU5HRh-56zNz2T7HZKWA_-_0jhwrmARZGE5phJ5EhFfxiLPzVfl_pYJCgMchSyjAodqUoR_Ew7qDwsQLSUGUPnftHHa_fX0UiV7Cdt2vMagOJUL9Xxm6SWtHZRxI1Y20BzowiYjyGBTCV7qOjv6rZD_i5YFTwEfHhXKWLicuqyueJl9vFKSRodOltaOCs3jjaFDk5ZPouEGoQGI7P5gGppqJUynT9gLRsBMIgRFJiphykY5WPob7Fx3HNjutxLeZkCa8cbXwT8GAuZxYuPc5JJcxi_iNs5Q7sNbfvi5JRdZIm49f7VboZf_9GQOhLtEy3RZUq10qFLMOzmIB4Y-lggGGK-4iKaRmtuuHi2YxSnQrrTDsQivSZhq5lEr3ZP-ItN1QKHK44GphcJGPPKr-bzJenvgQ8GZh414k6WcHvL8SjisKInyLaa8-H4Sp8-95iITnAOJK9_4RNICp9-9ozoM0Yg07MlEhYRzbUNbuAaBtdvWyNz6EEN_MNXciQZQeazwluS_inXevNlpvyhFDkgiJUW62YF5uMv58f2y-0oe4LEcVIY3hv3wQl1Xh21Qez5ZrrTSd0vGgWK4</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkJRei1CclNWalZnbDhlcnlZelNoOVhmRFc2ZXFLLUdvV2I1Z3RBRkgzRjgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA2MzU3LCJuYmYiOjE3NDQ2MDYzNTcsImV4cCI6MTc0NDYxMTg5NywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBUmRnSXcrZUg0bloveTAvanA3dURqYUhwOUZMSmIrU1RYaGtjelIxNk9hOGdhZUFBazloTmZ3dDVSTHVDU1lvSG01dndJVm9VMHJNTEZSZ29vL1dxRnpSSW5qT1ZTL2VHS29DbGVLSEp0UzhmVkhsNDFneUZ1NG9xOGM3TGNucysiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJGYnFZcmxvSUYwU0NIelRUd3cwdUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Im1uQ0lVSE91dzA3Rl94YjhzMFJJTXMwcHFhdUtDcXJsdHNPZHBxem5EU3MiLCJ4bXNfaWRyZWwiOiIyMCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.BdKa7it631ygXdv0i0fQ15-7Wu6lgpa7s3_Qm9NbqRIEReMvRdJ1i_kIcaQLaP0lprBkq0JgGPMHcC7dqWypqcL_CCSOOFPzR5Oe7DJ-iY-EVw-4S5e7RYI--y_p9wP4TGoWyoqOUA2LdbACylGU_3oclCMPahen8nXcTf2PCtiJmd4nH1SFcbt0FgoGiIpx0Kr3SycXeMZSOODvjsWS8KC2wvRYqNgPFMq5nWu7Y9A6iURGCuLCoxvOdbekSwPj5u9SqA41cqsDRHWX83_fYhgoxRBVjRIScIGK-1ZZP4qAT9GBIW2ptwsA8fTR9KHsSPt2AewhCm7J2EmH23iTmw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IndmTm9OUlUzSVpmRWZRV0NKanlsQzd5T2J4RU5ndm8tTjU3WmNfc3BFUkUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA4MTM1LCJuYmYiOjE3NDQ2MDgxMzUsImV4cCI6MTc0NDYxMjg3NiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBOUs2ejZuVjNYeFllOWE0R0kxdXV2YnNpbHY2REg1U1FSNHdyS0kxcUZJdEx6SGxkNG1jTlpOejhReXdnTXRzUXVTYmsyaWN0UGViVUx0OFlsbUZTL2l5TEpEVEpKMjVtd2I4c0FxMm5OVmwrZndIcEkzZXMzZXNMVkxHWDQ0SHkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ4NUxnMUQ3MXpFU0FRMmFQbFQyZEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkxEZ2NrM1dvT3k5bEtvdFRHTE00MDlfWVdHeWV2MnF2am5XeF9uMk5SNDAiLCJ4bXNfaWRyZWwiOiIxIDI0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hcwBQXZuAencAOlPnCosoB7x4EJkur3aXi2JlunpNh139ivwFcY2wqUfhyW-8FtcX7dG76LcM1hhTOUu5V7OSddsWHu-AVAVxE1ef3GfgpiwPE-2X7XYuQhHDs2ZqXAWQgCc5Izg0xZVOoTZSelRDp4ineqd2G53yY0H0dE2kFcCeuBnL8MFCqpD0ITV3NjWARW4sJ0zqlX9uSzN9X21P-dwT9wszbgPU0Rdokm3RG9GGjFYWJH6MMYdfNvxzQ_dm3s6yJk7_m8gPANVh_naeiZo-wE83PARAY-44uFUUDC4JaE1Aegl8_Zs7uLmU4q7D5HUEnPT-aTYV1HZN10-AA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_dDrbZW7dzR05ViGp2p-fPtZk9W0jsqv45ao4ynNsOADZhqYObwhAO7C0Dk2XEW9SIfgiLHyW8chrcTSelJzF9w5whrJ2-jXRausZBLb-cugmDKsybqAEP27c_h63h1FtLvtMpA62u4suvF8AyIFSDIlX_lVgNX9pijJX79n6KaItG21GaQYfVWHUxkD8rv63GhzfnA7LpSaP4N7IQZZIUQBmfaJ8SzFFydCvEgrId6Unu7NKy5LvCQoR71wLpSbaGR3ZWmFqpgysvuU5HRh-56zNz2T7HZKWA_-_0jhwrmARZGE5phJ5EhFfxiLPzVfl_pYJCgMchSyjAodqUoR_Ew7qDwsQLSUGUPnftHHa_fX0UiV7Cdt2vMagOJUL9Xxm6SWtHZRxI1Y20BzowiYjyGBTCV7qOjv6rZD_i5YFTwEfHhXKWLicuqyueJl9vFKSRodOltaOCs3jjaFDk5ZPouEGoQGI7P5gGppqJUynT9gLRsBMIgRFJiphykY5WPob7Fx3HNjutxLeZkCa8cbXwT8GAuZxYuPc5JJcxi_iNs5Q7sNbfvi5JRdZIm49f7VboZf_9GQOhLtEy3RZUq10qFLMOzmIB4Y-lggGGK-4iKaRmtuuHi2YxSnQrrTDsQivSZhq5lEr3ZP-ItN1QKHK44GphcJGPPKr-bzJenvgQ8GZh414k6WcHvL8SjisKInyLaa8-H4Sp8-95iITnAOJK9_4RNICp9-9ozoM0Yg07MlEhYRzbUNbuAaBtdvWyNz6EEN_MNXciQZQeazwluS_inXevNlpvyhFDkgiJUW62YF5uMv58f2y-0oe4LEcVIY3hv3wQl1Xh21Qez5ZrrTSd0vGgWK4</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P92GwVbKfQsshH51D67x3I3ed7C7Fh7h7bz9uKRxsMkz6gnaH4ysYgas9KQToqKpyk7_EacJ7SV0iysUzPSfaz3a0Q8b5QJzbuJJaQ5O5nlEsOMi9QO_Zprb-PM0o04LW5l28HUgcPCRRYq8MsvN5TJhk4Sooks1m7q1rrTjPy71_86vtCx3a-b-eh9TM-s3ZlK3bXjNqnAp0wWoWLaA22F_-WQhDLOsm-t29_gQyfH0_gHC-EZS6F9K1nuIceScJh_8grO-DYmcka38wt98SnrKUxFCJqU8yue_VmcoYprG2GBAhbsR-V3TPkC1TSNHV7ISKZ3CSVPz04KZ16FD41cjjb5xWcSm3Q61qSYL4Wcqx0kgxkDBGySDMR_2y8JC1LyWyioHhZE2J_WaI_3AkuVCX6dVZG3BDyjiAhenOTa8eDoqOH-UdVEsG4H-W5Y5Cd5Y3Dcc-FBlnymDAEnqIsQuT4WjPCF52RlbCvwVPn29Ok1TxHYOZLilMTXtBmSoTnI3vqqQUV4jElfMzTswyVfOGrHSePx8_xMt5kzogdP_PyKv5GXuybMz-O5qVevl8zTToQZXWrRv4CiiUWTaTtmRX_U72wFoYj3aqvk_l-CVmTz4M2iTSNrTWbANY0C7NRYrn8_RlXgTf3VQRPmja-C0rYHg1REDrpQ2_cpFTJmwTFZX1dACxMSKcnynU7G2kMIb7dDJ45hxlFo_qMUTkJ2x_nlQl_5JL1pG7geRjH3SGtE14UEnUkLElVw-UWBbDH3gG9HecoatTL9-ne-Kulv_QdtzDf3eP1AszylHjm8rxaFZUl119GZ_LgdO77IuIJw4KEelqjrhMjqt-N05MC8Oksmahg</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IndmTm9OUlUzSVpmRWZRV0NKanlsQzd5T2J4RU5ndm8tTjU3WmNfc3BFUkUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA4MTM1LCJuYmYiOjE3NDQ2MDgxMzUsImV4cCI6MTc0NDYxMjg3NiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBOUs2ejZuVjNYeFllOWE0R0kxdXV2YnNpbHY2REg1U1FSNHdyS0kxcUZJdEx6SGxkNG1jTlpOejhReXdnTXRzUXVTYmsyaWN0UGViVUx0OFlsbUZTL2l5TEpEVEpKMjVtd2I4c0FxMm5OVmwrZndIcEkzZXMzZXNMVkxHWDQ0SHkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ4NUxnMUQ3MXpFU0FRMmFQbFQyZEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkxEZ2NrM1dvT3k5bEtvdFRHTE00MDlfWVdHeWV2MnF2am5XeF9uMk5SNDAiLCJ4bXNfaWRyZWwiOiIxIDI0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hcwBQXZuAencAOlPnCosoB7x4EJkur3aXi2JlunpNh139ivwFcY2wqUfhyW-8FtcX7dG76LcM1hhTOUu5V7OSddsWHu-AVAVxE1ef3GfgpiwPE-2X7XYuQhHDs2ZqXAWQgCc5Izg0xZVOoTZSelRDp4ineqd2G53yY0H0dE2kFcCeuBnL8MFCqpD0ITV3NjWARW4sJ0zqlX9uSzN9X21P-dwT9wszbgPU0Rdokm3RG9GGjFYWJH6MMYdfNvxzQ_dm3s6yJk7_m8gPANVh_naeiZo-wE83PARAY-44uFUUDC4JaE1Aegl8_Zs7uLmU4q7D5HUEnPT-aTYV1HZN10-AA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IldiTHkzTGRUOUw5VVFKZGduRGlraHVpMF9xVVNDZVI2djFFYUFacmJ3SDQiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA5MTI3LCJuYmYiOjE3NDQ2MDkxMjcsImV4cCI6MTc0NDYxNDI1MCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRjIzOEQ5WFhnOTU4T3RVNVRSSzQvR0NTaWVOSm5HTjBtdFllOS92a1Z6RE50RWdVZnRzZUVlYUtrUkdYRVF0a3IyTkRxMWNnaEJiVnhVSnNMMlBFTVNIM1NHL3pSY0YvN0FnR3hsZ2Y3VEZKZnkzL0hIR1h2ZEpYRjZYQ3hjblEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJRcUt0U0NIRGlrLTh4QXRmbUMwSEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImYzSXZhQXY3UDU0VEp6Rk5rZGRnVWN6OTZFc3VPLUVST1Fvcmx0cDkwMVEiLCJ4bXNfaWRyZWwiOiIyNCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hjz8ITFdwjmKGFc0JBOaKoS_21LJlBgeUXZgFNsAw6UX34viKmV2Riq1gqM62x3DbV0v2q19_zyQ3WNxt489Q8Hat6rkJlS114AilhHV67a8EgFC_drrdU9hIDPiVv1AFpM2wGo-KYokwJ97-vFgizQGoIuk-4iIan9MUuns6S1eP2WEZ-hDR-pYaAJw241I8VqNjRMCfxrkYiLuxIuFCkwePlb9_FbiTyyYXADB9utgwdBsTwvtiOk64lVLQjOJGuWt3rdeGyxRl_l5eqTSjXEUuKF88OD1sdksr1acVcc56Xg0Z9z52XavxIgShPUqtw3Ts4xdQc2yGbpxx6WfCA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P92GwVbKfQsshH51D67x3I3ed7C7Fh7h7bz9uKRxsMkz6gnaH4ysYgas9KQToqKpyk7_EacJ7SV0iysUzPSfaz3a0Q8b5QJzbuJJaQ5O5nlEsOMi9QO_Zprb-PM0o04LW5l28HUgcPCRRYq8MsvN5TJhk4Sooks1m7q1rrTjPy71_86vtCx3a-b-eh9TM-s3ZlK3bXjNqnAp0wWoWLaA22F_-WQhDLOsm-t29_gQyfH0_gHC-EZS6F9K1nuIceScJh_8grO-DYmcka38wt98SnrKUxFCJqU8yue_VmcoYprG2GBAhbsR-V3TPkC1TSNHV7ISKZ3CSVPz04KZ16FD41cjjb5xWcSm3Q61qSYL4Wcqx0kgxkDBGySDMR_2y8JC1LyWyioHhZE2J_WaI_3AkuVCX6dVZG3BDyjiAhenOTa8eDoqOH-UdVEsG4H-W5Y5Cd5Y3Dcc-FBlnymDAEnqIsQuT4WjPCF52RlbCvwVPn29Ok1TxHYOZLilMTXtBmSoTnI3vqqQUV4jElfMzTswyVfOGrHSePx8_xMt5kzogdP_PyKv5GXuybMz-O5qVevl8zTToQZXWrRv4CiiUWTaTtmRX_U72wFoYj3aqvk_l-CVmTz4M2iTSNrTWbANY0C7NRYrn8_RlXgTf3VQRPmja-C0rYHg1REDrpQ2_cpFTJmwTFZX1dACxMSKcnynU7G2kMIb7dDJ45hxlFo_qMUTkJ2x_nlQl_5JL1pG7geRjH3SGtE14UEnUkLElVw-UWBbDH3gG9HecoatTL9-ne-Kulv_QdtzDf3eP1AszylHjm8rxaFZUl119GZ_LgdO77IuIJw4KEelqjrhMjqt-N05MC8Oksmahg</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_9OiE1c0NqUBgnpo5SlEfLH8xG56vSK75i89cLXvyAwjdqCb806s69SmlMe-M2VQeKx0v6Ya_5_X50QREEano--qR1XtS_KL903jt1P7IG7eFtv2mQ5qhkl8pHMZoYf0qQT2pftHyHkXwmuleHy6piqYUhBi8sYugxsu0bPifFo-56GqYglRBUw7JXMjgYNDAD2OnCYlvvSgoiNtivtSP4_5kPvVbXUA3FTX51HvlX0xYAqVH8gPG0Dbl53fxSZm6Chen62jx6ShGaBdqyosWl-CO826wEFq2ycNypPTeK5Ez5coJWIOL3l6CegSTfX4ClE67pWFyIBJbUQOEmoQuAky10r85LQABjmAmpozjOrBsQjGMfUcDaYL6jf1N6OnLutHKkY95l2SqMfp1eg6KOGzu_Ukvc9TQLK_V0hSqnG2CPP16sclzp1tzD6s9OIkuT2NvPx50dwV5tQ6TBr8F5--_jdfa67DdHP6SXBCrCzQzDM6a-IsC38FSVvf85a_Z_t-dDQMriGhIJ3B-wTaP6JbKNri1GrZ-jLi8hSGW7CH2CU1rkpjGYk5pYla7xJH2RCEy9uIPyzy7LOsndPzEFnaR0VfEP2V59oRqj7jpZqVmINWtKq22mW0LlQrOeYVVuR1YGIkH2sutHw9vcnxTd5B7L5OdsQPhwTgb4fZtroV9jnzwC0Ph-ED_ie-FBRwZt_VCwiwksYGsWKPKIYSf8YGYtZvXlBHd5FyvDsIar7a6H19ZJn3IuXVZGSd6HlzPoxgv0e564oUEKOGdDvahyQYX9BEU_SIFeppa9xGWB-CdfIZ56WMUetcuKsuzSxJnmwa87SpI-8GfEzDIAUdx4X8KEdiA</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IldiTHkzTGRUOUw5VVFKZGduRGlraHVpMF9xVVNDZVI2djFFYUFacmJ3SDQiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA5MTI3LCJuYmYiOjE3NDQ2MDkxMjcsImV4cCI6MTc0NDYxNDI1MCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRjIzOEQ5WFhnOTU4T3RVNVRSSzQvR0NTaWVOSm5HTjBtdFllOS92a1Z6RE50RWdVZnRzZUVlYUtrUkdYRVF0a3IyTkRxMWNnaEJiVnhVSnNMMlBFTVNIM1NHL3pSY0YvN0FnR3hsZ2Y3VEZKZnkzL0hIR1h2ZEpYRjZYQ3hjblEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJRcUt0U0NIRGlrLTh4QXRmbUMwSEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImYzSXZhQXY3UDU0VEp6Rk5rZGRnVWN6OTZFc3VPLUVST1Fvcmx0cDkwMVEiLCJ4bXNfaWRyZWwiOiIyNCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hjz8ITFdwjmKGFc0JBOaKoS_21LJlBgeUXZgFNsAw6UX34viKmV2Riq1gqM62x3DbV0v2q19_zyQ3WNxt489Q8Hat6rkJlS114AilhHV67a8EgFC_drrdU9hIDPiVv1AFpM2wGo-KYokwJ97-vFgizQGoIuk-4iIan9MUuns6S1eP2WEZ-hDR-pYaAJw241I8VqNjRMCfxrkYiLuxIuFCkwePlb9_FbiTyyYXADB9utgwdBsTwvtiOk64lVLQjOJGuWt3rdeGyxRl_l5eqTSjXEUuKF88OD1sdksr1acVcc56Xg0Z9z52XavxIgShPUqtw3Ts4xdQc2yGbpxx6WfCA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IjZDWUVLRU9BS1B4VDB5MUJfa1pPdkdaOEVtcmc4QkhhbnZ5ZmVWMXZfalEiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA5ODY0LCJuYmYiOjE3NDQ2MDk4NjQsImV4cCI6MTc0NDYxNDI3MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQ0tseWZ3alRxcmloSVBlVFhNWDBYeUF1ZXlqcmVlY0kvdWwvY1NMZWFoN25vNkN3b1lNK2NENHl0VFZVUmNHYXQ5eElVU2hna1VpRlJmdlAyWWRDbmF0MkQyU2MrbFdKUzJCUHNhN2Yybmc1M0EzbERFcGtQSlJtRXZrQy93VjAiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ1aGlRYlUxWjQwdUtRSVlBc1M4ckFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkxKRklvUVZFWmY2dUNITzhHOHo2Mi1OckVFLV95SC1kSDR2Ykp1U0s2UlEiLCJ4bXNfaWRyZWwiOiIxIDIwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.bX8AAneSl-9soVFTkywxfeJr36Igp0fhqNgIB7WMbDPYmSBGmnGyFSZOyyGZpkU5ULSd0LZzwbOjSV2WRYWXWAEQHCwWsKhr0VzUsdR4Aa7AQhN7UxlnnIXEHRhE-nIHN92io3-bxRE39wCfbJVbihV8s1wLw8hjrar7lfqjpkLlQqrOgoyKr0VPn1m0jGlpbY6cNLU3Kjk4QxA-R3FEP9IHNOxsuMaJHeASoBMtL2WmkUSbfByaNvFyHVkCQuV7sm0u9TBarrszO-7NHX1MOjqVCl8pY2Q9GKl08NM4h7QYRFyV5d7nk0rTKT8jOpgTDHMd-AR9wPlAbYFSuoLbGQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_9OiE1c0NqUBgnpo5SlEfLH8xG56vSK75i89cLXvyAwjdqCb806s69SmlMe-M2VQeKx0v6Ya_5_X50QREEano--qR1XtS_KL903jt1P7IG7eFtv2mQ5qhkl8pHMZoYf0qQT2pftHyHkXwmuleHy6piqYUhBi8sYugxsu0bPifFo-56GqYglRBUw7JXMjgYNDAD2OnCYlvvSgoiNtivtSP4_5kPvVbXUA3FTX51HvlX0xYAqVH8gPG0Dbl53fxSZm6Chen62jx6ShGaBdqyosWl-CO826wEFq2ycNypPTeK5Ez5coJWIOL3l6CegSTfX4ClE67pWFyIBJbUQOEmoQuAky10r85LQABjmAmpozjOrBsQjGMfUcDaYL6jf1N6OnLutHKkY95l2SqMfp1eg6KOGzu_Ukvc9TQLK_V0hSqnG2CPP16sclzp1tzD6s9OIkuT2NvPx50dwV5tQ6TBr8F5--_jdfa67DdHP6SXBCrCzQzDM6a-IsC38FSVvf85a_Z_t-dDQMriGhIJ3B-wTaP6JbKNri1GrZ-jLi8hSGW7CH2CU1rkpjGYk5pYla7xJH2RCEy9uIPyzy7LOsndPzEFnaR0VfEP2V59oRqj7jpZqVmINWtKq22mW0LlQrOeYVVuR1YGIkH2sutHw9vcnxTd5B7L5OdsQPhwTgb4fZtroV9jnzwC0Ph-ED_ie-FBRwZt_VCwiwksYGsWKPKIYSf8YGYtZvXlBHd5FyvDsIar7a6H19ZJn3IuXVZGSd6HlzPoxgv0e564oUEKOGdDvahyQYX9BEU_SIFeppa9xGWB-CdfIZ56WMUetcuKsuzSxJnmwa87SpI-8GfEzDIAUdx4X8KEdiA</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_upjFX7dB0fVOWem9McQAgsQge0_eZJTqRSJIGNTbXzTcVjgWB40wc467OB0fU_6qDzfIrOFWBxFJRoDO0ouxdwyr0rGrmdRZFXnR9xZigPZQtouoowHuF2PvcD0WrSY4bZSCWKh5dZqkQeHZSQZeP729XpvKhT69twFyoJZzACMlSSXPZRcMCx7dtizVscZ1DI5lG4ck6eVbPpife4wCpJiPpk_PYz2niSOUTGVOugEGxDscuPln_hJKWjyrH4F5yCVZ8Wq8h9V5_rAYV9mKCENKpX3IzGco2A9WFMfja_whtTJPwZEEQqtu6E-BnMHTCuYRISJH83a0kH-5ToIGA0-tzOcGCT2N1HWMrDZLcBfznOQfH4xbsxrNi9QYbDAVTbRSlbg7tJF3sA83FcUEG9VpeOUEHADvR_yQfakWpA4Vk2g435I-nzpqCsb24P7siTeoq45mvxmKshRJ7BuT1oVbLkz3uJpP4bBYuAiDGexkchfC5Ew0xOGDJQ5sYNfvlroJOmnQXhT-sk3uof55NaMbsby0jDyz-FO_MXUEs_Fq14ReD4F-adUZdoxSMQvc3tw15jcyzhB2T0QlPavx_AWt6-pBLvvon-p4iEXePUWrBUxeCxZE5FXZxsTWdI0K5wG8KZdyIwYzUQF-_m41NDB_tkmQWajYTEn9zt8uAdNN7rY3YRxShnkM-vwHcss5z9jNyu3LvGT7wTpYqBXOdQd-JSg6RLojaAV96dewizSz-iX6kZMy4_Z4aeFKkVkRClyQjJFbhjl6DCOfYkGi4d7G4bRZZzs9Sip7K1D7Z22nn2NhociaJUR8MU6ht7YyZyrdgWMQECbuFWNDQw3UI_EuZewA</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IjZDWUVLRU9BS1B4VDB5MUJfa1pPdkdaOEVtcmc4QkhhbnZ5ZmVWMXZfalEiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjA5ODY0LCJuYmYiOjE3NDQ2MDk4NjQsImV4cCI6MTc0NDYxNDI3MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQ0tseWZ3alRxcmloSVBlVFhNWDBYeUF1ZXlqcmVlY0kvdWwvY1NMZWFoN25vNkN3b1lNK2NENHl0VFZVUmNHYXQ5eElVU2hna1VpRlJmdlAyWWRDbmF0MkQyU2MrbFdKUzJCUHNhN2Yybmc1M0EzbERFcGtQSlJtRXZrQy93VjAiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ1aGlRYlUxWjQwdUtRSVlBc1M4ckFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkxKRklvUVZFWmY2dUNITzhHOHo2Mi1OckVFLV95SC1kSDR2Ykp1U0s2UlEiLCJ4bXNfaWRyZWwiOiIxIDIwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.bX8AAneSl-9soVFTkywxfeJr36Igp0fhqNgIB7WMbDPYmSBGmnGyFSZOyyGZpkU5ULSd0LZzwbOjSV2WRYWXWAEQHCwWsKhr0VzUsdR4Aa7AQhN7UxlnnIXEHRhE-nIHN92io3-bxRE39wCfbJVbihV8s1wLw8hjrar7lfqjpkLlQqrOgoyKr0VPn1m0jGlpbY6cNLU3Kjk4QxA-R3FEP9IHNOxsuMaJHeASoBMtL2WmkUSbfByaNvFyHVkCQuV7sm0u9TBarrszO-7NHX1MOjqVCl8pY2Q9GKl08NM4h7QYRFyV5d7nk0rTKT8jOpgTDHMd-AR9wPlAbYFSuoLbGQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImVibC1TU0x6M1E0X09xWjRNN29zZnhEQWpJRjlJcW1mUDN2ejlFbHJueFUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjEyMjc0LCJuYmYiOjE3NDQ2MTIyNzQsImV4cCI6MTc0NDYxNjUzOCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBUjBvVXRQQUdPVURTbmJFcGprdCtVQmw0NzFqSzQvcGw3Wnk1QmhSN3ZoL1ZjR0UxNVMzckNkczdHdXkzTSt3L0JMNlBWWFNNZzNVOVNEb2hseEtJeDFhcTlqajBHS2FUNC9HNm1IMitEWUNVMkVCYnpjWEZva1F6U2EzaDNvbGEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiIzYTNoUXZGMXhrbUNld1o2TXlFdEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkxBalB3aXQ0Uzd0ZTRXY1NTWmlib29uWHFwVXFWUkFKbjNGWURRTjZ0aGsiLCJ4bXNfaWRyZWwiOiIyOCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hrdGWrK6Gdxv2n0LzJNBe9VbieakV-BKH7tQ4IMYaljhMsdxdTnTSr6rrX9R6N8oTGz1pBqIYIa3Eb_NzWQGcMI6RNqZgyxxtY57Ka-bSrm6BU1UfovNM6-dYgq9vwwjT5EPMd19YVAuW-1sD--A6Njv-82iLhsdhTHXjwlSg0fEYpFuxfzZMUvZpTzeofh96ldpGwpYQO3GxyMar7P11SJDqYmJNz7C4RKIOqy7g6qnVd-_u_GwUaenABcDihVkUNRnRlxRDm1PpVBFEaoaJX7FTIuzgcLGPvDrNZyJI2BhQQG0yVI1A9xxERBIaoHOaR54XmT7DwyKcmCH8IgaTA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_upjFX7dB0fVOWem9McQAgsQge0_eZJTqRSJIGNTbXzTcVjgWB40wc467OB0fU_6qDzfIrOFWBxFJRoDO0ouxdwyr0rGrmdRZFXnR9xZigPZQtouoowHuF2PvcD0WrSY4bZSCWKh5dZqkQeHZSQZeP729XpvKhT69twFyoJZzACMlSSXPZRcMCx7dtizVscZ1DI5lG4ck6eVbPpife4wCpJiPpk_PYz2niSOUTGVOugEGxDscuPln_hJKWjyrH4F5yCVZ8Wq8h9V5_rAYV9mKCENKpX3IzGco2A9WFMfja_whtTJPwZEEQqtu6E-BnMHTCuYRISJH83a0kH-5ToIGA0-tzOcGCT2N1HWMrDZLcBfznOQfH4xbsxrNi9QYbDAVTbRSlbg7tJF3sA83FcUEG9VpeOUEHADvR_yQfakWpA4Vk2g435I-nzpqCsb24P7siTeoq45mvxmKshRJ7BuT1oVbLkz3uJpP4bBYuAiDGexkchfC5Ew0xOGDJQ5sYNfvlroJOmnQXhT-sk3uof55NaMbsby0jDyz-FO_MXUEs_Fq14ReD4F-adUZdoxSMQvc3tw15jcyzhB2T0QlPavx_AWt6-pBLvvon-p4iEXePUWrBUxeCxZE5FXZxsTWdI0K5wG8KZdyIwYzUQF-_m41NDB_tkmQWajYTEn9zt8uAdNN7rY3YRxShnkM-vwHcss5z9jNyu3LvGT7wTpYqBXOdQd-JSg6RLojaAV96dewizSz-iX6kZMy4_Z4aeFKkVkRClyQjJFbhjl6DCOfYkGi4d7G4bRZZzs9Sip7K1D7Z22nn2NhociaJUR8MU6ht7YyZyrdgWMQECbuFWNDQw3UI_EuZewA</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-UkILLbNMaO2ZSzk9WwhrchM9lqoFY1UV_HL4jIs_eoDYhDqModb57FRS5X2F1OTXK-JiAF-TMfxaZegKE-5QMII8bTOU1vnU_FiiLmiUlR-ubjGxEl-D08z06R-4BRqoUW8WfZxKblMRmgceUzBeAFtu_vFVPjvxRjwSpbPILn8D80WoY6lv-wB_XRatpp3L79kCS-pZDX-cOJBf1seOAlz_5N5MJD-3zlwoyw0MEfSl87FySsA7WZ5LjzeZ1NOK6nLaRzvxDLwtHVzHalseNYl5oQucuCesrOLgKRT6VL73e85sYcG2puYA7OuX4Vbwr3RRiBc59gWd_8rrbui11f2FZffX4icKVcX3tX2T3bVJQvMlTMc6v0m9TUyCis7e2smEBFOx8Cq32UEqdF_mko6C4WcbfB-9ILTzcvRHw-hXygFkzw_NPRHlcxDa3BEswZEC_Ft5gmvxGyc-ZjmphgshRgQ-S22N0yWYUikg_M_QAbg5kt604HcEiIkWlnRbjO6EoUAChGSYcO-fDuxQhyk03IRhiwsK1T1YLc_b5q5QslQFzmSE1EOUv1GxkZM5KEGSrDRlFvccrQJC_0YK_KcMCciYeaCzPGkYhmxlINzWS53mpZS1zuAgYHWqa-Wfn4bVTWm4FfoxaHDPWctFWo9w5h3pDxpnVBDL5So3PVatWLu0EKTc5BGxf-uw6q0tb2PZ9ZFyGLsMy7RLx_cjDhS18vo7VuhobvWZK_tPRt2L1QfZLZYwpFFkY2nWrub0W7hJ6H98VgR2QFhUu5P9_HgHacTxWYRS5O3lWldN6ancr2LX455f9eN5leJMgdnolpr2jMNK7b9sSivtgmA9ZVq2p3Y0</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImVibC1TU0x6M1E0X09xWjRNN29zZnhEQWpJRjlJcW1mUDN2ejlFbHJueFUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjEyMjc0LCJuYmYiOjE3NDQ2MTIyNzQsImV4cCI6MTc0NDYxNjUzOCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBUjBvVXRQQUdPVURTbmJFcGprdCtVQmw0NzFqSzQvcGw3Wnk1QmhSN3ZoL1ZjR0UxNVMzckNkczdHdXkzTSt3L0JMNlBWWFNNZzNVOVNEb2hseEtJeDFhcTlqajBHS2FUNC9HNm1IMitEWUNVMkVCYnpjWEZva1F6U2EzaDNvbGEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiIzYTNoUXZGMXhrbUNld1o2TXlFdEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkxBalB3aXQ0Uzd0ZTRXY1NTWmlib29uWHFwVXFWUkFKbjNGWURRTjZ0aGsiLCJ4bXNfaWRyZWwiOiIyOCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hrdGWrK6Gdxv2n0LzJNBe9VbieakV-BKH7tQ4IMYaljhMsdxdTnTSr6rrX9R6N8oTGz1pBqIYIa3Eb_NzWQGcMI6RNqZgyxxtY57Ka-bSrm6BU1UfovNM6-dYgq9vwwjT5EPMd19YVAuW-1sD--A6Njv-82iLhsdhTHXjwlSg0fEYpFuxfzZMUvZpTzeofh96ldpGwpYQO3GxyMar7P11SJDqYmJNz7C4RKIOqy7g6qnVd-_u_GwUaenABcDihVkUNRnRlxRDm1PpVBFEaoaJX7FTIuzgcLGPvDrNZyJI2BhQQG0yVI1A9xxERBIaoHOaR54XmT7DwyKcmCH8IgaTA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InotTF9qX3NLcTV3d2dTaFZ6UHBONWczMWtOV0ZrQXBoWVhWcG9GM3F6TzAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjEzMzMzLCJuYmYiOjE3NDQ2MTMzMzMsImV4cCI6MTc0NDYxNzgwMywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQVFMN2hjQWFMUS9aa1h3Z2NmSHZkUmxEUzkrbjB0bTFiRzZ1ZFhCd3VYWUh6b3NLRjJUbnIxWXVWTllKenBoQjJ2WEVKVzBCeFkyNm9BcTh3TXdOa2tQL2Jjc0hKdEFEdjQzbENId0tld2kvanZ1YUtpckZrbWM1V09UYVFnTlMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJIU3dyMmlRcWFFV0RQVDhmcEpsa0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InRKQ0hhaFZScTNBRW1JdjFBT1BDcEhhWElxZ0xDNkVrT2J1MEZDSzgxRmsiLCJ4bXNfaWRyZWwiOiIxIDEwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.QD8e7gP7qjVWGhz6RTp76g5voGfj0sCpuBcnopFklPTQYbjdpKLPTPPVSmqPK3vCMX_srAfJPjKetwrjQsQNWYDKpYRQtjTYb_VmBRGSaqZ2FSTL3-MBCrbbwLEF8wONngbLY-n-wYZbh0G_ie8vVHdm3xpFwOX2kP4XPVW2jV4Sb_fkNl6GPdkMC1zyCOOyteqxcY9e1ED8KThx3uwmQlqYhQiAYJ-TwYXmPCjgq9YJIS83QR1v6d3GB8OgB5N_dTc7nLEk9Tg88zOaTHc777t_L0rSr-PCYGhVkt1NaLt_M27WI_cZO0Zdb-aM3frnF5I6V_AiHgZQrQlw_k5peQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-UkILLbNMaO2ZSzk9WwhrchM9lqoFY1UV_HL4jIs_eoDYhDqModb57FRS5X2F1OTXK-JiAF-TMfxaZegKE-5QMII8bTOU1vnU_FiiLmiUlR-ubjGxEl-D08z06R-4BRqoUW8WfZxKblMRmgceUzBeAFtu_vFVPjvxRjwSpbPILn8D80WoY6lv-wB_XRatpp3L79kCS-pZDX-cOJBf1seOAlz_5N5MJD-3zlwoyw0MEfSl87FySsA7WZ5LjzeZ1NOK6nLaRzvxDLwtHVzHalseNYl5oQucuCesrOLgKRT6VL73e85sYcG2puYA7OuX4Vbwr3RRiBc59gWd_8rrbui11f2FZffX4icKVcX3tX2T3bVJQvMlTMc6v0m9TUyCis7e2smEBFOx8Cq32UEqdF_mko6C4WcbfB-9ILTzcvRHw-hXygFkzw_NPRHlcxDa3BEswZEC_Ft5gmvxGyc-ZjmphgshRgQ-S22N0yWYUikg_M_QAbg5kt604HcEiIkWlnRbjO6EoUAChGSYcO-fDuxQhyk03IRhiwsK1T1YLc_b5q5QslQFzmSE1EOUv1GxkZM5KEGSrDRlFvccrQJC_0YK_KcMCciYeaCzPGkYhmxlINzWS53mpZS1zuAgYHWqa-Wfn4bVTWm4FfoxaHDPWctFWo9w5h3pDxpnVBDL5So3PVatWLu0EKTc5BGxf-uw6q0tb2PZ9ZFyGLsMy7RLx_cjDhS18vo7VuhobvWZK_tPRt2L1QfZLZYwpFFkY2nWrub0W7hJ6H98VgR2QFhUu5P9_HgHacTxWYRS5O3lWldN6ancr2LX455f9eN5leJMgdnolpr2jMNK7b9sSivtgmA9ZVq2p3Y0</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P99KBA8UIDIdEwYs1E3m2Fc7DiFKBZu2Nfw3XSI6ooauhal6GeF5ZwteV0j8BtoPM7HOTa_lTYTT52O7GZhvugHHhiWcdSylNJaN_srrh_YZCb2bPwnBIgqWBH5uzNY3fvSbzQ3sEFSziVseeVcoLyR36ko3ny4Zo0QRxsp3jflhtaAOc5_f5jDXrzepMIpFkgUDNN6Wr1gEnS9M9nsr0fcMO_oEHaZ1MkgWhqsmoXxZmC8QNEvPrwyLl6mt6YLXV9xMuhiP86Tdzuq0QtquwXDfCDxDDGn8Bv69dfyt1CB3AYP5yVB_B-tn_twG6i5rafOTQhVDiscbVQj4OLqo08a9lQSlbRDTO9N5tjW0mFStuu8AxygErVDTD4UWMoAAri5pMCsaXz_6E0aAs6mg_37CIOjY54wJu9wq96OpAGBDuf16qlRkTyoz6ZZlx0e45aCdUoR7Eu5wMZJXlpmFnPd2VWcY5qG6k-GVyc22gbMPd64F3oEfgj9jFuF1h4L08UbOahG0jNafvkuvss6VfZOU4rP62ZEvw_GDVtNsfw6c6JPvDpwf05pu62TgO0VmmOa-9xeHO1VYngJFx5aeFcIh8IymNDp2mFBJknPaorGBR_zvLQ0svx8LsztAsvbfb-h1khald4G5g7A4ov4tGJrpPlO446f3SJFlDBdFbVQiEZfiSqqhqJl0knavQ-NFTCUDSXCqQPkjnOVd0Knq4IgMfe4VWrAFYch5msAss45zdpdzfonBy693t4RuUVUczbgBZ5BqHbyZLsMXLHKaw9mDJYE3YodXe_b_-oeHCwT3KBv5pYIUqui2GP0Q57b1oTg0RFigW9VBUgWqfxj2xKhOpq4UtY</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InotTF9qX3NLcTV3d2dTaFZ6UHBONWczMWtOV0ZrQXBoWVhWcG9GM3F6TzAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjEzMzMzLCJuYmYiOjE3NDQ2MTMzMzMsImV4cCI6MTc0NDYxNzgwMywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQVFMN2hjQWFMUS9aa1h3Z2NmSHZkUmxEUzkrbjB0bTFiRzZ1ZFhCd3VYWUh6b3NLRjJUbnIxWXVWTllKenBoQjJ2WEVKVzBCeFkyNm9BcTh3TXdOa2tQL2Jjc0hKdEFEdjQzbENId0tld2kvanZ1YUtpckZrbWM1V09UYVFnTlMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJIU3dyMmlRcWFFV0RQVDhmcEpsa0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InRKQ0hhaFZScTNBRW1JdjFBT1BDcEhhWElxZ0xDNkVrT2J1MEZDSzgxRmsiLCJ4bXNfaWRyZWwiOiIxIDEwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.QD8e7gP7qjVWGhz6RTp76g5voGfj0sCpuBcnopFklPTQYbjdpKLPTPPVSmqPK3vCMX_srAfJPjKetwrjQsQNWYDKpYRQtjTYb_VmBRGSaqZ2FSTL3-MBCrbbwLEF8wONngbLY-n-wYZbh0G_ie8vVHdm3xpFwOX2kP4XPVW2jV4Sb_fkNl6GPdkMC1zyCOOyteqxcY9e1ED8KThx3uwmQlqYhQiAYJ-TwYXmPCjgq9YJIS83QR1v6d3GB8OgB5N_dTc7nLEk9Tg88zOaTHc777t_L0rSr-PCYGhVkt1NaLt_M27WI_cZO0Zdb-aM3frnF5I6V_AiHgZQrQlw_k5peQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ik1oWGs2MDJnQ05FNUd1akpKR3VqQ1F0TldwS3hLbjFhaDk4YUVwVTRGTzgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE0OTA4LCJuYmYiOjE3NDQ2MTQ5MDgsImV4cCI6MTc0NDYxOTc1MywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBdWxtS0ZnTHBxN1FjeG16OXh4R2JaVTdQV243bnNGMU9TVXQvbEp0NnF6Rk9vSVRNOFFQYUFrQWV5TTJCT1ZUb2xReFBPMDRrRSs1TmE5S0ZQb1lKWDBDd0dFZkxHVUxjNFkrN3MzYUV6UnpLZlcrcGhmdzd6bUwvZ3djZHc4aUoiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiI0ZHRCOEJXcmxVZVljenZndFJzM0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InlZSWN4V25GdVFBa1NveXp1ZWR6U1Y2UFI5VUo2VHdOQUwzOHdaMXprY2siLCJ4bXNfaWRyZWwiOiIzMCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.VXUF8ksRuKLU4DyNj90xgP3gkk4MVIvvXM4wy1prSEvjXrflm-bGtLw0_ptgcexrJxmnDRbSJa3ocAk4Nr_9MzwjSMwxoVuO-i0bnrqIVvTPRwAqYwCdHChL_VAJC63C99cmqOLYgzW29JjCkAsASeaPy_Gr9NJBylMVW6QHWdqFlPRWvZ1WJDFc-LE5VQg0SIFLPb27h0wExvMjSrEzOwG2KO-laeDEHfRG91KmeusufuB2lAxwU99KvchyUkBuIuMnYM8E6zkly5_cQyCrcwU6BhayQ7Xa8Wj5JPadg1Nmei8BzKKL1ZWtJDD_v0GjszRiYyW3rZVTGVIRhqYvNA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P99KBA8UIDIdEwYs1E3m2Fc7DiFKBZu2Nfw3XSI6ooauhal6GeF5ZwteV0j8BtoPM7HOTa_lTYTT52O7GZhvugHHhiWcdSylNJaN_srrh_YZCb2bPwnBIgqWBH5uzNY3fvSbzQ3sEFSziVseeVcoLyR36ko3ny4Zo0QRxsp3jflhtaAOc5_f5jDXrzepMIpFkgUDNN6Wr1gEnS9M9nsr0fcMO_oEHaZ1MkgWhqsmoXxZmC8QNEvPrwyLl6mt6YLXV9xMuhiP86Tdzuq0QtquwXDfCDxDDGn8Bv69dfyt1CB3AYP5yVB_B-tn_twG6i5rafOTQhVDiscbVQj4OLqo08a9lQSlbRDTO9N5tjW0mFStuu8AxygErVDTD4UWMoAAri5pMCsaXz_6E0aAs6mg_37CIOjY54wJu9wq96OpAGBDuf16qlRkTyoz6ZZlx0e45aCdUoR7Eu5wMZJXlpmFnPd2VWcY5qG6k-GVyc22gbMPd64F3oEfgj9jFuF1h4L08UbOahG0jNafvkuvss6VfZOU4rP62ZEvw_GDVtNsfw6c6JPvDpwf05pu62TgO0VmmOa-9xeHO1VYngJFx5aeFcIh8IymNDp2mFBJknPaorGBR_zvLQ0svx8LsztAsvbfb-h1khald4G5g7A4ov4tGJrpPlO446f3SJFlDBdFbVQiEZfiSqqhqJl0knavQ-NFTCUDSXCqQPkjnOVd0Knq4IgMfe4VWrAFYch5msAss45zdpdzfonBy693t4RuUVUczbgBZ5BqHbyZLsMXLHKaw9mDJYE3YodXe_b_-oeHCwT3KBv5pYIUqui2GP0Q57b1oTg0RFigW9VBUgWqfxj2xKhOpq4UtY</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_NA21hyPECBVv4I96fo0jp5lGrRTOq3ahgZdgamgBlwS9R8W1PryjIBDBFc8HJla3IDMYdcPvEwMsJgU45Uqi4YkP43aj1EuauR-S1QzyVaejZkuwZzWJCtyc_HiXKkz_Z3OmYt0PFbfUk1OnWhgoXhm5jYA9bI2hLdGMlOriWt9fYXg9_LEhXgKuinHjE3rvpXil0npZdBGnlHPsyZIZ8ZNXjWuPZyGaAlXuvN1t0JW5Z_nF7AH-zjRNmfd6WjQ46I945CADi6hYxtWy1Tis3x4lTi6sicxdDfLOWOK4x4fZeh_BYFYptaapDRY9S--MdyDohRb-QNGduu96ZPxU_Sqe0E3b4J_xlXTvGDSWEHWi5fuog9iG6DEucp4b-Bviw6RfivXidFFj1suxtrwohURSKjbPNk93qgRc8f8FlvVQyX9EDUxSvWs4Z9bmR9m67URtozJuU6C-8VVqApftP_JaR80S09c2f_a0qtE8cW1ShWYLY9UmbffY9hopkaePguYiJLpk8bGe74aUQGLMuQx0TfzGa8V_Hu6FTDd9Bsp4-wO54owmHSJre6v0sEbLqzgV7vLL5-W0rOQn2_uZWUynwfkyBbLUGnkWDT3XOD9qSzX4IUgbVHIAiMvLBpHkxqEu9W_ErqYSl26tD2YVZGaVJhBabIbjJgfYEpa1b7Gqb-dHJ6Bx_25-eHxm7IxDnb6KqAlYpMKpztJCLq8I5IlZHm0b4L_C_E-ersdADXVsGw_8D-7_r5062TAFtg6jzkQuFlJSETRXhVYtDzU0SuJuF_xtyOosXK-QYJR1jpi-rFwncCt6NZeW2iQDqV5xUw2Jl3UMSsEAI9KB0Vl_x4sD20k4</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ik1oWGs2MDJnQ05FNUd1akpKR3VqQ1F0TldwS3hLbjFhaDk4YUVwVTRGTzgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE0OTA4LCJuYmYiOjE3NDQ2MTQ5MDgsImV4cCI6MTc0NDYxOTc1MywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBdWxtS0ZnTHBxN1FjeG16OXh4R2JaVTdQV243bnNGMU9TVXQvbEp0NnF6Rk9vSVRNOFFQYUFrQWV5TTJCT1ZUb2xReFBPMDRrRSs1TmE5S0ZQb1lKWDBDd0dFZkxHVUxjNFkrN3MzYUV6UnpLZlcrcGhmdzd6bUwvZ3djZHc4aUoiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiI0ZHRCOEJXcmxVZVljenZndFJzM0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InlZSWN4V25GdVFBa1NveXp1ZWR6U1Y2UFI5VUo2VHdOQUwzOHdaMXprY2siLCJ4bXNfaWRyZWwiOiIzMCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.VXUF8ksRuKLU4DyNj90xgP3gkk4MVIvvXM4wy1prSEvjXrflm-bGtLw0_ptgcexrJxmnDRbSJa3ocAk4Nr_9MzwjSMwxoVuO-i0bnrqIVvTPRwAqYwCdHChL_VAJC63C99cmqOLYgzW29JjCkAsASeaPy_Gr9NJBylMVW6QHWdqFlPRWvZ1WJDFc-LE5VQg0SIFLPb27h0wExvMjSrEzOwG2KO-laeDEHfRG91KmeusufuB2lAxwU99KvchyUkBuIuMnYM8E6zkly5_cQyCrcwU6BhayQ7Xa8Wj5JPadg1Nmei8BzKKL1ZWtJDD_v0GjszRiYyW3rZVTGVIRhqYvNA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlZPSjlWWmJ3Z0VDZG80Q283T01IaHFPYjl0eEc3dnBCUE5qTVRsMVZXZ0kiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE1ODY1LCJuYmYiOjE3NDQ2MTU4NjUsImV4cCI6MTc0NDYyMTM2MywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBTDJ4THVoVXFOSVUzU2FqMy9TSDFmSkp2ZWN5dG1kbkVzRGFxelJHT0FqWnVxaGduQzg0OVlaN3N5S3MrTTlXY3dVb2tJN3IrZTBEZkk3QUtGM09DaHZQbTdMSGowN25yamJCK0pFTFVqT01sQ2FuTVVwNm1SYjNKQnYyTzR6cXMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJCZ0FaYV8ycXdVYTgwT3pEeGV6TEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ilo4aHMxQzFkQ2c0R1JBaDdOY1F2TEdaalRGZXVwU1dadUZLQ0hQLVlYUjgiLCJ4bXNfaWRyZWwiOiIxIDE2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hoVGsVGRo6BkeEok1WYvbd_sl3i1DJgZnuNaD0yyPMKJ8pK_rhN859q-CWkP0pRvcsJ9FIL21-VVI6I-6XzOAOzg82qcuGf8ht6s4_zZ9OnPyWGSGYL70xILQ13RLjomNi-8stSbWW_HRE6CxxFE63hERNbEChPDEWTZ0jwxwFUHCYoBPEapWM8nt6uJuT2Bvy5A-JwjmDAHI6zHfLVRJmvhQtOKKWIMCqnbFrs4gQRx5O2HAzIKVcboL-aLEMtjCau4j_OxIqJtxsLkp2VuGLYXBVhX5wCaObDGIPvyr9FHIVFdtgx49pgYY-wbv6TDWiYHgMEM8XfGaXX-m6kQHQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_NA21hyPECBVv4I96fo0jp5lGrRTOq3ahgZdgamgBlwS9R8W1PryjIBDBFc8HJla3IDMYdcPvEwMsJgU45Uqi4YkP43aj1EuauR-S1QzyVaejZkuwZzWJCtyc_HiXKkz_Z3OmYt0PFbfUk1OnWhgoXhm5jYA9bI2hLdGMlOriWt9fYXg9_LEhXgKuinHjE3rvpXil0npZdBGnlHPsyZIZ8ZNXjWuPZyGaAlXuvN1t0JW5Z_nF7AH-zjRNmfd6WjQ46I945CADi6hYxtWy1Tis3x4lTi6sicxdDfLOWOK4x4fZeh_BYFYptaapDRY9S--MdyDohRb-QNGduu96ZPxU_Sqe0E3b4J_xlXTvGDSWEHWi5fuog9iG6DEucp4b-Bviw6RfivXidFFj1suxtrwohURSKjbPNk93qgRc8f8FlvVQyX9EDUxSvWs4Z9bmR9m67URtozJuU6C-8VVqApftP_JaR80S09c2f_a0qtE8cW1ShWYLY9UmbffY9hopkaePguYiJLpk8bGe74aUQGLMuQx0TfzGa8V_Hu6FTDd9Bsp4-wO54owmHSJre6v0sEbLqzgV7vLL5-W0rOQn2_uZWUynwfkyBbLUGnkWDT3XOD9qSzX4IUgbVHIAiMvLBpHkxqEu9W_ErqYSl26tD2YVZGaVJhBabIbjJgfYEpa1b7Gqb-dHJ6Bx_25-eHxm7IxDnb6KqAlYpMKpztJCLq8I5IlZHm0b4L_C_E-ersdADXVsGw_8D-7_r5062TAFtg6jzkQuFlJSETRXhVYtDzU0SuJuF_xtyOosXK-QYJR1jpi-rFwncCt6NZeW2iQDqV5xUw2Jl3UMSsEAI9KB0Vl_x4sD20k4</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-T8hC2_5dUOyHqadxGlhy1f_pHHK9I46joFxwj6QwJKm-T84Tiz72kXh3DyiSaXRACbtralClBY9d7Yn0Vc4qsr_n7QAo55O4p7lhnY9oZ9-adAbG7TMze6hwMRVXBitW34Mf74nJpYylSxvg_ox8uZw0x6BuqIT2Aq_UdvXUgctKviH6guz9qpSmUyiqseQaIJ-kG9h4twLvKXstsUjHQ3KltEvO2agxYFje0FiC4CxuIu_YGWdv-Lo7qV6lTeMQO5RRYNUB3-yUHdzVCAhCN56cRlnzkHO2qsXCLz__G455dlnTvBUQlD3_W49SxJpaEhWd9ceX4ohLIBDU_xRHzLP2skSwT2zAsCExBKA1AEK_qugz2QO7GecEWj3WAJHaTZh2Y6v9YbaJOV4qrQy_sM_5ZzbIZNU7eSf8aHiV-8R1RvnY2GWoVDNmEPlBCDpsDIr0YHmEAgS69ZN9n37fHk5yvfwAQAc9nbfvcRI1SFSUETDKnFWOyBDn4V-xGcaD4La9ZobKJnjnIlOiLMsQ12zUoLnthSmZBbfU3FTTbT1YNnNXAm1T0JfLz7kDmTnlTefIP4v0hxxsCYZUb7IRTyIcKOJsthpxtYnq7RIuefeq-kEbxdQ1x-8St_Yz3rQaXsVksBOHNpxk0_54H2zf9twKPHSJoSmaNq_E0eDo2IiZTrgft-drErTTPJFdzkrKsuycyk6ybCDD6yQBy_tVP0Udkvz2jK6T3rXWxIbWAwmdm8JxtYgzpinLLNFvM_TeBDM6opXyKKYPqmmojDQixvyZsxW0eHk8VAHmNqFxjgtGGVkyfLlJ3TZfw8NRIOvd3jvGb7RGtjfGKcUzrwHpv-gooHNM</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlZPSjlWWmJ3Z0VDZG80Q283T01IaHFPYjl0eEc3dnBCUE5qTVRsMVZXZ0kiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE1ODY1LCJuYmYiOjE3NDQ2MTU4NjUsImV4cCI6MTc0NDYyMTM2MywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBTDJ4THVoVXFOSVUzU2FqMy9TSDFmSkp2ZWN5dG1kbkVzRGFxelJHT0FqWnVxaGduQzg0OVlaN3N5S3MrTTlXY3dVb2tJN3IrZTBEZkk3QUtGM09DaHZQbTdMSGowN25yamJCK0pFTFVqT01sQ2FuTVVwNm1SYjNKQnYyTzR6cXMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJCZ0FaYV8ycXdVYTgwT3pEeGV6TEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ilo4aHMxQzFkQ2c0R1JBaDdOY1F2TEdaalRGZXVwU1dadUZLQ0hQLVlYUjgiLCJ4bXNfaWRyZWwiOiIxIDE2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hoVGsVGRo6BkeEok1WYvbd_sl3i1DJgZnuNaD0yyPMKJ8pK_rhN859q-CWkP0pRvcsJ9FIL21-VVI6I-6XzOAOzg82qcuGf8ht6s4_zZ9OnPyWGSGYL70xILQ13RLjomNi-8stSbWW_HRE6CxxFE63hERNbEChPDEWTZ0jwxwFUHCYoBPEapWM8nt6uJuT2Bvy5A-JwjmDAHI6zHfLVRJmvhQtOKKWIMCqnbFrs4gQRx5O2HAzIKVcboL-aLEMtjCau4j_OxIqJtxsLkp2VuGLYXBVhX5wCaObDGIPvyr9FHIVFdtgx49pgYY-wbv6TDWiYHgMEM8XfGaXX-m6kQHQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImE1NS1SYVlrZU1QT0VwMnZhR1ROUHJDNnFLcGE0YzNRWmdzUEJRVmFpLW8iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE2NTk5LCJuYmYiOjE3NDQ2MTY1OTksImV4cCI6MTc0NDYyMTE2NCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBU05UNmlNRGxOQitvVnM1Tnd0d204TTcwTW1jSkw0Y3V1emkxamVlVGxvQVFMS1hvc3paSTFDRURMMVVPbUpRWDlONmFCbWxObC9hZlgyczl2VGdab1kxbjBzOE5NY2lWaTRmQUhVUzI2MWMwUXNqWnBabGw2VVYxV3hWdTVBZWwiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJwZHJDTm1TcDUwSzVnSHozWjItYUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlJ1ZG9KYjJSWGluVEx3OVRtZHhOc3dzV2p4ODJqQmpKUFJ0ZEJKODM2QkUiLCJ4bXNfaWRyZWwiOiIxIDI4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.NU0fq_dpLOyHbL3KkEVfmWMOUK6kWCkGcYIjb0BmK4YQTVGw71yM4e3vtewG0VxxVhiHXls-V42JV8UQJhNXxjEQF4sOjqgRt-EnkvC7FydOSssvSd15Lu5F5PeXUaSSLAmfss2aEtfkUAGOgpAJFxHiXeHoCPhLsc2XhY-YPz20Sc0cL5baqBIxVizYPoHk6-pHSoxBZeuJNZiCOZnsaNInFBUwFSQX9rvEMLnDrRPbp6dk5oNZTyTQCC0_ykhvGZk7gBHvMMCtrx-_Msq1LcXVkU3UnOQmLGT1WlzaX8glHGp2dRTIGKKw-34PIX-UlaIDJFmobl28DZPxdm57Hw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-T8hC2_5dUOyHqadxGlhy1f_pHHK9I46joFxwj6QwJKm-T84Tiz72kXh3DyiSaXRACbtralClBY9d7Yn0Vc4qsr_n7QAo55O4p7lhnY9oZ9-adAbG7TMze6hwMRVXBitW34Mf74nJpYylSxvg_ox8uZw0x6BuqIT2Aq_UdvXUgctKviH6guz9qpSmUyiqseQaIJ-kG9h4twLvKXstsUjHQ3KltEvO2agxYFje0FiC4CxuIu_YGWdv-Lo7qV6lTeMQO5RRYNUB3-yUHdzVCAhCN56cRlnzkHO2qsXCLz__G455dlnTvBUQlD3_W49SxJpaEhWd9ceX4ohLIBDU_xRHzLP2skSwT2zAsCExBKA1AEK_qugz2QO7GecEWj3WAJHaTZh2Y6v9YbaJOV4qrQy_sM_5ZzbIZNU7eSf8aHiV-8R1RvnY2GWoVDNmEPlBCDpsDIr0YHmEAgS69ZN9n37fHk5yvfwAQAc9nbfvcRI1SFSUETDKnFWOyBDn4V-xGcaD4La9ZobKJnjnIlOiLMsQ12zUoLnthSmZBbfU3FTTbT1YNnNXAm1T0JfLz7kDmTnlTefIP4v0hxxsCYZUb7IRTyIcKOJsthpxtYnq7RIuefeq-kEbxdQ1x-8St_Yz3rQaXsVksBOHNpxk0_54H2zf9twKPHSJoSmaNq_E0eDo2IiZTrgft-drErTTPJFdzkrKsuycyk6ybCDD6yQBy_tVP0Udkvz2jK6T3rXWxIbWAwmdm8JxtYgzpinLLNFvM_TeBDM6opXyKKYPqmmojDQixvyZsxW0eHk8VAHmNqFxjgtGGVkyfLlJ3TZfw8NRIOvd3jvGb7RGtjfGKcUzrwHpv-gooHNM</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9tj7YcotpU5df6I-bRy8EziZSExP-oxYvbHqfS5ZrRJlso77_KkPwUS3pV7trpjC2AjDcW4U67YOx231AoJa9-BW6axkC0GEIM1coLT9E65jSnRZePkIImX61jmSC4pVbwYPCHYTTwXi2G1-VhMqoUiy7QPLqyV1HE3cC-naCoDYQF56q4VbQACLU6VJBdAyNJVHWZ-acrmu75lIjb7BnZkPkWiKlluZjaqyd8m3RPtaCNalWHNcAwRv5ewIm_h5qv3jXs_BhvaXL4QL7jCZX8dd1WuJwIVQG_jrShjox9TkIIKxGkwyja7mH0KtVURuAHwVLm9J1cI2GJyrTjRa2WsqM6b1pjyIRar6l9oV74d_kPG-hd2QcDUWO99JCZnoLFG09TogsNS18oytRkcNY8lYB-EcvG3tRht9s4HOaxsdbFDzgUfSfD0nxCM1nXsHvtLWaL0zqnXL8-suLDOxJZjE6Y-BjBT62D1xp7aCvWc4N3EeT_A6L08OOUhAJR2SHZu_VUdhAUhCAZma3IpSjcMkqWFvjLVx_MuJnjQqlzX8KI_KqP2cMDSvyhnNjRC7wxebU-WGuDCjbRcxbKL1hxfNOIkvgPEYygvGNGbzlqQJImLWG7uK-xeh1tk2gqX9zvqxOeqA1lDQjLDFCI2m9NujZ8K1B4UttEerd86UbQXghO3CXSgO8NRyTZw_kyPtdxf15QKtMSjE5TcutoHhMbZclr6_WYOslSB3YnG4Ye_tG0fu1HSmkeCHYc4XlUNLN00k1d-yUi_UImNQmSxGnSeGquGipIcejwOi3qpeJk1VXkzO8IViXdCOyEAla2P8n4spj4r7b3sHUBt_SojHlknABrqRQ</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImE1NS1SYVlrZU1QT0VwMnZhR1ROUHJDNnFLcGE0YzNRWmdzUEJRVmFpLW8iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE2NTk5LCJuYmYiOjE3NDQ2MTY1OTksImV4cCI6MTc0NDYyMTE2NCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBU05UNmlNRGxOQitvVnM1Tnd0d204TTcwTW1jSkw0Y3V1emkxamVlVGxvQVFMS1hvc3paSTFDRURMMVVPbUpRWDlONmFCbWxObC9hZlgyczl2VGdab1kxbjBzOE5NY2lWaTRmQUhVUzI2MWMwUXNqWnBabGw2VVYxV3hWdTVBZWwiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJwZHJDTm1TcDUwSzVnSHozWjItYUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlJ1ZG9KYjJSWGluVEx3OVRtZHhOc3dzV2p4ODJqQmpKUFJ0ZEJKODM2QkUiLCJ4bXNfaWRyZWwiOiIxIDI4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.NU0fq_dpLOyHbL3KkEVfmWMOUK6kWCkGcYIjb0BmK4YQTVGw71yM4e3vtewG0VxxVhiHXls-V42JV8UQJhNXxjEQF4sOjqgRt-EnkvC7FydOSssvSd15Lu5F5PeXUaSSLAmfss2aEtfkUAGOgpAJFxHiXeHoCPhLsc2XhY-YPz20Sc0cL5baqBIxVizYPoHk6-pHSoxBZeuJNZiCOZnsaNInFBUwFSQX9rvEMLnDrRPbp6dk5oNZTyTQCC0_ykhvGZk7gBHvMMCtrx-_Msq1LcXVkU3UnOQmLGT1WlzaX8glHGp2dRTIGKKw-34PIX-UlaIDJFmobl28DZPxdm57Hw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InNvRGZQNER4UE1fVWZ0ZDVQMGlkeFM3R0ZFWWNGRHZqeUNmem1ON1lmdmMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE4MDEzLCJuYmYiOjE3NDQ2MTgwMTMsImV4cCI6MTc0NDYyMjI5MSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBbFp4d0Q5aVpzSGZGcS9UaVoxZ3VYY1BnK1NneVp4NzhGa3RuakhlcGhlMVBHRWhzY1VDSWtXNWRQNmM4MVhWUEZJVTFKQ1FaenV5TFVCNUFLY1RwVDUwby91eEM0TGtUc3hwVG5PV05sSnMxeklWZzBITCt2Qy95OUtZQzRYWW8iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJpYVVvbWs3QkwwaVFteXdJaWhISEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlR2b0VMYlV1cnkzUU5RMTl3UFdRTU9JT0tIWjRTYjFNZTV3ZVJES2dFWXMiLCJ4bXNfaWRyZWwiOiIxIDIyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hkmADNnQE2sXx0nbHpqe4LrmX151mQFdb3qmsuOItSaQYPGaLFSjz0VMwQq13wN51E8x6H_BPCaXdJpa0HCwzE2XAHGVml4EuvVmBNwtrvBZzZZCH23opNMdXW5tmI9ZJcbVW2NRuWlOtQyGGZKfU6i5mbxBxtltzGZosrwORGtM6B_MD1W7onPd1FofG9EEahEWDCFu2xIT_kTxaHNz260fHxkarn3GzNfaIFK-eQv7F6v9TqUBrC7KCdSkD8fKDg9aFRFCTEDV0zgAdH2KPawvzXRAFioAkRM8jNqK9nN4REAHGVtt3QCn7dNUeZHBfUOkl8pAhKotocTIMtjb7Q</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9tj7YcotpU5df6I-bRy8EziZSExP-oxYvbHqfS5ZrRJlso77_KkPwUS3pV7trpjC2AjDcW4U67YOx231AoJa9-BW6axkC0GEIM1coLT9E65jSnRZePkIImX61jmSC4pVbwYPCHYTTwXi2G1-VhMqoUiy7QPLqyV1HE3cC-naCoDYQF56q4VbQACLU6VJBdAyNJVHWZ-acrmu75lIjb7BnZkPkWiKlluZjaqyd8m3RPtaCNalWHNcAwRv5ewIm_h5qv3jXs_BhvaXL4QL7jCZX8dd1WuJwIVQG_jrShjox9TkIIKxGkwyja7mH0KtVURuAHwVLm9J1cI2GJyrTjRa2WsqM6b1pjyIRar6l9oV74d_kPG-hd2QcDUWO99JCZnoLFG09TogsNS18oytRkcNY8lYB-EcvG3tRht9s4HOaxsdbFDzgUfSfD0nxCM1nXsHvtLWaL0zqnXL8-suLDOxJZjE6Y-BjBT62D1xp7aCvWc4N3EeT_A6L08OOUhAJR2SHZu_VUdhAUhCAZma3IpSjcMkqWFvjLVx_MuJnjQqlzX8KI_KqP2cMDSvyhnNjRC7wxebU-WGuDCjbRcxbKL1hxfNOIkvgPEYygvGNGbzlqQJImLWG7uK-xeh1tk2gqX9zvqxOeqA1lDQjLDFCI2m9NujZ8K1B4UttEerd86UbQXghO3CXSgO8NRyTZw_kyPtdxf15QKtMSjE5TcutoHhMbZclr6_WYOslSB3YnG4Ye_tG0fu1HSmkeCHYc4XlUNLN00k1d-yUi_UImNQmSxGnSeGquGipIcejwOi3qpeJk1VXkzO8IViXdCOyEAla2P8n4spj4r7b3sHUBt_SojHlknABrqRQ</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9Yehqdc6jElT2hFaqCHEipNmdWTCp-rMUzvxI15S8JaONSzQaNYTurMhry-vNpRbcCE8p5xOBMvYobcpUU5hfY0Jy993Ax6aIFzgBc_m7r8oIwlOLaO0krtZaxOl3eF6VaQ_DYJsySORaqJeXakVfLtA8PVMMIGxpevY2cx7WPTfvwxg_RpYNnIh1uDvUHokihteL6eGgEkLWaCuBGSIA6ur0sIV_Ymkrqr_XI9g0WTdnM6BX2IX_LsFxgNjOy0RYUT_Z9qXyNqZ5J2G1AY3rtETXuHc96stv41bv_4z2KDOsbGGYk3fi08X1ZcqSckcrOD5Ap3dYqHeLccF4OJua1_usEA1an7KTuZICVVPQLoITN-MHIA56sPnXssTvNSgjER1Dtfb_BMeseGF1XIkNi3WNplghF-J9Kxb12v8IrpM2ZblkdKtYtaM6Mbc2VpiJzUiV3uXlORjySpzUB8zt65aZXjD-GC4svVtcSWtpzouX17MrmVDnDwC7pyrXhcbXrZA8ugOuGTcjOpfNaJxmNDeU6RJQfsxohB-lD8yhsgOqBFT_dPmn_KITOzq0oC94rn8PYstBjIcYeeTcU63ie-YphqTET5w896blwbVF1uDdy7RMP3Jl1huhT6KAb0l_MmfZM2LIFDG1sJmjKpQSpCROvNumFe-sUeQGbnci46Y2KkxmeDEOkPUybWgYAKtUm3eXSPxkBU19aRxsKCM6BsXmP5RCKdcJv-eVaCDeqnO0z4y2PI66mGNQvqrKmFzsKiTwlG2X40VQ_e27zVzPohw6tvu83BxR_qf1ARog-k2GaeIVvGWwjbon1OuSzJtqJDf19b9UnkWsaeTKEMvxOWh2XtK0</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InNvRGZQNER4UE1fVWZ0ZDVQMGlkeFM3R0ZFWWNGRHZqeUNmem1ON1lmdmMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE4MDEzLCJuYmYiOjE3NDQ2MTgwMTMsImV4cCI6MTc0NDYyMjI5MSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBbFp4d0Q5aVpzSGZGcS9UaVoxZ3VYY1BnK1NneVp4NzhGa3RuakhlcGhlMVBHRWhzY1VDSWtXNWRQNmM4MVhWUEZJVTFKQ1FaenV5TFVCNUFLY1RwVDUwby91eEM0TGtUc3hwVG5PV05sSnMxeklWZzBITCt2Qy95OUtZQzRYWW8iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJpYVVvbWs3QkwwaVFteXdJaWhISEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlR2b0VMYlV1cnkzUU5RMTl3UFdRTU9JT0tIWjRTYjFNZTV3ZVJES2dFWXMiLCJ4bXNfaWRyZWwiOiIxIDIyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.hkmADNnQE2sXx0nbHpqe4LrmX151mQFdb3qmsuOItSaQYPGaLFSjz0VMwQq13wN51E8x6H_BPCaXdJpa0HCwzE2XAHGVml4EuvVmBNwtrvBZzZZCH23opNMdXW5tmI9ZJcbVW2NRuWlOtQyGGZKfU6i5mbxBxtltzGZosrwORGtM6B_MD1W7onPd1FofG9EEahEWDCFu2xIT_kTxaHNz260fHxkarn3GzNfaIFK-eQv7F6v9TqUBrC7KCdSkD8fKDg9aFRFCTEDV0zgAdH2KPawvzXRAFioAkRM8jNqK9nN4REAHGVtt3QCn7dNUeZHBfUOkl8pAhKotocTIMtjb7Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImlwODJSRmpHbmg3ZDA1QWt6YnNXbjZ1OTZNYl85Ukg5YXo2WFRqZ1d3Y1EiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE5Nzg2LCJuYmYiOjE3NDQ2MTk3ODYsImV4cCI6MTc0NDYyNDk2NCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBd05nSWlOQ1BvRkgrSEgybkpQYlZPNDlwamU1K1h4YXZmTWNhb2ZkRjh2aU9TbE5qR0hkdUtTUVArT0pDd2ZyVENiUjVyYVhKb3k5TFJJOVN4cS9CR3V2TmFxckFUWGRuYjNXeTNVMUE4aHdPNUlPNXZWMFo3SGxrVUZrejhDemkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJHZS0zMlZwLWhFbU1EbnpYdXdxNEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlhQY0YzY043cWJIejhOQ3Y1R0tSa2Q4STVkb3hNTWRNTEIzN0RRb2RncDAiLCJ4bXNfaWRyZWwiOiIzMiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.glTgI73Jw7OggiDsTat5_mA3jjKeaX624Q1dnlwQyAfcqdH5fc09oXSlkA1bSD00aPsH0GyYchykO1X40qz0xcocSrCbQk64MaFZ_74-5GwCjtxbMp-L-zY827kbAe0GRb1Idot6PA5F3rBe4wGgEHm9wayWdjk4ltgu2UHOaQBPmCrGqmdoqOUhPvi62zEJTbtOsLNDyBpj_mk9BCUH5bSe_22Slm1r-5q5RNI8koy38uKju3whfdmiK6eqo5QqKbGR-46ODwaeIOMfLLOPS_w7hj6uC27THcxytAUGyYg5tu7S4E57rCkodge61vlAAY4stkZdFoAwXtB9Ws5png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9Yehqdc6jElT2hFaqCHEipNmdWTCp-rMUzvxI15S8JaONSzQaNYTurMhry-vNpRbcCE8p5xOBMvYobcpUU5hfY0Jy993Ax6aIFzgBc_m7r8oIwlOLaO0krtZaxOl3eF6VaQ_DYJsySORaqJeXakVfLtA8PVMMIGxpevY2cx7WPTfvwxg_RpYNnIh1uDvUHokihteL6eGgEkLWaCuBGSIA6ur0sIV_Ymkrqr_XI9g0WTdnM6BX2IX_LsFxgNjOy0RYUT_Z9qXyNqZ5J2G1AY3rtETXuHc96stv41bv_4z2KDOsbGGYk3fi08X1ZcqSckcrOD5Ap3dYqHeLccF4OJua1_usEA1an7KTuZICVVPQLoITN-MHIA56sPnXssTvNSgjER1Dtfb_BMeseGF1XIkNi3WNplghF-J9Kxb12v8IrpM2ZblkdKtYtaM6Mbc2VpiJzUiV3uXlORjySpzUB8zt65aZXjD-GC4svVtcSWtpzouX17MrmVDnDwC7pyrXhcbXrZA8ugOuGTcjOpfNaJxmNDeU6RJQfsxohB-lD8yhsgOqBFT_dPmn_KITOzq0oC94rn8PYstBjIcYeeTcU63ie-YphqTET5w896blwbVF1uDdy7RMP3Jl1huhT6KAb0l_MmfZM2LIFDG1sJmjKpQSpCROvNumFe-sUeQGbnci46Y2KkxmeDEOkPUybWgYAKtUm3eXSPxkBU19aRxsKCM6BsXmP5RCKdcJv-eVaCDeqnO0z4y2PI66mGNQvqrKmFzsKiTwlG2X40VQ_e27zVzPohw6tvu83BxR_qf1ARog-k2GaeIVvGWwjbon1OuSzJtqJDf19b9UnkWsaeTKEMvxOWh2XtK0</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-8GwItTCst2Pk2l9ngXvpG2TtudIe3XoTmMp3OdhR-st2phrKhRqYCcOb5T9LQOQxFtSivJkIPm6X4F4z5BXA2M0qnlFGKFF5Q1pMqfYaA7X20qcFYmyzuFJaXi3Zq2RKDAftnlt9e8hbhCr8tHa2w0fTsDDOjYvTQ4P8Hexp3fQ4JKopeyjzEW_wZtQYOTzCYrpTfv7nEiElXPm8AgHZZ5whIvs1wXyyO7srNfrPlLYbM0lUyFKXzIHJZ9Z5qkN69p6cFKK0WtHU67J4Wr0Z0hGoBimrNLA66tgUjL1ORXt3k479nnuxJhQuJj9HE884bsIdDH3DWv28j8fr4OTJw9kBhG_koVh2BhBUBUZ3YhSqmPMOsQh2BbGqx4_DvsfmFMMouS08-pyb5PdtkHN9B7kry1sIK57v-O8lTP_GzDjuttX32Odkmvy5N80BKuhlKRh9FNNhHkk4wfIQnYlyF-6ZRJTTEH2QQPTfnkTMmju8vgww2gnBYJg8WWcxXrMYjgYlPwzGyO3cSYfshbWiYET02mCOwKx_BbQ_SdRWsxnyxH5LsNRoQwRG8fQeH8_BGqoCd9rYj7JJMjmp9GNxlihOJi-A-2XB-XTOdPDW4Wzq9FEkcrPya2sXRnfboFCil31jvJIkdDl3gJ_ApOpWlO0LMjkSriCRy5PH9ogeV1JClXPVmgYNaqa4JOcIuGQIdmE3-WXVl-98dpl6HmUQVXrQZ1w8JvN0F2K3tAqDOeDjZDMi4nQEtiqGi0-gxseVtah6AnhnGDiAoTVQj2XCXVe8NQHRyEgm2SVIxY3xqOEqoK-ys6bChaG_cilgCyRCqF3duNRnvmY7QuAn9k2IiiFU3isA</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImlwODJSRmpHbmg3ZDA1QWt6YnNXbjZ1OTZNYl85Ukg5YXo2WFRqZ1d3Y1EiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjE5Nzg2LCJuYmYiOjE3NDQ2MTk3ODYsImV4cCI6MTc0NDYyNDk2NCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBd05nSWlOQ1BvRkgrSEgybkpQYlZPNDlwamU1K1h4YXZmTWNhb2ZkRjh2aU9TbE5qR0hkdUtTUVArT0pDd2ZyVENiUjVyYVhKb3k5TFJJOVN4cS9CR3V2TmFxckFUWGRuYjNXeTNVMUE4aHdPNUlPNXZWMFo3SGxrVUZrejhDemkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJHZS0zMlZwLWhFbU1EbnpYdXdxNEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlhQY0YzY043cWJIejhOQ3Y1R0tSa2Q4STVkb3hNTWRNTEIzN0RRb2RncDAiLCJ4bXNfaWRyZWwiOiIzMiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.glTgI73Jw7OggiDsTat5_mA3jjKeaX624Q1dnlwQyAfcqdH5fc09oXSlkA1bSD00aPsH0GyYchykO1X40qz0xcocSrCbQk64MaFZ_74-5GwCjtxbMp-L-zY827kbAe0GRb1Idot6PA5F3rBe4wGgEHm9wayWdjk4ltgu2UHOaQBPmCrGqmdoqOUhPvi62zEJTbtOsLNDyBpj_mk9BCUH5bSe_22Slm1r-5q5RNI8koy38uKju3whfdmiK6eqo5QqKbGR-46ODwaeIOMfLLOPS_w7hj6uC27THcxytAUGyYg5tu7S4E57rCkodge61vlAAY4stkZdFoAwXtB9Ws5png</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImllbXdVNUh1TXNkZm9FcDZqOE5yR3hNaVNQbW5aLVc2RGsxN1pDODFqVGMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjIwNjcyLCJuYmYiOjE3NDQ2MjA2NzIsImV4cCI6MTc0NDYyNTQ1NCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBZmpEMndjdU9DZWdWTE9QYWtSdkZQUTdrN1JCR21YTUkrSFpzbEdiNWQyUTNPSzRlNmx1d3hZcTJybGU3Q1ZFS3JLcnpVVWFlYThhOUZEQUk4TGVES0oxUHVSRmM1dXNCenRsQU5KeEpQcXhrUXJBRnJBOE9rMzlQc1IrM0ltbkYiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJJZjF5dk5UYVFFQ3ZGOGl1aHRIRUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Inkzc1NiRV9CTlNXU2ZoVXh1NHp5bU9vQl9hdldSYkVISVV4VjQxSHJJbTgiLCJ4bXNfaWRyZWwiOiIxIDMyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Olnkd9JrabeIF68bBf0C86KvUORoC6lcqCoDbJDHDn_dTYBgD6_vpW6dnf5dHt3cSqlku_WPFzi9tJIcMjEjdTl-9MewtFttnlX7cS5pmfJWG2PsyvDnOM8gXv18CkURzi1r2nJO_Gmodcz42wsxVc0UIAi4cnj0knrAPiOer9WMIIfze9x7io1eVGXs1Xi0GUxpLK9Ui7w5ZFTrOTIeEQ75lpvZCUFL037y_rRrVZp3GVCTf7LDexGuszDKCmTTutmzXGGh4AdZMv-RU8jQfT8TcxcB_dluU2T1Innqlhmtht0T0Utt0B6j73bs9kFVoNl9jQJw45Lss_CXtqhG8w</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-8GwItTCst2Pk2l9ngXvpG2TtudIe3XoTmMp3OdhR-st2phrKhRqYCcOb5T9LQOQxFtSivJkIPm6X4F4z5BXA2M0qnlFGKFF5Q1pMqfYaA7X20qcFYmyzuFJaXi3Zq2RKDAftnlt9e8hbhCr8tHa2w0fTsDDOjYvTQ4P8Hexp3fQ4JKopeyjzEW_wZtQYOTzCYrpTfv7nEiElXPm8AgHZZ5whIvs1wXyyO7srNfrPlLYbM0lUyFKXzIHJZ9Z5qkN69p6cFKK0WtHU67J4Wr0Z0hGoBimrNLA66tgUjL1ORXt3k479nnuxJhQuJj9HE884bsIdDH3DWv28j8fr4OTJw9kBhG_koVh2BhBUBUZ3YhSqmPMOsQh2BbGqx4_DvsfmFMMouS08-pyb5PdtkHN9B7kry1sIK57v-O8lTP_GzDjuttX32Odkmvy5N80BKuhlKRh9FNNhHkk4wfIQnYlyF-6ZRJTTEH2QQPTfnkTMmju8vgww2gnBYJg8WWcxXrMYjgYlPwzGyO3cSYfshbWiYET02mCOwKx_BbQ_SdRWsxnyxH5LsNRoQwRG8fQeH8_BGqoCd9rYj7JJMjmp9GNxlihOJi-A-2XB-XTOdPDW4Wzq9FEkcrPya2sXRnfboFCil31jvJIkdDl3gJ_ApOpWlO0LMjkSriCRy5PH9ogeV1JClXPVmgYNaqa4JOcIuGQIdmE3-WXVl-98dpl6HmUQVXrQZ1w8JvN0F2K3tAqDOeDjZDMi4nQEtiqGi0-gxseVtah6AnhnGDiAoTVQj2XCXVe8NQHRyEgm2SVIxY3xqOEqoK-ys6bChaG_cilgCyRCqF3duNRnvmY7QuAn9k2IiiFU3isA</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8KOrL0bwNqFaXIEsGzXxVvCKZvsdy-FRu_EVa2dECHo-lFUHs9byv8We53NZoQQnc-nAKmiQ6yJ_CCdZzwqfKoUCJBoFv2aoAGuPgN5ITKqAcy-2L-bS4lTZPG0yKSG8Z4UNDmM2CfoL0nSCUk2d8r-pmmc5vltF0fm8VaJssyfUYjDuGPhd947GQCB6FtMWfMq6oTkvoU2tvyuTeUwr7JJvVhC1B9K2lEEPTTB3R9B_WL2nyKDyMwxfTJ-VGHf_ac3U9SpYBFADZRAwQVJWGBHuNIjGXAWWmKaMrD7V6H_MWIfScu0nn2VbZlgIpDD71mZt2VEUSvPfzV8W4tvHcMdrxDQSIczqOzY0Nj_CGnkw1AeRgYfrHdL1YZiuHMHuzrroiR-Nni76L04j4m8Djl2QJ4XEmjKYHVBZEIKHiRM_hFncukrsmB_7nFYQf_T86smXKKA4tS3t7FssuQRHvwd3aX1jUkscAoqhU7c6uYKQHnPrxDPJeOuQvWSoi-IbCHhw6AHpd6afC3Wyw_K8uBjx9SOE1EhiXtDng7IWyfwNbaSJPgiAxILydLJyVSKe7td9Wqyx3OQ6C4HAhZbs97HG1k9DycRRoezBCzAlXgfNy2eFOsC1vpOsXaPl8XBSa2UN45g7PG2uBfZEvNYuKwkCnPYKXz4eFhvZDIXoDUNMB8nu0XYS6s6P0uNlJlepGl2ifCISlpVpEW3obCwC6Mi2Cq3dp1Cuc_0OAtqGUNb_DTZgXiL55c3ESNMjl_tQ4rvGMdtE2MqBDJU1UZQgvHHkE7CBsVDMGLz1b0_sF_o-aQgxE-wEN4ya91QphLlrDPYE9BhhI8ZSpTzpyhbMZjRJ5t5tk</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImllbXdVNUh1TXNkZm9FcDZqOE5yR3hNaVNQbW5aLVc2RGsxN1pDODFqVGMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjIwNjcyLCJuYmYiOjE3NDQ2MjA2NzIsImV4cCI6MTc0NDYyNTQ1NCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBZmpEMndjdU9DZWdWTE9QYWtSdkZQUTdrN1JCR21YTUkrSFpzbEdiNWQyUTNPSzRlNmx1d3hZcTJybGU3Q1ZFS3JLcnpVVWFlYThhOUZEQUk4TGVES0oxUHVSRmM1dXNCenRsQU5KeEpQcXhrUXJBRnJBOE9rMzlQc1IrM0ltbkYiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJJZjF5dk5UYVFFQ3ZGOGl1aHRIRUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Inkzc1NiRV9CTlNXU2ZoVXh1NHp5bU9vQl9hdldSYkVISVV4VjQxSHJJbTgiLCJ4bXNfaWRyZWwiOiIxIDMyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Olnkd9JrabeIF68bBf0C86KvUORoC6lcqCoDbJDHDn_dTYBgD6_vpW6dnf5dHt3cSqlku_WPFzi9tJIcMjEjdTl-9MewtFttnlX7cS5pmfJWG2PsyvDnOM8gXv18CkURzi1r2nJO_Gmodcz42wsxVc0UIAi4cnj0knrAPiOer9WMIIfze9x7io1eVGXs1Xi0GUxpLK9Ui7w5ZFTrOTIeEQ75lpvZCUFL037y_rRrVZp3GVCTf7LDexGuszDKCmTTutmzXGGh4AdZMv-RU8jQfT8TcxcB_dluU2T1Innqlhmtht0T0Utt0B6j73bs9kFVoNl9jQJw45Lss_CXtqhG8w</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkZaV25GTTl6SDF5YlM3N005WTNFME95M2FYMDJaVEQzQ0tsUDRzNG0zOE0iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjIyNTg5LCJuYmYiOjE3NDQ2MjI1ODksImV4cCI6MTc0NDYyNjU2MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBR2o5dk0vMHNHa0JRazdKcS9YbVJ3Q2l1ZlpEMFJKd2NjU05iblhhNXJHWE9ta3F3eEZRUEVmMmU2K2ZsSDYwWmo1U0NYUDhqU2RwTmsrT0lIWkpFbDFJK2NEcVhpNFA3dDlOTk4xSXdtTUZsU0ZKcllqN2JaY3hyekh3RWFzMEsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJfeFozcGlicUcwV29RX1VHTk1BSUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Inh5N004NGo5aURSRUllNXdnVnZRVXRiclkwT1dINVZxSHYxc1N6U3JqY0UiLCJ4bXNfaWRyZWwiOiIxIDQiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.KOLLwAzGme2Vvo63uGg1ba1yPT_0C3KUIl01V7SlEey_qVnuKQVedXDzuAzOQGLwORwtmXv66cy7IWIaBlqOBdfttQsKlPI0uFq6qemTcK5aA5Fxl2zrJJVtk-Uu9S0CEqlzgUdaMuxKQlM6Y5GgSn0f6SXgVWzJEfEmlCvPWH1k9xnml7vGT5GSfkyhigm4zJ7Z4PdAfWUmoZ49EiU45PqbY2oUcIhI9pdd6LJVcZtd_7QzdlYa48yQ3ufAkfUnEbP_fKD4TWk0M9DTnF--AqJ454clH8I1Fi0Gc6j6r3KXMqbCfE_Ag3Ekpyex9Hi20v8_TkzAPozJRz7QGSgq5Q</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8KOrL0bwNqFaXIEsGzXxVvCKZvsdy-FRu_EVa2dECHo-lFUHs9byv8We53NZoQQnc-nAKmiQ6yJ_CCdZzwqfKoUCJBoFv2aoAGuPgN5ITKqAcy-2L-bS4lTZPG0yKSG8Z4UNDmM2CfoL0nSCUk2d8r-pmmc5vltF0fm8VaJssyfUYjDuGPhd947GQCB6FtMWfMq6oTkvoU2tvyuTeUwr7JJvVhC1B9K2lEEPTTB3R9B_WL2nyKDyMwxfTJ-VGHf_ac3U9SpYBFADZRAwQVJWGBHuNIjGXAWWmKaMrD7V6H_MWIfScu0nn2VbZlgIpDD71mZt2VEUSvPfzV8W4tvHcMdrxDQSIczqOzY0Nj_CGnkw1AeRgYfrHdL1YZiuHMHuzrroiR-Nni76L04j4m8Djl2QJ4XEmjKYHVBZEIKHiRM_hFncukrsmB_7nFYQf_T86smXKKA4tS3t7FssuQRHvwd3aX1jUkscAoqhU7c6uYKQHnPrxDPJeOuQvWSoi-IbCHhw6AHpd6afC3Wyw_K8uBjx9SOE1EhiXtDng7IWyfwNbaSJPgiAxILydLJyVSKe7td9Wqyx3OQ6C4HAhZbs97HG1k9DycRRoezBCzAlXgfNy2eFOsC1vpOsXaPl8XBSa2UN45g7PG2uBfZEvNYuKwkCnPYKXz4eFhvZDIXoDUNMB8nu0XYS6s6P0uNlJlepGl2ifCISlpVpEW3obCwC6Mi2Cq3dp1Cuc_0OAtqGUNb_DTZgXiL55c3ESNMjl_tQ4rvGMdtE2MqBDJU1UZQgvHHkE7CBsVDMGLz1b0_sF_o-aQgxE-wEN4ya91QphLlrDPYE9BhhI8ZSpTzpyhbMZjRJ5t5tk</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-nZiNY5sgSMp1BJpgQ7XWzXTgGprZt0M_rbuWj9FyvboFCRljyF6b7yLttXT0MGs-SLgALSaGl_Y8dLYZai_HVOGzeOGKC5qLqmIPvN0SAwkpnvSOlI4HMZC56XoUuFIRobbDgj8yLj5NdDwJI8AJQ9T29lFW20RMSxXS5JGeNYtRLc3ZizCHB1PACfmRrgruLAo6zcXuyRLPjU1yXHNxPnfgtFAMcUmGTZloU1IYNhARF67ENSTI9jKCEft75w6u55Iy_NBRyB7YnfPfCOq5ercSaBzd8sMjKUgB0TcbRdeRoWVFhq2-2eV6vOwRm2XQEPsyIC4UsP46YTrPdA10bw23Vhg2s1UDDaGObvp4cwvu48mLt8AsK7Krl1k1sR1kY6JeWqlaZXU8NA-XY6B5sAjnahNxL4VhkWUB4hFP0Yr8vX84cwt3N-UJIxp644uRxVI-XkmoI1Tq1vZTN_CCFTTMQ8Rov4KIQZcvK2gXHUNgYMLmhyJbMJ_X3UWq0AS7EOn5F3p-JXYNAtno3f63Kz3ZuMBA09dCNakWHRCcfV5S9684baip2FfgzlbUb6QOShQxHzzJ2_y0LUZIDQvSdN5JQxVCa9YgRaFIryc-IIk7K7Fgurhu4VM-uzaq3C--n34wCNsNogyBaxB0S4PDJYaasLQ8ongCrG3TUKXKRiy8JIiJEB-tqcVhg1Fraryz122syMaXUYrscfKQ0lRnGiCf-Xv_OObpQJuD8YIvRNrzMrWKj6fKpQ9LzA2rxHe7Ot1NLefIBsoO5JXTNXW_82uV4yyGv2aCrII_UuZQmVEnB2Xor5wnkqglV4WjQ9Kl-lJKZs1FM6FZT09wm-bsQZ97TBk8</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkZaV25GTTl6SDF5YlM3N005WTNFME95M2FYMDJaVEQzQ0tsUDRzNG0zOE0iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjIyNTg5LCJuYmYiOjE3NDQ2MjI1ODksImV4cCI6MTc0NDYyNjU2MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBR2o5dk0vMHNHa0JRazdKcS9YbVJ3Q2l1ZlpEMFJKd2NjU05iblhhNXJHWE9ta3F3eEZRUEVmMmU2K2ZsSDYwWmo1U0NYUDhqU2RwTmsrT0lIWkpFbDFJK2NEcVhpNFA3dDlOTk4xSXdtTUZsU0ZKcllqN2JaY3hyekh3RWFzMEsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJfeFozcGlicUcwV29RX1VHTk1BSUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Inh5N004NGo5aURSRUllNXdnVnZRVXRiclkwT1dINVZxSHYxc1N6U3JqY0UiLCJ4bXNfaWRyZWwiOiIxIDQiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.KOLLwAzGme2Vvo63uGg1ba1yPT_0C3KUIl01V7SlEey_qVnuKQVedXDzuAzOQGLwORwtmXv66cy7IWIaBlqOBdfttQsKlPI0uFq6qemTcK5aA5Fxl2zrJJVtk-Uu9S0CEqlzgUdaMuxKQlM6Y5GgSn0f6SXgVWzJEfEmlCvPWH1k9xnml7vGT5GSfkyhigm4zJ7Z4PdAfWUmoZ49EiU45PqbY2oUcIhI9pdd6LJVcZtd_7QzdlYa48yQ3ufAkfUnEbP_fKD4TWk0M9DTnF--AqJ454clH8I1Fi0Gc6j6r3KXMqbCfE_Ag3Ekpyex9Hi20v8_TkzAPozJRz7QGSgq5Q</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ijg2RFVCVzZJWm80ZzkwLVFnR0Z1bjJKaHZxRjJ3UTdSenFpQUEzT3VWYWciLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjIzNTU2LCJuYmYiOjE3NDQ2MjM1NTYsImV4cCI6MTc0NDYyODY4OSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWm1reGNWbUtuRUxNd3RWS3k3VzFROUJiNTI0Q2kzSHFZNE92R3NZcHI2Q3ZBWVM3VllDandDemtRWXFuZ1dGMnB0NkhJQ0RFNXhpUmlEcHB6ZjZIbkRyNEI1aXBPZGtERWNCNU1wK0Z6TnJUWnJmV3J4d3NsY2MycVVSMnpqTlMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJNTnF6NVJkUmYweVdQODkzMkdvMUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IllPTTRWZWRJc1ZXVVg0d3VtNnQyY0pVWmhEa0diMndqdVY3MzE4VnlTN1kiLCJ4bXNfaWRyZWwiOiIxIDE0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.f5N0HqTtntMOSk82Xh06sbCeobwuxN_fEmJRBaHJHIOn_I1CAGvJId_hV0FGt__GDAPHtVoCRAUdgZKps8K4kfuXY911yByVrm8GZ-DU3QVhnZHl7b6uw-JVszGC7g9Zvf4rM_NDl38IZ-U5VOk1IiXIFNyAkdX129tilmKTpqQDH2iWiGcBvGOTMANwVpNL5vg0o9Xd71YHfMzdaEA0IG6rgDHzABHTfVDbJ4GBexBQNr6D5lowma8BNCDYboyfgj5ExPb0kiFqYcfIr6Fn0NyICaS9t73xXm4hqDR5T3JYAKJ3yoYMpBM_Amx4-wamIKI9dyxLYRJmnC8Ybbda3w</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-nZiNY5sgSMp1BJpgQ7XWzXTgGprZt0M_rbuWj9FyvboFCRljyF6b7yLttXT0MGs-SLgALSaGl_Y8dLYZai_HVOGzeOGKC5qLqmIPvN0SAwkpnvSOlI4HMZC56XoUuFIRobbDgj8yLj5NdDwJI8AJQ9T29lFW20RMSxXS5JGeNYtRLc3ZizCHB1PACfmRrgruLAo6zcXuyRLPjU1yXHNxPnfgtFAMcUmGTZloU1IYNhARF67ENSTI9jKCEft75w6u55Iy_NBRyB7YnfPfCOq5ercSaBzd8sMjKUgB0TcbRdeRoWVFhq2-2eV6vOwRm2XQEPsyIC4UsP46YTrPdA10bw23Vhg2s1UDDaGObvp4cwvu48mLt8AsK7Krl1k1sR1kY6JeWqlaZXU8NA-XY6B5sAjnahNxL4VhkWUB4hFP0Yr8vX84cwt3N-UJIxp644uRxVI-XkmoI1Tq1vZTN_CCFTTMQ8Rov4KIQZcvK2gXHUNgYMLmhyJbMJ_X3UWq0AS7EOn5F3p-JXYNAtno3f63Kz3ZuMBA09dCNakWHRCcfV5S9684baip2FfgzlbUb6QOShQxHzzJ2_y0LUZIDQvSdN5JQxVCa9YgRaFIryc-IIk7K7Fgurhu4VM-uzaq3C--n34wCNsNogyBaxB0S4PDJYaasLQ8ongCrG3TUKXKRiy8JIiJEB-tqcVhg1Fraryz122syMaXUYrscfKQ0lRnGiCf-Xv_OObpQJuD8YIvRNrzMrWKj6fKpQ9LzA2rxHe7Ot1NLefIBsoO5JXTNXW_82uV4yyGv2aCrII_UuZQmVEnB2Xor5wnkqglV4WjQ9Kl-lJKZs1FM6FZT09wm-bsQZ97TBk8</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_4gLTEtHQIXCjR1OtQbs4waj8JHtAibO6FNF5DjJ_r_131e2J8lcM9OPSsm5ydzQ-6ZSGKl4BO63V0aPweTSfsNLak_bSEPPZIneuKZw4XLiGKcsjFc5CVZZzLflMiz_Wgc1wc8TQLGla3B69rbzAU7NHkKbxnbQRPWBI0ZXq6ts8DkBzeZiGpzQB2EepMKiyw8Vtnv56IFDC9NPTK7wZGO302cAOfHxMOIEVvtRcxhUKXoZbBjuB9EVi_dYb6FfnmIk8CncnFV5sf7kVq9uugeJkyio3xKozshfKoy_HJGGaSlQXq4AqW570-aGM4lH-IExv_qHx2NBwsIYkAKeTI_q0RfpH5_ReppS13kAMqgrqhaicEIJ4bnVJ6NFgsaq2Id3bYTUZC8LGo3swGoUuthm-cuqkwLmPLQgzhP57kWkGS32sMdprKtJhZ1XHkdGAKHrrqceIFIE6N_JRQuRBzjHkB3Ve-jZsvixcU52i4TPU0BJ6pQeAOA-5OuSWUWhS2YRC2Y1HpPSEVZVHlp1n_w41BBU-S2vYY_0KPbcjThDSPj07iyDnighaIOTl4W7cHuOAJ7f_yTVGJnUzhanoKRA0VAPNDlmrfpsUvh8Sf1ehRoUomkyCn1AqNdLUhdAhKfx0bLLOIGjdtgPn7qQi2taJAKQVSnXeMSNeK-srbZrSoJtnedmKgPUsBXrcggeolA6QPo7eCBnyeQgUNHvY-6lwyQI4pKPcdjePB4uCEUq181kUY48rHshD7PN7Lcf3txv1ONKWe3_SAIsUWFPTK1x30y1DKoTkuBPxA54uly8Iw4C54ZcP04Rx9FJkU06y94L0ZKk5wtF0QbBu9jkUi6HNWZ-A</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ijg2RFVCVzZJWm80ZzkwLVFnR0Z1bjJKaHZxRjJ3UTdSenFpQUEzT3VWYWciLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjIzNTU2LCJuYmYiOjE3NDQ2MjM1NTYsImV4cCI6MTc0NDYyODY4OSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWm1reGNWbUtuRUxNd3RWS3k3VzFROUJiNTI0Q2kzSHFZNE92R3NZcHI2Q3ZBWVM3VllDandDemtRWXFuZ1dGMnB0NkhJQ0RFNXhpUmlEcHB6ZjZIbkRyNEI1aXBPZGtERWNCNU1wK0Z6TnJUWnJmV3J4d3NsY2MycVVSMnpqTlMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJNTnF6NVJkUmYweVdQODkzMkdvMUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IllPTTRWZWRJc1ZXVVg0d3VtNnQyY0pVWmhEa0diMndqdVY3MzE4VnlTN1kiLCJ4bXNfaWRyZWwiOiIxIDE0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.f5N0HqTtntMOSk82Xh06sbCeobwuxN_fEmJRBaHJHIOn_I1CAGvJId_hV0FGt__GDAPHtVoCRAUdgZKps8K4kfuXY911yByVrm8GZ-DU3QVhnZHl7b6uw-JVszGC7g9Zvf4rM_NDl38IZ-U5VOk1IiXIFNyAkdX129tilmKTpqQDH2iWiGcBvGOTMANwVpNL5vg0o9Xd71YHfMzdaEA0IG6rgDHzABHTfVDbJ4GBexBQNr6D5lowma8BNCDYboyfgj5ExPb0kiFqYcfIr6Fn0NyICaS9t73xXm4hqDR5T3JYAKJ3yoYMpBM_Amx4-wamIKI9dyxLYRJmnC8Ybbda3w</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImRWaGFxcDdqTmQtNHI4TElEMjFxYXFfMzh0THpRci1WZDhsaXJ1SGtRYTQiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI0Mjk2LCJuYmYiOjE3NDQ2MjQyOTYsImV4cCI6MTc0NDYyODg5MywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWUxRM0Z1ZFk5Y2FaV24zc2gzSEw1U2hBU2g1cWNpWmUxR3BySExoZjA4UVlUM3I4bnhPQmR4OVNkaGdPVGNlRldwRVZmMWpMczZEMytjTmVXZU51NW9lNG5EMURtTkhtbjh3emtjVUJmd0Joa0NvRjcxWWZMV2xibFVtU0gxTWkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJHb2NRRENKV3lVTzkxd2JBWmVNMEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ink4enNZOXNfbmozUHhkcHVQUTBfaUw3VmJ1WnBVYnlBU2pNZ21VSmQxYmMiLCJ4bXNfaWRyZWwiOiI4IDEiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.PvjUkJe4qVHfJ0CK380yKTao1lfGlEV6Ciyv4uJ74kBqjem_fmrGpsv1wOh2ZwfGV--4rO-7sSZBZgBTv2u0w_6e4Hfy5Rhuerob8AW-P4WsbbNPcoIbpqI9Hex-rYMn5ipRBshY8sXita3SwGOOjm0VlRKOqKdQQMxTmN8QN62QvArQaQRO1Hr14lF9HAAysc-DMb08gJbwr5v3kYSIbZziu-R1UUrpm5-_QSbsAWttpraZ0gmgKk20FOGQ1jOZP-QKkOjEB6-r7-c77xHj2Kd0920sFHhM9Z1vOSxeuUJQeuKRVclnGiwU9U23DIpSgSuabw5sGdo9-YJg03T93A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_4gLTEtHQIXCjR1OtQbs4waj8JHtAibO6FNF5DjJ_r_131e2J8lcM9OPSsm5ydzQ-6ZSGKl4BO63V0aPweTSfsNLak_bSEPPZIneuKZw4XLiGKcsjFc5CVZZzLflMiz_Wgc1wc8TQLGla3B69rbzAU7NHkKbxnbQRPWBI0ZXq6ts8DkBzeZiGpzQB2EepMKiyw8Vtnv56IFDC9NPTK7wZGO302cAOfHxMOIEVvtRcxhUKXoZbBjuB9EVi_dYb6FfnmIk8CncnFV5sf7kVq9uugeJkyio3xKozshfKoy_HJGGaSlQXq4AqW570-aGM4lH-IExv_qHx2NBwsIYkAKeTI_q0RfpH5_ReppS13kAMqgrqhaicEIJ4bnVJ6NFgsaq2Id3bYTUZC8LGo3swGoUuthm-cuqkwLmPLQgzhP57kWkGS32sMdprKtJhZ1XHkdGAKHrrqceIFIE6N_JRQuRBzjHkB3Ve-jZsvixcU52i4TPU0BJ6pQeAOA-5OuSWUWhS2YRC2Y1HpPSEVZVHlp1n_w41BBU-S2vYY_0KPbcjThDSPj07iyDnighaIOTl4W7cHuOAJ7f_yTVGJnUzhanoKRA0VAPNDlmrfpsUvh8Sf1ehRoUomkyCn1AqNdLUhdAhKfx0bLLOIGjdtgPn7qQi2taJAKQVSnXeMSNeK-srbZrSoJtnedmKgPUsBXrcggeolA6QPo7eCBnyeQgUNHvY-6lwyQI4pKPcdjePB4uCEUq181kUY48rHshD7PN7Lcf3txv1ONKWe3_SAIsUWFPTK1x30y1DKoTkuBPxA54uly8Iw4C54ZcP04Rx9FJkU06y94L0ZKk5wtF0QbBu9jkUi6HNWZ-A</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9EnEUaJpXoZtDRhCCSRzkEy6-JCffqSVkhsOsUQXLCrKfAUKMQyIiVaRNJSvrnLJhzGdIhjCS8ycvbYLGB8a4sz3zBigqdzEFWK7wl3dLmRbQgHZPB1WKDhGlJRRAAF9A-9Hgwf5QkhroYjb9YAC_17tgyklZbg9-LNkhyZ5yV0otIEUud1ace6q-eajaBYlBx645A1l8BROyYfDMYnXzevx6knOG2rMwJBTedDlV1elUID5nBY5ADM4W8hSpEGB7OHN6Dt2AYetJNDLEtWPHO-AXPQwxv7QU7iQgxRq4Hz0zs5vmLcfhcFvfDb4ls8HQ16olOyvyZzkcRqBhhM7GoK5-1ww84zo-LedRHdqsmQUV7jmJJBG0mujQu8lZ9Pp4tFmMN7QshmKGaxbo1QIS9pPwgA2uVKCD0ZIKvWzSOc11t-VdwRNt79jfgKaKCBD1iAyydZVuhROs3gPGczFCP2hVbhNKSE9MYkddoe2Y_szQf-3HAHB9bCJpGIYL0OoTqqmynKyoVWIIL76a57f45uJRC5oMARf0sIuHQi2rNpy7YqSt996eJyxnikjQWaaLLL_guGuGP571Iu709lG7tkqT2e81udgJopOt1bUHjsc4z1e3tErT8daR1cRGHtxozMSr5HMj9KuZutAKVfZg2JTN8Be_aAekYtTkpYgsPlhZJPGR8d9BnK-cdU8M8BQEVIqrUAwnH1w75YcPYZTbVQJsXr8rPGcDB10ScbGKSZXmsJljd76KWNMjuGZXsxLo2OMakbJDmqXZkn_rvsudkUwpz9PQYcBpCLdIqS3BdphW5JQvaXlgX4brLNQbJp_EXDrQrG3GS6XLS4DN6D-RkGgRd7iU</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImRWaGFxcDdqTmQtNHI4TElEMjFxYXFfMzh0THpRci1WZDhsaXJ1SGtRYTQiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI0Mjk2LCJuYmYiOjE3NDQ2MjQyOTYsImV4cCI6MTc0NDYyODg5MywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWUxRM0Z1ZFk5Y2FaV24zc2gzSEw1U2hBU2g1cWNpWmUxR3BySExoZjA4UVlUM3I4bnhPQmR4OVNkaGdPVGNlRldwRVZmMWpMczZEMytjTmVXZU51NW9lNG5EMURtTkhtbjh3emtjVUJmd0Joa0NvRjcxWWZMV2xibFVtU0gxTWkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJHb2NRRENKV3lVTzkxd2JBWmVNMEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ink4enNZOXNfbmozUHhkcHVQUTBfaUw3VmJ1WnBVYnlBU2pNZ21VSmQxYmMiLCJ4bXNfaWRyZWwiOiI4IDEiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.PvjUkJe4qVHfJ0CK380yKTao1lfGlEV6Ciyv4uJ74kBqjem_fmrGpsv1wOh2ZwfGV--4rO-7sSZBZgBTv2u0w_6e4Hfy5Rhuerob8AW-P4WsbbNPcoIbpqI9Hex-rYMn5ipRBshY8sXita3SwGOOjm0VlRKOqKdQQMxTmN8QN62QvArQaQRO1Hr14lF9HAAysc-DMb08gJbwr5v3kYSIbZziu-R1UUrpm5-_QSbsAWttpraZ0gmgKk20FOGQ1jOZP-QKkOjEB6-r7-c77xHj2Kd0920sFHhM9Z1vOSxeuUJQeuKRVclnGiwU9U23DIpSgSuabw5sGdo9-YJg03T93A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Inp5V09OSy10NTZuYVhCbUVoaXVCbk9CeTJEQ0c5T1A5NDZlako4ZWVuS3MiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI2MjQ5LCJuYmYiOjE3NDQ2MjYyNDksImV4cCI6MTc0NDYzMDI0NywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWURzcWRGRW5lV1JOY0FCVC9OUmthVE9OVTIvQlRObHNvSTR1TXdlUXVoS000WkpzdUY0VElFdzlKeDZ6dkNxTDlyaklKZmV6Z25ndWkzZ1k5d2pLcW4yZVdOSlN1QnBCTGxoZkt0aU15WjUwdjBBckFsbGh1NCtCalpUcnlLWGQiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ0Rzc2OU5PVXBFbUhkLXpRMUdZcUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkQyNlIxY085a2RlQW1WMmdHT1hOT1ZXcy1SYUcxQXdfNWg4UXc4eHZZZEEiLCJ4bXNfaWRyZWwiOiIxIDI2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.ZtEIfP267387B8Khs2WfHa7yTMC08xPBpEOvblHnmjZ5GXRghn_OOP8tgLnbrWhNSs9AJ1Pg08SudY7cO7At8X61nHrdNKa2BxDO4KVZ-FB9mx5_DXBmXdKtGd5iyALyjjvYu8N0ql0_NELUjwCQTaeG9SfOBmmsVvDhHDMWcAh5dHEq_EWfSPJ3SWyOjgKR1lY4Yb9VsDJlMLHrQR4WHZLuQzW5N3Y9YN8yzpFEWmIflMW6Y6mOeRdgjgCjps6NZvNZwJGHnKlqTIiBcXx-mo7MlYzi24offWf1WO2DzEpgxdAenk0qJdhcx2M7izi7YaR2Fzfr6LJm5uiNtcZR3g</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9EnEUaJpXoZtDRhCCSRzkEy6-JCffqSVkhsOsUQXLCrKfAUKMQyIiVaRNJSvrnLJhzGdIhjCS8ycvbYLGB8a4sz3zBigqdzEFWK7wl3dLmRbQgHZPB1WKDhGlJRRAAF9A-9Hgwf5QkhroYjb9YAC_17tgyklZbg9-LNkhyZ5yV0otIEUud1ace6q-eajaBYlBx645A1l8BROyYfDMYnXzevx6knOG2rMwJBTedDlV1elUID5nBY5ADM4W8hSpEGB7OHN6Dt2AYetJNDLEtWPHO-AXPQwxv7QU7iQgxRq4Hz0zs5vmLcfhcFvfDb4ls8HQ16olOyvyZzkcRqBhhM7GoK5-1ww84zo-LedRHdqsmQUV7jmJJBG0mujQu8lZ9Pp4tFmMN7QshmKGaxbo1QIS9pPwgA2uVKCD0ZIKvWzSOc11t-VdwRNt79jfgKaKCBD1iAyydZVuhROs3gPGczFCP2hVbhNKSE9MYkddoe2Y_szQf-3HAHB9bCJpGIYL0OoTqqmynKyoVWIIL76a57f45uJRC5oMARf0sIuHQi2rNpy7YqSt996eJyxnikjQWaaLLL_guGuGP571Iu709lG7tkqT2e81udgJopOt1bUHjsc4z1e3tErT8daR1cRGHtxozMSr5HMj9KuZutAKVfZg2JTN8Be_aAekYtTkpYgsPlhZJPGR8d9BnK-cdU8M8BQEVIqrUAwnH1w75YcPYZTbVQJsXr8rPGcDB10ScbGKSZXmsJljd76KWNMjuGZXsxLo2OMakbJDmqXZkn_rvsudkUwpz9PQYcBpCLdIqS3BdphW5JQvaXlgX4brLNQbJp_EXDrQrG3GS6XLS4DN6D-RkGgRd7iU</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9yVYf6_CCL2shExVnXThGSi3k8Cg1ub2oik7KZtS1MxquyVOYSaB0IWLQ0t2yU2l8HCXxE-t_hzvimhpYakGGrKfLAhvXd28TGiQeIeSKpWUVkV7bsXy4wXeRTbgLhtu6JdWaQA10hORAm4o_JQiGZHzmWDPaoyxf4GWrUO5j3DlPO4HhW13jitxip52rBI1kTOrNOEjEjtMVbc1p63xcT25KFeVQXDWiTX6ZDPxBYbM7SRAmsm77_I9jTNZZ-7HCZQ0g0boJ-Ohp5RkIc44Hk2_h6Hz9Z9iF3iSUTxn5d_Wlbzxm1GovV9Hs2MxDa-GH2fp5GoRMf5OT8InoEkHqTetoq7d3Y6ziLwZsVSdmFblDirCik219UVP1Md5BuCGQgQcT3WZXPUnhebmFociwpMfmXguf9IIVPDkJrDPigv_pqD5SMKlg5T8Q6HyXYzyHNPk_4VAsqQ2bCPfnHA2137p_IIv6_IPaQlOv08OvfrfncvXbPtuQOyN0W2zc2PAMV8L_WpvzsYgr0jHANUe8kHXAq9_JooPoS00S53bTXFtmEzF-fZReWbBwk_sZuZAXHW9oUisbh2PihPc60Mi3ozrl3TW1yVy2VcuAT0Z1VxY5ZEcynwIn94jwlF8g0H-lSHLbgEAXicOc_-zJd5Q95wBiSNhR6n7b0F_hoj4Z-Ab5iNd-wqyUJ7X74yde571lKkvz5RBTDDNdNk4fa4N1Ymcj4zQ4lCOrXK_qBulMfll5pH3JNGvQTJN1lrRLScXmOdUkNOdmr4JY1Ho4Su7_FhJ9yGqr9MFa0w8hyRPoXQrFi3LvhxgBK7dvhCsGjpS0_MWAmJM4_8IB6MximHJD8QM3GinM</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Inp5V09OSy10NTZuYVhCbUVoaXVCbk9CeTJEQ0c5T1A5NDZlako4ZWVuS3MiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI2MjQ5LCJuYmYiOjE3NDQ2MjYyNDksImV4cCI6MTc0NDYzMDI0NywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWURzcWRGRW5lV1JOY0FCVC9OUmthVE9OVTIvQlRObHNvSTR1TXdlUXVoS000WkpzdUY0VElFdzlKeDZ6dkNxTDlyaklKZmV6Z25ndWkzZ1k5d2pLcW4yZVdOSlN1QnBCTGxoZkt0aU15WjUwdjBBckFsbGh1NCtCalpUcnlLWGQiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ0Rzc2OU5PVXBFbUhkLXpRMUdZcUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkQyNlIxY085a2RlQW1WMmdHT1hOT1ZXcy1SYUcxQXdfNWg4UXc4eHZZZEEiLCJ4bXNfaWRyZWwiOiIxIDI2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.ZtEIfP267387B8Khs2WfHa7yTMC08xPBpEOvblHnmjZ5GXRghn_OOP8tgLnbrWhNSs9AJ1Pg08SudY7cO7At8X61nHrdNKa2BxDO4KVZ-FB9mx5_DXBmXdKtGd5iyALyjjvYu8N0ql0_NELUjwCQTaeG9SfOBmmsVvDhHDMWcAh5dHEq_EWfSPJ3SWyOjgKR1lY4Yb9VsDJlMLHrQR4WHZLuQzW5N3Y9YN8yzpFEWmIflMW6Y6mOeRdgjgCjps6NZvNZwJGHnKlqTIiBcXx-mo7MlYzi24offWf1WO2DzEpgxdAenk0qJdhcx2M7izi7YaR2Fzfr6LJm5uiNtcZR3g</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Il9JWDd2RnlkY20tOFBkTXpRRk5rZFNBak9XYlNHdDdOdW5Fb2FWWTRIVEEiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI3MzU5LCJuYmYiOjE3NDQ2MjczNTksImV4cCI6MTc0NDYzMjQwNSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSE5qNHRyYThoVEhpMHhIRklQQTJJUUJoTWhaemtDRnhtOEl6blc3L1NHT0RXZVBjdHlxUkV3cVFJQ1IwbThkYy9BWWlQcjdxT0I3bDBPd0Uram9URk11akJHUzJpZVVMRWNGRy9rWmVlZSs4TkMvSGp2OHZNWkROS1FxdXhpV2IiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJHZS0zMlZwLWhFbU1EbnpYaG5xN0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjBlQlZQeTRrQVZydVRaUUI5RUdPQ3dLWE9qMFNpOEhqTnBiY3FmU25PQmsiLCJ4bXNfaWRyZWwiOiIxIDI0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.EZXEuRstC0MS977ajLR92AkJqJiewQL5geXVG7BnM-DHFDlO2PUWkA0ktQShbRSHWyjOMFRa6vLt9QTqoqElYCGGe8HPWZtU2qfDrX9dTFLnvqr-01krU4NPlasO_HVyGXslbqvaZwAZGzdaHwiJZ5allzlaxnGInp90sWheuhlepTJHAQQNiyJdP7qQh-bIyEP3S51NRnYzT8MjqzU-XWML-aX_XDtGoJDa9nKJpxxrf5rEMePBBtO0aPjt7r8SzT61X_sNi5j47KKJC-n4FSr6eboKXSlrgkei_WTZEMJfM35hxqGfrjqenxeQkmg1VdFOx8U1D8qTHQj1YckpkQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9yVYf6_CCL2shExVnXThGSi3k8Cg1ub2oik7KZtS1MxquyVOYSaB0IWLQ0t2yU2l8HCXxE-t_hzvimhpYakGGrKfLAhvXd28TGiQeIeSKpWUVkV7bsXy4wXeRTbgLhtu6JdWaQA10hORAm4o_JQiGZHzmWDPaoyxf4GWrUO5j3DlPO4HhW13jitxip52rBI1kTOrNOEjEjtMVbc1p63xcT25KFeVQXDWiTX6ZDPxBYbM7SRAmsm77_I9jTNZZ-7HCZQ0g0boJ-Ohp5RkIc44Hk2_h6Hz9Z9iF3iSUTxn5d_Wlbzxm1GovV9Hs2MxDa-GH2fp5GoRMf5OT8InoEkHqTetoq7d3Y6ziLwZsVSdmFblDirCik219UVP1Md5BuCGQgQcT3WZXPUnhebmFociwpMfmXguf9IIVPDkJrDPigv_pqD5SMKlg5T8Q6HyXYzyHNPk_4VAsqQ2bCPfnHA2137p_IIv6_IPaQlOv08OvfrfncvXbPtuQOyN0W2zc2PAMV8L_WpvzsYgr0jHANUe8kHXAq9_JooPoS00S53bTXFtmEzF-fZReWbBwk_sZuZAXHW9oUisbh2PihPc60Mi3ozrl3TW1yVy2VcuAT0Z1VxY5ZEcynwIn94jwlF8g0H-lSHLbgEAXicOc_-zJd5Q95wBiSNhR6n7b0F_hoj4Z-Ab5iNd-wqyUJ7X74yde571lKkvz5RBTDDNdNk4fa4N1Ymcj4zQ4lCOrXK_qBulMfll5pH3JNGvQTJN1lrRLScXmOdUkNOdmr4JY1Ho4Su7_FhJ9yGqr9MFa0w8hyRPoXQrFi3LvhxgBK7dvhCsGjpS0_MWAmJM4_8IB6MximHJD8QM3GinM</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8g5YMVhTxNBua45jlRM7U65gdVTKDSSdWhXgsVALM79Mrp-U8h6_swiD1m1G8suvSoqyBxTE-SYe4qwW3H-FsFpOxVpfCiJdXhflGzs7jOKaU9J3bNIsEwt9drDeQEUuAt1UrgmkuVA-62zEmzTAHbsPa-xn3HN48KjHO84OrlTRBnFonkSVNQuV6YfNZMztbqeN_4VpgLbLMPUn1fCGOR4ahp2QCEYV4wwhZDY-Zeytuok3Pj5xXY8xD2QWrZEM6vOiRhcOXHfbxFl7mkB3-0wEgXQfQ5B0EuFOyqo2yRSzXBEOFb3ybNc3NrfoLM882BTPaFrnRv2A93jftXzC1eg45gQfs3CvlASGhOOyJ0HfT5nDRuI4_R4prIkv0vLhNXkgYp6kNt9MFF4B4OMrvKMwl8T5bXKWx66ujFwKXQnn2jpEtbHxPgOV1B5GT1opG-5TyTDD1xc07PajeMynTb9Qnm4EDslbYKw3X7XnQpqqq5gLDZllpr-yFts7DKqPB7qQHHbB0u0z24zfPWETJM6mBhN0Aw0B7hKBGS_xAZ9uYVKy3fu_58mfb_dRdRY9wLWKqEwSkjftfniqWOQXNSraQPws1d2Bqj1G-tyWcIR66EzfpxmN2IDMrpdxULfZtrGpKFYT1tvae7EYmCtGWFlZGl45jwd4HiTz6-FbBd5hXOql70TNkY0YlbLJxVmBPgs8FqijwEYQviCSYefVP5xd8nHLia0P72Vj3QLPCay3RBIF1s3U-IJubs4WIzlQ-GrsJlcNxJyiBamv_xKJ1_njSQxYXW-82AggR0JuwulV8BIsNxGLvS6Cklk3qhVv4R16WsrtoESu8d2TLVwqVgMjcMqyM</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Il9JWDd2RnlkY20tOFBkTXpRRk5rZFNBak9XYlNHdDdOdW5Fb2FWWTRIVEEiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI3MzU5LCJuYmYiOjE3NDQ2MjczNTksImV4cCI6MTc0NDYzMjQwNSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSE5qNHRyYThoVEhpMHhIRklQQTJJUUJoTWhaemtDRnhtOEl6blc3L1NHT0RXZVBjdHlxUkV3cVFJQ1IwbThkYy9BWWlQcjdxT0I3bDBPd0Uram9URk11akJHUzJpZVVMRWNGRy9rWmVlZSs4TkMvSGp2OHZNWkROS1FxdXhpV2IiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJHZS0zMlZwLWhFbU1EbnpYaG5xN0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjBlQlZQeTRrQVZydVRaUUI5RUdPQ3dLWE9qMFNpOEhqTnBiY3FmU25PQmsiLCJ4bXNfaWRyZWwiOiIxIDI0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.EZXEuRstC0MS977ajLR92AkJqJiewQL5geXVG7BnM-DHFDlO2PUWkA0ktQShbRSHWyjOMFRa6vLt9QTqoqElYCGGe8HPWZtU2qfDrX9dTFLnvqr-01krU4NPlasO_HVyGXslbqvaZwAZGzdaHwiJZ5allzlaxnGInp90sWheuhlepTJHAQQNiyJdP7qQh-bIyEP3S51NRnYzT8MjqzU-XWML-aX_XDtGoJDa9nKJpxxrf5rEMePBBtO0aPjt7r8SzT61X_sNi5j47KKJC-n4FSr6eboKXSlrgkei_WTZEMJfM35hxqGfrjqenxeQkmg1VdFOx8U1D8qTHQj1YckpkQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlY1cmtGLU8xTFZGbmdXeFJabV9LOXAtRENWLTdLcV9HVUxCQ2t1TS1sZXMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI4MDk4LCJuYmYiOjE3NDQ2MjgwOTgsImV4cCI6MTc0NDYzMzQ1NywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWUxRM0Z1ZFk5Y2FaV24zc2gzSEw1U2hBU2g1cWNpWmUxR3BySExoZjA4UVlUM3I4bnhPQmR4OVNkaGdPVGNlRldwRVZmMWpMczZEMytjTmVXZU51NW9lNG5EMURtTkhtbjh3emtjVUJmd0Joa0NvRjcxWWZMV2xibFVtU0gxTWkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJiVFFRX3ZHUFBVdWFFRlRVRGJkQ0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjE0SGVwRDhpc1QtVFVXX0thdUJBTFhMTUR3R0xyTGVJa2hGTXJIR0FLR00iLCJ4bXNfaWRyZWwiOiIxNiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Tv3UsvvIzFur_08z9kkDwAsVxCm_fYDGCeXzHSlWoRdEYS1b0X-1ekfyTvuGHfRIe5FXnAWkCoTOFQctPITDwk4cDcx1OGDnw8AfmXYudNBkgpq0W3md2uhW6x9FJWk1_lsnk4uoDnu6cWihGBLUjHUsJpqO4_vehTlMwjfx3lBaNJ6pCoi0OQQCnrwrZp69zjgjkhrvV3J4cBq2poOawP_iENVVE6cjIwbxRtj3aaLe6lSoTxZF2Nfc9-XuW0M5_z2ae9_0T27tEHVXm_5f6K63CCNIW6J4tlotrkBCl6foC7mDGxk8aDCetE3gPiiGORtg9kn_2AJdTn34lXN6CQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8g5YMVhTxNBua45jlRM7U65gdVTKDSSdWhXgsVALM79Mrp-U8h6_swiD1m1G8suvSoqyBxTE-SYe4qwW3H-FsFpOxVpfCiJdXhflGzs7jOKaU9J3bNIsEwt9drDeQEUuAt1UrgmkuVA-62zEmzTAHbsPa-xn3HN48KjHO84OrlTRBnFonkSVNQuV6YfNZMztbqeN_4VpgLbLMPUn1fCGOR4ahp2QCEYV4wwhZDY-Zeytuok3Pj5xXY8xD2QWrZEM6vOiRhcOXHfbxFl7mkB3-0wEgXQfQ5B0EuFOyqo2yRSzXBEOFb3ybNc3NrfoLM882BTPaFrnRv2A93jftXzC1eg45gQfs3CvlASGhOOyJ0HfT5nDRuI4_R4prIkv0vLhNXkgYp6kNt9MFF4B4OMrvKMwl8T5bXKWx66ujFwKXQnn2jpEtbHxPgOV1B5GT1opG-5TyTDD1xc07PajeMynTb9Qnm4EDslbYKw3X7XnQpqqq5gLDZllpr-yFts7DKqPB7qQHHbB0u0z24zfPWETJM6mBhN0Aw0B7hKBGS_xAZ9uYVKy3fu_58mfb_dRdRY9wLWKqEwSkjftfniqWOQXNSraQPws1d2Bqj1G-tyWcIR66EzfpxmN2IDMrpdxULfZtrGpKFYT1tvae7EYmCtGWFlZGl45jwd4HiTz6-FbBd5hXOql70TNkY0YlbLJxVmBPgs8FqijwEYQviCSYefVP5xd8nHLia0P72Vj3QLPCay3RBIF1s3U-IJubs4WIzlQ-GrsJlcNxJyiBamv_xKJ1_njSQxYXW-82AggR0JuwulV8BIsNxGLvS6Cklk3qhVv4R16WsrtoESu8d2TLVwqVgMjcMqyM</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_7FCshFSehUbBvZh5k8uxplYBhuFsWW7Wt5WyViy2qepSwQEuUS6HiSJL_BAbV_Hj_2n_ahypX6fKmRj39pmC10LEKy8Q74SjlmKzphPJ2WsZOM4SjK_YqzX130whRr1UiQGp5cy7t0UM7MfRUVGTiTMdtvcToexVtFWUG1fES_E5XTNDiVdQPEMEhlR07ocaX9T_ErfhK_TBzlMKS0CY_VYnQAmRlNohaxLL3f1l--7_ywO-J7p5XDetgKSXfnZhC_hoLypAFmzfoz7VRBkG6q0BmllgIDwAKCVYb9STjsP2lfxDYtJOrjhwLowz6htVYRDQRZG1QLzJqRGHhuGCReKtc1xQ_sM-Qqbo8XLN2_dgbqkhItbp0t8JJaFvIdmsON7xa7Z_4edOEopVNcO_R_Zaq8za21sLas-VC0zS8WM9193n5FGomcYbfK--snuv377DS0xOlWv_N8C7tkqDZjli0W0D_bTdmADROECdTfuOjLRiCCVWKzx_jhEDz3sfrXzonz-MbIP2fRV_TZeeQNlhjntx31SKyfqwe4bXQjwtIFruexZjgsk75DTK1mJITEPArw2_b1HmAz1-eB0XspqgCd0Tm0pWH5Q7eArmMlJDnxeA21ZrVjT7NUFozDfHdGDMrEfoTCCZoTZ3ubUZbjYcIaCZok1QbKyxcepw1-d9mb1yUUoF6Gqy7do3ukvTDmXTJWItGefC5Vf3v4Rpzn5crplMMmAVBE8_S6V0awwXEi7ip96vp2wh-zqaBTg_wVBlzbvZ9vZuDtfK4-JzZlYx9sUU9nOwktyTfgI4KEbx0LJJO7cBq0hBhotD-PvfNC9m0f9E-AAZ3LpAy1d5FhMIF9UA</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IlY1cmtGLU8xTFZGbmdXeFJabV9LOXAtRENWLTdLcV9HVUxCQ2t1TS1sZXMiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI4MDk4LCJuYmYiOjE3NDQ2MjgwOTgsImV4cCI6MTc0NDYzMzQ1NywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWUxRM0Z1ZFk5Y2FaV24zc2gzSEw1U2hBU2g1cWNpWmUxR3BySExoZjA4UVlUM3I4bnhPQmR4OVNkaGdPVGNlRldwRVZmMWpMczZEMytjTmVXZU51NW9lNG5EMURtTkhtbjh3emtjVUJmd0Joa0NvRjcxWWZMV2xibFVtU0gxTWkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJiVFFRX3ZHUFBVdWFFRlRVRGJkQ0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjE0SGVwRDhpc1QtVFVXX0thdUJBTFhMTUR3R0xyTGVJa2hGTXJIR0FLR00iLCJ4bXNfaWRyZWwiOiIxNiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Tv3UsvvIzFur_08z9kkDwAsVxCm_fYDGCeXzHSlWoRdEYS1b0X-1ekfyTvuGHfRIe5FXnAWkCoTOFQctPITDwk4cDcx1OGDnw8AfmXYudNBkgpq0W3md2uhW6x9FJWk1_lsnk4uoDnu6cWihGBLUjHUsJpqO4_vehTlMwjfx3lBaNJ6pCoi0OQQCnrwrZp69zjgjkhrvV3J4cBq2poOawP_iENVVE6cjIwbxRtj3aaLe6lSoTxZF2Nfc9-XuW0M5_z2ae9_0T27tEHVXm_5f6K63CCNIW6J4tlotrkBCl6foC7mDGxk8aDCetE3gPiiGORtg9kn_2AJdTn34lXN6CQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkplMTc5c2tqaUM0a19YYmFjUnNtZk9UWXkyRGFYUlJVU0p3bHVsY3dJaDAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI5NDQ4LCJuYmYiOjE3NDQ2Mjk0NDgsImV4cCI6MTc0NDYzMzg1MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBdnhVMU9YN0cxRU5McE9qb05iRXBCR09VazE3NkRveVJaM0J0QmVlQTh5SFp2Y1hmblpRd2lxZTg5NVl2OXQ4ZGxGbDkzbEUvNEwxb283aE1YR0hQVkVSS0hWamhyNlVicU1EN1owTlJYSitGKzFoTjhXT3htekY4RHBQTGV3Sk8iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJyLXNQd3h2OTFVLVFYekRwVnZZMkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Imc1d3BmWG81M2dha1VtYnhsWGtQSnR3Zjc2SVgxOEE1bzJkcEhLQlh6UVEiLCJ4bXNfaWRyZWwiOiIxOCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.BuqicQB-xSlXK_hj8PloWSHleuEQ-h1A8zrto3ebUNhNkqpKl_Cz2ChycHVd7aWsT1d5XzoVP0QeZvqD0YUV8VvEwDMjroImsQJ287XyBYu9z1_DgHHT132N4zgL6b7qKrtp4nnEJb0WcvvB0A72mMYlQpEFEbnPPfoFK0fK4IdmyCVxLNgVu4aEsQctbxPzEjisN7O1rlzAgOrV-eUWe9Mqd5z_rcyc0GJANsBn9nI1jmh4SZ-gvSC64q-qQKd0dq2mALCQ6iO5LkHLon9pWWMa9myh-5-COXU1iuye0qhcMJ22yR2U5eJxe5QTFDvW3PjH1iGnF0f6NOp2jOA0bw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_7FCshFSehUbBvZh5k8uxplYBhuFsWW7Wt5WyViy2qepSwQEuUS6HiSJL_BAbV_Hj_2n_ahypX6fKmRj39pmC10LEKy8Q74SjlmKzphPJ2WsZOM4SjK_YqzX130whRr1UiQGp5cy7t0UM7MfRUVGTiTMdtvcToexVtFWUG1fES_E5XTNDiVdQPEMEhlR07ocaX9T_ErfhK_TBzlMKS0CY_VYnQAmRlNohaxLL3f1l--7_ywO-J7p5XDetgKSXfnZhC_hoLypAFmzfoz7VRBkG6q0BmllgIDwAKCVYb9STjsP2lfxDYtJOrjhwLowz6htVYRDQRZG1QLzJqRGHhuGCReKtc1xQ_sM-Qqbo8XLN2_dgbqkhItbp0t8JJaFvIdmsON7xa7Z_4edOEopVNcO_R_Zaq8za21sLas-VC0zS8WM9193n5FGomcYbfK--snuv377DS0xOlWv_N8C7tkqDZjli0W0D_bTdmADROECdTfuOjLRiCCVWKzx_jhEDz3sfrXzonz-MbIP2fRV_TZeeQNlhjntx31SKyfqwe4bXQjwtIFruexZjgsk75DTK1mJITEPArw2_b1HmAz1-eB0XspqgCd0Tm0pWH5Q7eArmMlJDnxeA21ZrVjT7NUFozDfHdGDMrEfoTCCZoTZ3ubUZbjYcIaCZok1QbKyxcepw1-d9mb1yUUoF6Gqy7do3ukvTDmXTJWItGefC5Vf3v4Rpzn5crplMMmAVBE8_S6V0awwXEi7ip96vp2wh-zqaBTg_wVBlzbvZ9vZuDtfK4-JzZlYx9sUU9nOwktyTfgI4KEbx0LJJO7cBq0hBhotD-PvfNC9m0f9E-AAZ3LpAy1d5FhMIF9UA</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-Frg0o_J1Wk9lGD-7DRz6FhWgXoNmlufNCvZ0qT6UJO5ggYAkVjSdNqKVc09PDrSZq4LX7IruM-73Ywhd2HTkFFKUb5bf1ootc_VbI9AHa5YWRZQeBnQK4juegwlX3CxEItrudWOII-56sV64I_1fs7ENNkAE8qfgGe_d0FBgmldKAUOdxncJ4EMVKGh1yy7Kcl2fuZ7YyBnI2MBtwsFPYftZbpgTPgB_bj1jIqddOoO3JCRhQWnLHnEe3ZRyqciiaAQ0nMmrr31BP6uaM-mEQc6MNQjwydt7L-EcfJQhDXiQVLlo4HW6ysCZ55gyKeFOmaamNI62-zVfUMjrPxCJCwkx3JlXZk123HjRT1yUFpJf7GhZxrSTtUyGcrLuoFFq0TIiHOJca-1bITTcCvxcLgcHsvWyw8dohhNf6x1r-4BXR4d7rdw4NF1ELitnL-7or8qiv4Lt3oaykOY_fZQ2eXVGTD8MYMEgtgWJ32vAn-DxsjMBXpkZmowGaDFkF72JF0wUJYvVEOhnZ2w7xfdFgs2ST-MKwZHkhVJ8HeGzbmjqmuRkkNFYs7zF6WhSNUQ84SmPkSAb6C5mqIehp1RLdKh5ZPBNxsf04cTyUgozHZkg-CcofoaqwJrc8VxyBhe2nqk4XQiBRgtNlsNnzjj6NKnhhhcnfoV7g_hVrTOl4JjUKl5gavngMgwhJF6yu2bt-qqEDTmD3IyaTtPLaJgtJmZ2y1Bz-OSNuazN38You8K8j8iDmMWss9TcFYMLsyaJCIHNQx9W4OZU1ok221VorpgrAf_TiJLY86ew15s4rfdBktgj7CalmYgypkLrnZj7-rpj4DwCcCyZjtXiWbYfx4cXAlys</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkplMTc5c2tqaUM0a19YYmFjUnNtZk9UWXkyRGFYUlJVU0p3bHVsY3dJaDAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjI5NDQ4LCJuYmYiOjE3NDQ2Mjk0NDgsImV4cCI6MTc0NDYzMzg1MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBdnhVMU9YN0cxRU5McE9qb05iRXBCR09VazE3NkRveVJaM0J0QmVlQTh5SFp2Y1hmblpRd2lxZTg5NVl2OXQ4ZGxGbDkzbEUvNEwxb283aE1YR0hQVkVSS0hWamhyNlVicU1EN1owTlJYSitGKzFoTjhXT3htekY4RHBQTGV3Sk8iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJyLXNQd3h2OTFVLVFYekRwVnZZMkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Imc1d3BmWG81M2dha1VtYnhsWGtQSnR3Zjc2SVgxOEE1bzJkcEhLQlh6UVEiLCJ4bXNfaWRyZWwiOiIxOCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.BuqicQB-xSlXK_hj8PloWSHleuEQ-h1A8zrto3ebUNhNkqpKl_Cz2ChycHVd7aWsT1d5XzoVP0QeZvqD0YUV8VvEwDMjroImsQJ287XyBYu9z1_DgHHT132N4zgL6b7qKrtp4nnEJb0WcvvB0A72mMYlQpEFEbnPPfoFK0fK4IdmyCVxLNgVu4aEsQctbxPzEjisN7O1rlzAgOrV-eUWe9Mqd5z_rcyc0GJANsBn9nI1jmh4SZ-gvSC64q-qQKd0dq2mALCQ6iO5LkHLon9pWWMa9myh-5-COXU1iuye0qhcMJ22yR2U5eJxe5QTFDvW3PjH1iGnF0f6NOp2jOA0bw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InlRd21lN3R2b1ZmVTJOZWtFUjJwYXlXQWtZQXlfdUdETUYyNHVuTmxqUTQiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjMwMjgyLCJuYmYiOjE3NDQ2MzAyODIsImV4cCI6MTc0NDYzNTY4NiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRWJtSEo1R01uYmpuSW9kdzNaZy9HQzB2a2c2N05uUXdud1o5MDI0VURRTXROOElJYzZzZUw5bkU2OVBTZitWRjZ2aXdTU0xLTDhKSlk3aXRHYVBpbWFXd3FQODZsYlNVckZncW5jOSt1L0xLYmllS1JOYVdHSnE3YlQ5bGxibEYiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiI5NndPN0hwZHVFT0hsRnVGZHpVc0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlZ6dWFhekxjcDczbGQ1a0hkQ0dzaGQ3REpIdDlIOTR4Mk1lRzJraTFVLU0iLCJ4bXNfaWRyZWwiOiIxIDE4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Df63igBjcC7dWJDhUoqNfbY4kTTFe2t4e7UL5Af1dv9267NER0oGo0acXO5oRUCzLjKZMdgGuwdGQTkjSKJPDX2jsVY5eJytAT5yT1zOwth6zdfCRnYExF7AeTygdVVn0-kvK4ruLlBSG-NrUMaUaWoC3TWqH8I5nq604PwKRW-BJyXIQlRiMh1t5OmgNU48IdMGD4EjjtK5w0u1D9TgqUj0c32d0SNIaG6GHuhEax_xP9HBFzHbdRmkC-iKONgtC1_-GWoQyab-HzIXWLDWFr4XZjrp9T57uz-tKCqLJh8J91u9daBnuNNBUeethyxYus9HTMDQjLIBY5l6lM_Zig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-Frg0o_J1Wk9lGD-7DRz6FhWgXoNmlufNCvZ0qT6UJO5ggYAkVjSdNqKVc09PDrSZq4LX7IruM-73Ywhd2HTkFFKUb5bf1ootc_VbI9AHa5YWRZQeBnQK4juegwlX3CxEItrudWOII-56sV64I_1fs7ENNkAE8qfgGe_d0FBgmldKAUOdxncJ4EMVKGh1yy7Kcl2fuZ7YyBnI2MBtwsFPYftZbpgTPgB_bj1jIqddOoO3JCRhQWnLHnEe3ZRyqciiaAQ0nMmrr31BP6uaM-mEQc6MNQjwydt7L-EcfJQhDXiQVLlo4HW6ysCZ55gyKeFOmaamNI62-zVfUMjrPxCJCwkx3JlXZk123HjRT1yUFpJf7GhZxrSTtUyGcrLuoFFq0TIiHOJca-1bITTcCvxcLgcHsvWyw8dohhNf6x1r-4BXR4d7rdw4NF1ELitnL-7or8qiv4Lt3oaykOY_fZQ2eXVGTD8MYMEgtgWJ32vAn-DxsjMBXpkZmowGaDFkF72JF0wUJYvVEOhnZ2w7xfdFgs2ST-MKwZHkhVJ8HeGzbmjqmuRkkNFYs7zF6WhSNUQ84SmPkSAb6C5mqIehp1RLdKh5ZPBNxsf04cTyUgozHZkg-CcofoaqwJrc8VxyBhe2nqk4XQiBRgtNlsNnzjj6NKnhhhcnfoV7g_hVrTOl4JjUKl5gavngMgwhJF6yu2bt-qqEDTmD3IyaTtPLaJgtJmZ2y1Bz-OSNuazN38You8K8j8iDmMWss9TcFYMLsyaJCIHNQx9W4OZU1ok221VorpgrAf_TiJLY86ew15s4rfdBktgj7CalmYgypkLrnZj7-rpj4DwCcCyZjtXiWbYfx4cXAlys</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_tn6ADNxJ4CUT8uj1JPgSFUHInni4sr1ttv75Oj11WGzwOZcj4VDdagesGY04EIueWYEAJckJzV1EvFmxi7-ViZ-wbXaZ5kKrjduA5Hl05B21lDDlGPWr1gOpuzHkdSVNIK9DRElMYFCjEGNa8cdpOPknYNJUqZIS6l-DDiU1Nb6YuGtoBCKFD41pNEHk6wbvhnnyfTGJOXFOKqBnHKamRWyEfVg4J8-TenCkbE812QiW8C4bBNl3uhcaxYmA1os_5ApaY3eQgU_XTogmqVjUfLGSOhZLsNFLm5YoaW7eO9xaczl1EVR3U6VSJ2q8o36bca9FzVbIxSv-jYP0q7Dur1Tl_bLJlLBdKcPR5KFZzlaQBxAuxr57RZ1Vdqa-2PuRReFmA3QHsDDvQx4BmCN38uV6A0PYJMc7gJ2abuJXrgT3ucOun1-okXiqktzNnhPOJ49O7O71EDF1j2EqeZf4uwWQfv7ZpT5CS2qpUyPEeseWBeh4zWwVT90Ai1USnDntIgzvKdrKeDonwoYIcmSiOdllqA0L-hONINobIJUTpJOW86dFAZnJ-EogkvkQZGccvcRxBV6Fh6IDe9fgbyaEEQxKQ8giPQgpQuPVCSxTbqAzCCBns7BjIyps-hb5Jv2nbKU1KY-6hdAnPHKNjjPXXMckzDkRyRXOXNGurM4VdLK3yObwQq_gymCGm9PSJdpPb0mnTvvl9K295UO9992K7xJViqLHIG0wvPbN6mVFb1_-HoSlx4mc8h9CfQDkItwVauhV9BuiJO2AgxF13GrbPGNMtj0VWS3vwjHXRNWABTXZOVld3BW-7HU2BIdB250o_5vjqSQ1OGH5ZB3mv0dVgUbHgIvQ</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InlRd21lN3R2b1ZmVTJOZWtFUjJwYXlXQWtZQXlfdUdETUYyNHVuTmxqUTQiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjMwMjgyLCJuYmYiOjE3NDQ2MzAyODIsImV4cCI6MTc0NDYzNTY4NiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRWJtSEo1R01uYmpuSW9kdzNaZy9HQzB2a2c2N05uUXdud1o5MDI0VURRTXROOElJYzZzZUw5bkU2OVBTZitWRjZ2aXdTU0xLTDhKSlk3aXRHYVBpbWFXd3FQODZsYlNVckZncW5jOSt1L0xLYmllS1JOYVdHSnE3YlQ5bGxibEYiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiI5NndPN0hwZHVFT0hsRnVGZHpVc0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlZ6dWFhekxjcDczbGQ1a0hkQ0dzaGQ3REpIdDlIOTR4Mk1lRzJraTFVLU0iLCJ4bXNfaWRyZWwiOiIxIDE4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Df63igBjcC7dWJDhUoqNfbY4kTTFe2t4e7UL5Af1dv9267NER0oGo0acXO5oRUCzLjKZMdgGuwdGQTkjSKJPDX2jsVY5eJytAT5yT1zOwth6zdfCRnYExF7AeTygdVVn0-kvK4ruLlBSG-NrUMaUaWoC3TWqH8I5nq604PwKRW-BJyXIQlRiMh1t5OmgNU48IdMGD4EjjtK5w0u1D9TgqUj0c32d0SNIaG6GHuhEax_xP9HBFzHbdRmkC-iKONgtC1_-GWoQyab-HzIXWLDWFr4XZjrp9T57uz-tKCqLJh8J91u9daBnuNNBUeethyxYus9HTMDQjLIBY5l6lM_Zig</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ijd4NEJSSWFMMnItYTFTcWZoUHdYbHRnZVAzQVJMTnpacjVQbllBb0pnZUUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjMwOTk2LCJuYmYiOjE3NDQ2MzA5OTYsImV4cCI6MTc0NDYzNTg1MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSndvd0hNd1BCbDZySk5yYTJITmZyclRVSjNrVGFrWlM4NEJJc01LUjRwN3N1UGYxV2JBdHRPaUg3RHZRYW5jMjlNcnRuMUg1R0Y4Nll5V2RKZXVMcnl1OTR3bXg3eHBETWxwanNtNmpuMzVSUHRJcGl6Kzh5Ymo4UTU3clRKNCsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJfRVF3NTR4MlAwQ3pyT3ZUcHE0d0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkdjRUplMVZub2NGVGtENk5aS1FoUjRMUV9TWUhPaUxsaWxDeUQ5S3Fac1kiLCJ4bXNfaWRyZWwiOiIxIDE0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.T-OXsju4pRv1fPiBt4ig8YUYKcDK7-TxoihbxQjFpAxwQ2U5gsUul8n9AMMlXo-EusBznJ6pmf89tDqaGecQtMbRxpPZaIplQUTxzfXCNABE2fuLovojEUciYUT9gPc_MmPws1tzVmFmdsfoZUsdc_n1TJpginmU4AWDH7MRbT8Qe2D4OVDSL-asYPvJTuAXQExCNONnrTZkkUDzkH-ZvaH8LgtOkzPUab7S5pgC5lwhke5Fl-xmIhpuM1bhEhECayjUhOOhjTm17brGz3uSK26ljIMRTrfpXD0qrkBYWgI0woMQab0UHLFUiLVye8dPXHQXYwgYjz73PSnwDBDgzw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_tn6ADNxJ4CUT8uj1JPgSFUHInni4sr1ttv75Oj11WGzwOZcj4VDdagesGY04EIueWYEAJckJzV1EvFmxi7-ViZ-wbXaZ5kKrjduA5Hl05B21lDDlGPWr1gOpuzHkdSVNIK9DRElMYFCjEGNa8cdpOPknYNJUqZIS6l-DDiU1Nb6YuGtoBCKFD41pNEHk6wbvhnnyfTGJOXFOKqBnHKamRWyEfVg4J8-TenCkbE812QiW8C4bBNl3uhcaxYmA1os_5ApaY3eQgU_XTogmqVjUfLGSOhZLsNFLm5YoaW7eO9xaczl1EVR3U6VSJ2q8o36bca9FzVbIxSv-jYP0q7Dur1Tl_bLJlLBdKcPR5KFZzlaQBxAuxr57RZ1Vdqa-2PuRReFmA3QHsDDvQx4BmCN38uV6A0PYJMc7gJ2abuJXrgT3ucOun1-okXiqktzNnhPOJ49O7O71EDF1j2EqeZf4uwWQfv7ZpT5CS2qpUyPEeseWBeh4zWwVT90Ai1USnDntIgzvKdrKeDonwoYIcmSiOdllqA0L-hONINobIJUTpJOW86dFAZnJ-EogkvkQZGccvcRxBV6Fh6IDe9fgbyaEEQxKQ8giPQgpQuPVCSxTbqAzCCBns7BjIyps-hb5Jv2nbKU1KY-6hdAnPHKNjjPXXMckzDkRyRXOXNGurM4VdLK3yObwQq_gymCGm9PSJdpPb0mnTvvl9K295UO9992K7xJViqLHIG0wvPbN6mVFb1_-HoSlx4mc8h9CfQDkItwVauhV9BuiJO2AgxF13GrbPGNMtj0VWS3vwjHXRNWABTXZOVld3BW-7HU2BIdB250o_5vjqSQ1OGH5ZB3mv0dVgUbHgIvQ</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_S8dVWTWZn2M6IKqeO-PYSLyAUZSyXVKOSmhssqI2WAq9xPolHnlGgSiQobklVKARu43ovhTVnKgjowoq4hF5fc206GrMm8M1kbV1pEPb8hnpkBVEqJTxtLV94mS6p8pVSDoBjcUkJqqAQBtYdpO4218FNauYCiyUNMZyZjn0JvJ5c7NJFHMcx0Xf8tknC14PC69PAhuEwZBjspksTbt8x6m5mT_SKfirrHrTuysqRA7rS_Y5MY5rw59L_9kFoDJVLPc0i2oyiLwqDsfu_kkTSwPp925CxM2dn8jm1bDykYLckWV88_8j-_QYOkk7iR7K_zbZM7fLFYsOzU8TifRB3E_lsFFVNKt8ySldwMMl5CgoMAAqjomBalGjHLaGa28-0jcc535sAH4WvILm7v7xWC-8KH1t1IRBETRYNzmIPwaGgk0I1XtEm0yzMwMCnJZ06uMghzWE5sHJspS3tNKL-H_fPz72dvlTBVzGoEhH5DLA08gw0-negb9OAx5Sc1ZLjs177gdN7YgJtw2VQyaiw4srhakDdeROJAxRGGQa3beoU1IAJoUud5jUJzOMP0YTBGksdJu4rGpHGqy3oytZ5HOnrLsNEBL1ILBSzVcowxVTWbsNWBRwP_TBHun6d14LLJLhJwKmU1Rdtp663Z-iQ0hZYRDmHcgZPFvZST82wYbyOHZwASzcxwmDpKk8r4hKQ7RNYw-7Iagplu4jpLIWZbjkFmz8ZKrINLH7J2wBGDHhAOSli6I9mwZ47imUB-nD13pXnbUszMCXEQYdfyN6dpX1X0czpX8qvBCGmJLbPm0cdFqI3B_AhlEATD_H25yDphoVWh8k6n7VNZlqUn3DZJc5dShw</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ijd4NEJSSWFMMnItYTFTcWZoUHdYbHRnZVAzQVJMTnpacjVQbllBb0pnZUUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjMwOTk2LCJuYmYiOjE3NDQ2MzA5OTYsImV4cCI6MTc0NDYzNTg1MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSndvd0hNd1BCbDZySk5yYTJITmZyclRVSjNrVGFrWlM4NEJJc01LUjRwN3N1UGYxV2JBdHRPaUg3RHZRYW5jMjlNcnRuMUg1R0Y4Nll5V2RKZXVMcnl1OTR3bXg3eHBETWxwanNtNmpuMzVSUHRJcGl6Kzh5Ymo4UTU3clRKNCsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJfRVF3NTR4MlAwQ3pyT3ZUcHE0d0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IkdjRUplMVZub2NGVGtENk5aS1FoUjRMUV9TWUhPaUxsaWxDeUQ5S3Fac1kiLCJ4bXNfaWRyZWwiOiIxIDE0IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.T-OXsju4pRv1fPiBt4ig8YUYKcDK7-TxoihbxQjFpAxwQ2U5gsUul8n9AMMlXo-EusBznJ6pmf89tDqaGecQtMbRxpPZaIplQUTxzfXCNABE2fuLovojEUciYUT9gPc_MmPws1tzVmFmdsfoZUsdc_n1TJpginmU4AWDH7MRbT8Qe2D4OVDSL-asYPvJTuAXQExCNONnrTZkkUDzkH-ZvaH8LgtOkzPUab7S5pgC5lwhke5Fl-xmIhpuM1bhEhECayjUhOOhjTm17brGz3uSK26ljIMRTrfpXD0qrkBYWgI0woMQab0UHLFUiLVye8dPXHQXYwgYjz73PSnwDBDgzw</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InFfUXRfVW94TTVYTlFQVjlLeDlrZ1Jvd21PLUhWc0o3UXU5THYzdVFzR3MiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjMxNzM2LCJuYmYiOjE3NDQ2MzE3MzYsImV4cCI6MTc0NDYzNzQxMSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQVFMN2hjQWFMUS9aa1h3Z2NmSHZkUmxEUzkrbjB0bTFiRzZ1ZFhCd3VYWUh6b3NLRjJUbnIxWXVWTllKenBoQjJ2WEVKVzBCeFkyNm9BcTh3TXdOa2tQL2Jjc0hKdEFEdjQzbENId0tld2kvanZ1YUtpckZrbWM1V09UYVFnTlMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJpWGhlbFV2WVNrZUlyZXRqLUl1a0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InFPamMzS2ZRYUFhaGE5am01anEwcV8xSW9XQzM2c0FxR2RaQmtVZWFpYWsiLCJ4bXNfaWRyZWwiOiIxIDE2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.IIR7n3U-jReqoPD9GA0BvNtHYDGpQn2AQOIwmZkpSHLlvlgfWdWLtKQLxVwX-3KPPhKZSdvkaCuZfumaRDEQvmVIcMsADQ3Q8XhgOSII_Sm4oCpK1270eUaULKpHKY_sHXqjia5Thys05JJNaKNcSw4GDUBwjoceu27yoQ3UVMmJZcmM3AyS8V5Acu3FJfoooC5Q3H2B7A-UsV79nMYau8yR_fbOJWS-CcFqreYqXRIaF4siGqP11mdfEWmEVZPPHjeueRp1yNTRSk0Y7lWpU-S8lfWsVxArgu0hJPnd3Pypp6Ap4Ls0H0ijKowxazxw-mXgAz-fxUqLhauWFUr1ZQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_S8dVWTWZn2M6IKqeO-PYSLyAUZSyXVKOSmhssqI2WAq9xPolHnlGgSiQobklVKARu43ovhTVnKgjowoq4hF5fc206GrMm8M1kbV1pEPb8hnpkBVEqJTxtLV94mS6p8pVSDoBjcUkJqqAQBtYdpO4218FNauYCiyUNMZyZjn0JvJ5c7NJFHMcx0Xf8tknC14PC69PAhuEwZBjspksTbt8x6m5mT_SKfirrHrTuysqRA7rS_Y5MY5rw59L_9kFoDJVLPc0i2oyiLwqDsfu_kkTSwPp925CxM2dn8jm1bDykYLckWV88_8j-_QYOkk7iR7K_zbZM7fLFYsOzU8TifRB3E_lsFFVNKt8ySldwMMl5CgoMAAqjomBalGjHLaGa28-0jcc535sAH4WvILm7v7xWC-8KH1t1IRBETRYNzmIPwaGgk0I1XtEm0yzMwMCnJZ06uMghzWE5sHJspS3tNKL-H_fPz72dvlTBVzGoEhH5DLA08gw0-negb9OAx5Sc1ZLjs177gdN7YgJtw2VQyaiw4srhakDdeROJAxRGGQa3beoU1IAJoUud5jUJzOMP0YTBGksdJu4rGpHGqy3oytZ5HOnrLsNEBL1ILBSzVcowxVTWbsNWBRwP_TBHun6d14LLJLhJwKmU1Rdtp663Z-iQ0hZYRDmHcgZPFvZST82wYbyOHZwASzcxwmDpKk8r4hKQ7RNYw-7Iagplu4jpLIWZbjkFmz8ZKrINLH7J2wBGDHhAOSli6I9mwZ47imUB-nD13pXnbUszMCXEQYdfyN6dpX1X0czpX8qvBCGmJLbPm0cdFqI3B_AhlEATD_H25yDphoVWh8k6n7VNZlqUn3DZJc5dShw</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9vWwfOEXGxwhSkXfpN2XHdn2xl1Wdqulysy0_B4lOpA5JbsKqn38uCGHQe3XZgtFMXoi1x1LRMLF5r09mHXKqwwG5HGezrs0HgFihUTn-4bW2VVI5ljScgYIi1oqimstHGs_uEBwuNngWkOcKTmhlsfRL4_utOb0CAVpwMtUM9YlPuTC6WSNqvx453NQPkJBpgR-ynva1oyRqQlGOAJTv66eZXMnCTNrynISJ3_dR5GWlUQgqrbkiGPZu-wbVWTOBVdd-Snecoo1Lv3_K2jxVg7QZhocJFIAwV1ITe68NYVORRJNXn7pWrRTtPTuFPpYFIcvps5iiR04_DdyG4lmI0up0YFOurDGlhc5V4Z8dw3GQV2XKnJDWRB2baEH0MnYtSbN_2PsT44vuYqHJeLHp8NX3K02CIH4jVlypap0lNe0JaSZjf0lUOv6bRNftGKE9-nVgLscmMgYpvaMes79i90rjay15ggHGicZEwqivuswt7e7EolMVakxlSPwCKy6VhmXskVMON0o1S7-NiniKojQuCB_L-3kXb8wMmCxCW1JMVqw46G5av00nusYEauj5k8tK8MNBrJ1D7VEIfLi6uiYwWPfMyKp1wISzTcoHgmplhqRzIoD6QFyQ0syKuGMLaV0zKgAk7ttLrV1Cd17txJLOTVlsY8gG5Es_Ns8VVDNXAL8zENK2a9OD4G_y077KNLtWqYrIL_FVtWWRnP_7_fI1USwNCQkx-0kXxB6i8PYWZVz0umqvrs44J_TUzilynutp6Loroyd1iYrIBOXAVCQgrBCtvKIeL1m12Iar3THCsaWn6r_CTGbB2EJnjA9Z7_cL3e8KrP66G3JKx05aKjORE3UY</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InFfUXRfVW94TTVYTlFQVjlLeDlrZ1Jvd21PLUhWc0o3UXU5THYzdVFzR3MiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjMxNzM2LCJuYmYiOjE3NDQ2MzE3MzYsImV4cCI6MTc0NDYzNzQxMSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQVFMN2hjQWFMUS9aa1h3Z2NmSHZkUmxEUzkrbjB0bTFiRzZ1ZFhCd3VYWUh6b3NLRjJUbnIxWXVWTllKenBoQjJ2WEVKVzBCeFkyNm9BcTh3TXdOa2tQL2Jjc0hKdEFEdjQzbENId0tld2kvanZ1YUtpckZrbWM1V09UYVFnTlMiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJpWGhlbFV2WVNrZUlyZXRqLUl1a0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InFPamMzS2ZRYUFhaGE5am01anEwcV8xSW9XQzM2c0FxR2RaQmtVZWFpYWsiLCJ4bXNfaWRyZWwiOiIxIDE2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.IIR7n3U-jReqoPD9GA0BvNtHYDGpQn2AQOIwmZkpSHLlvlgfWdWLtKQLxVwX-3KPPhKZSdvkaCuZfumaRDEQvmVIcMsADQ3Q8XhgOSII_Sm4oCpK1270eUaULKpHKY_sHXqjia5Thys05JJNaKNcSw4GDUBwjoceu27yoQ3UVMmJZcmM3AyS8V5Acu3FJfoooC5Q3H2B7A-UsV79nMYau8yR_fbOJWS-CcFqreYqXRIaF4siGqP11mdfEWmEVZPPHjeueRp1yNTRSk0Y7lWpU-S8lfWsVxArgu0hJPnd3Pypp6Ap4Ls0H0ijKowxazxw-mXgAz-fxUqLhauWFUr1ZQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InVodFJlX1B0SXFnSzNOUmZRN2Ezd1p3anhMUFpUTTQ2eTA3b0NWRlR5cEUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM0OTE1LCJuYmYiOjE3NDQ2MzQ5MTUsImV4cCI6MTc0NDYzOTM1MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBOWJ1VUdIVk1WaUtkWGRKaU94TklEM1ozZCtLMmRHK0ZLVDRmZUZ3S3VyME43eUlBbXlSeXJxUnlyZ1F6RnhHa3lvempSRUdGaWMrbjhMNlRzU2hUVEtzWDBubDU0RHRVWUNCTWxIL2FFVk50aERlcEZFN0RPSUJ4WG5zWFAyRFEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJWZnRiUVNnMnhVS3djdU4tUHY4QkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Im14RUtZdGF2LWlFYzRlRy1WaGd1UE5RcDdqSXhheUxhVGYxWnl0VDN2M0kiLCJ4bXNfaWRyZWwiOiIxIDMyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.fYgNt4bXkRbA-s64NQQOOY_YsTHnM_P_cEdOVeCimYcSZhEmtpO0XgSCZcux3m8IyzrpSfpA9snKAG4R50thdx6mrTfWBNSm5DhODAfGj-29ZDIPVp1qwQzCUkAZNn3ZwdVnhXKISwg4lJ4pknof4CJTt5ia5zViMhs__GCeI-r2xyXic--WppiZYeWFj0PLEaPHb7rDJtH2zQ0_0mDpwy1lnSRR4q4r8TUHQu5kX0XtYsbX1-liGEPoacBuc5I-9GLjq7ufYpx2I7AE1AFZlvv2qhZy9ZE_31BQ_LNBqLwC7-ivYZGwEuXucuJUCWU31KJycivvE_rz4bX2L_iqew</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9vWwfOEXGxwhSkXfpN2XHdn2xl1Wdqulysy0_B4lOpA5JbsKqn38uCGHQe3XZgtFMXoi1x1LRMLF5r09mHXKqwwG5HGezrs0HgFihUTn-4bW2VVI5ljScgYIi1oqimstHGs_uEBwuNngWkOcKTmhlsfRL4_utOb0CAVpwMtUM9YlPuTC6WSNqvx453NQPkJBpgR-ynva1oyRqQlGOAJTv66eZXMnCTNrynISJ3_dR5GWlUQgqrbkiGPZu-wbVWTOBVdd-Snecoo1Lv3_K2jxVg7QZhocJFIAwV1ITe68NYVORRJNXn7pWrRTtPTuFPpYFIcvps5iiR04_DdyG4lmI0up0YFOurDGlhc5V4Z8dw3GQV2XKnJDWRB2baEH0MnYtSbN_2PsT44vuYqHJeLHp8NX3K02CIH4jVlypap0lNe0JaSZjf0lUOv6bRNftGKE9-nVgLscmMgYpvaMes79i90rjay15ggHGicZEwqivuswt7e7EolMVakxlSPwCKy6VhmXskVMON0o1S7-NiniKojQuCB_L-3kXb8wMmCxCW1JMVqw46G5av00nusYEauj5k8tK8MNBrJ1D7VEIfLi6uiYwWPfMyKp1wISzTcoHgmplhqRzIoD6QFyQ0syKuGMLaV0zKgAk7ttLrV1Cd17txJLOTVlsY8gG5Es_Ns8VVDNXAL8zENK2a9OD4G_y077KNLtWqYrIL_FVtWWRnP_7_fI1USwNCQkx-0kXxB6i8PYWZVz0umqvrs44J_TUzilynutp6Loroyd1iYrIBOXAVCQgrBCtvKIeL1m12Iar3THCsaWn6r_CTGbB2EJnjA9Z7_cL3e8KrP66G3JKx05aKjORE3UY</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9AeTyrDGo0psIaFYhVMTFTzIWsPB9nQWxbFWp2K3hB3x6peEKstgqRuknWRaEiC0gylBAxfJ-T4I0Z3bIB5NhjOoJ-RfMlykqKGa49M9c9WAWPmdsRjlh0eRPPRbEkiMIrAWNQHxyIJUo1jPfKjbI4zlH0uEIa19vP8G9Qp8nLGDkU9uoMmWThTjMsi1V1eeYpinTaThit8X3BiBcdXgFRtX0QBiREaI_Fka10l-vTz7MQFqiMEMNC5S4E2cdeMP2SktKLNOYCJ2Kdh290VfP9-FA6DjXFrLYOZkRQ5e0eYP2yN3Ee8a01LFl7pkW2ffVzcdkErcucK63zkhjRbYZxSYDeJm35pf4HXqNQbfzBmGHyypLaxBZjyhnzL0_OHDW5Nyhmr5eEdPSAzfvLTla0x4LT7bVNOK5hi11haOazqR91xkng6atOdn1vt0Xb4CadrrHQ9OdiZeeTCo_S9lKeH2iolAzEmkTW6ZjqQ2qVGOYtoFl-ASZhEpZsEUhhaNZ8w2p2-ifZl1joeZ2Rpu25WDCzccQ6Skdp3jROGleHLAg9wPh5mj0GiQEfB5NeQzXW9A2GNAkTCTWoi-uBT9vywINCjF0VJtQousWzm8PZPJjogRQl_FIKkB4LSqRJNhuWS4tdk_3P4CI6p_kq3Tj8Hyqgh0WBlWEMVoFKy0EF5bBgPKOKsu2HHP0_CvULTCrgUsRWRhthbRLHeTlZ4PdAyglpOiLbmpLssPGhxVpgJYpZAYab-OziwntQrKfRsOZs7WWQZuDkJqtt8u_hJAhOJHUKJGQFBaayVQ2nPk1Floi1sLTZbc_Pc3u9g8WmmUYntesOK5krflHDk6CdPwibbr_gr-8</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InVodFJlX1B0SXFnSzNOUmZRN2Ezd1p3anhMUFpUTTQ2eTA3b0NWRlR5cEUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM0OTE1LCJuYmYiOjE3NDQ2MzQ5MTUsImV4cCI6MTc0NDYzOTM1MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBOWJ1VUdIVk1WaUtkWGRKaU94TklEM1ozZCtLMmRHK0ZLVDRmZUZ3S3VyME43eUlBbXlSeXJxUnlyZ1F6RnhHa3lvempSRUdGaWMrbjhMNlRzU2hUVEtzWDBubDU0RHRVWUNCTWxIL2FFVk50aERlcEZFN0RPSUJ4WG5zWFAyRFEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJWZnRiUVNnMnhVS3djdU4tUHY4QkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Im14RUtZdGF2LWlFYzRlRy1WaGd1UE5RcDdqSXhheUxhVGYxWnl0VDN2M0kiLCJ4bXNfaWRyZWwiOiIxIDMyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.fYgNt4bXkRbA-s64NQQOOY_YsTHnM_P_cEdOVeCimYcSZhEmtpO0XgSCZcux3m8IyzrpSfpA9snKAG4R50thdx6mrTfWBNSm5DhODAfGj-29ZDIPVp1qwQzCUkAZNn3ZwdVnhXKISwg4lJ4pknof4CJTt5ia5zViMhs__GCeI-r2xyXic--WppiZYeWFj0PLEaPHb7rDJtH2zQ0_0mDpwy1lnSRR4q4r8TUHQu5kX0XtYsbX1-liGEPoacBuc5I-9GLjq7ufYpx2I7AE1AFZlvv2qhZy9ZE_31BQ_LNBqLwC7-ivYZGwEuXucuJUCWU31KJycivvE_rz4bX2L_iqew</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImVyWnlDakd3bmlBYWVmTFdTUk9uYVU3d2xHb1A4U3h5VTlEVEVtTjl0MzgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM3MDc2LCJuYmYiOjE3NDQ2MzcwNzYsImV4cCI6MTc0NDY0MjIzNSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWmFFK01peGtmVWJHZ3FnVnROeHNGWHpqNGZxSndZRk5DM2poQTJ5SHBRdk1ncmdyUjNudHJ0MTB5YzArOTlYS3NtUUFqWkpGR3gxdVBrTHpFOXFuOFlNQytkVnpxS2R5ZUswQ3dqTGIzU091VmFKQldWUVVvRWZ2dURWbmlqcnUiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ5bmx2VTFTMWxVU3JEcFBJMzR3REFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Imt2VEhRcXA3bXh2X0xqd0VDYVZ5UDJLd0daT1NnNDQ0ell5U2FqZlpaejgiLCJ4bXNfaWRyZWwiOiIxIDE4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.gIHcXocSVlPHAKJ9ZLqbCV4UbxtBYNLIygUmIG26RpePnL_raKLzkkGGdkIVjscdn2FLshbqChO-UYdyETNwVjR_brYYnPftqw24qBQXVJhVFiF7LKCTxlDo_amx3-ygVReKr2otr0U2BqdqL50JCTA-4LgihE6tKn09JATCXJP0QQajCBxTB7ZG7akWZQERc5jOlHDjylEQ5lN8aI_8IpFxRC6YZf1rIzsJTQmi4f8wNfLUjzjY4w5q8c77-xt5HsNTURF-SVzjTj-M9dV7_Mj11be2bZaPCJaW0AdtW7HdpZ111GdgYbV3XWMfzHFF1wqjRv55DfBHZRKky3tRew</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9AeTyrDGo0psIaFYhVMTFTzIWsPB9nQWxbFWp2K3hB3x6peEKstgqRuknWRaEiC0gylBAxfJ-T4I0Z3bIB5NhjOoJ-RfMlykqKGa49M9c9WAWPmdsRjlh0eRPPRbEkiMIrAWNQHxyIJUo1jPfKjbI4zlH0uEIa19vP8G9Qp8nLGDkU9uoMmWThTjMsi1V1eeYpinTaThit8X3BiBcdXgFRtX0QBiREaI_Fka10l-vTz7MQFqiMEMNC5S4E2cdeMP2SktKLNOYCJ2Kdh290VfP9-FA6DjXFrLYOZkRQ5e0eYP2yN3Ee8a01LFl7pkW2ffVzcdkErcucK63zkhjRbYZxSYDeJm35pf4HXqNQbfzBmGHyypLaxBZjyhnzL0_OHDW5Nyhmr5eEdPSAzfvLTla0x4LT7bVNOK5hi11haOazqR91xkng6atOdn1vt0Xb4CadrrHQ9OdiZeeTCo_S9lKeH2iolAzEmkTW6ZjqQ2qVGOYtoFl-ASZhEpZsEUhhaNZ8w2p2-ifZl1joeZ2Rpu25WDCzccQ6Skdp3jROGleHLAg9wPh5mj0GiQEfB5NeQzXW9A2GNAkTCTWoi-uBT9vywINCjF0VJtQousWzm8PZPJjogRQl_FIKkB4LSqRJNhuWS4tdk_3P4CI6p_kq3Tj8Hyqgh0WBlWEMVoFKy0EF5bBgPKOKsu2HHP0_CvULTCrgUsRWRhthbRLHeTlZ4PdAyglpOiLbmpLssPGhxVpgJYpZAYab-OziwntQrKfRsOZs7WWQZuDkJqtt8u_hJAhOJHUKJGQFBaayVQ2nPk1Floi1sLTZbc_Pc3u9g8WmmUYntesOK5krflHDk6CdPwibbr_gr-8</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8QLsxaYYl4GBfX74BMM6xjTvciCF0VSyKH5R4CMfO9gs1Rs4NF8-XbOdfRHjx5U9OyZZyN_jiI_r3o3HrFDnBL0wqDz5q0j2QoU9O69H1Dchudoa3QHK2Z-wllaWaDzXMkOFG1pEftZKh_vnpcVr1Kv_OlEf-lt3_lkTprleKenUMNxQeX2tPkpXrqlhTV89tNQMolguqHL0rl4dHovsJVrbR8GZ2IDFlqu6psfqOWP6ggZorp5vefj9alpNbiVBzbutqChggnJUEaCK0OEC2N3oUgJNeTKuRYIN6XWAgtN3MKoRlgJiIXXSHP2H0o4wZHr3kPwk1AXPfTuSswwMtk5KY7HEKfjZqrPnz4wyhO2pj_4zZZPtHCq7a0k88GpXAPSkK1gGz1AN2r2jRDOg10FPphlXOTuE1QzacIUoW5enALNoGBStGbCq3fgN5tiUv6N5gWdIxgpIGCaCJe7vNhU-g3GkexTelpolS_H66rXBjRLY-zE7gHUf0heermvBAmoSUr5uii38hnLKGAO4Kfj6zPIwhCqLaQrTvzrbYtbu6JgqtpnahpotGSX2Xiy5QDGA3JtvlissAOz7OQxkNUdJWx7Ibf_-VzSmi2TWcW-z7fWPr6RNonBaWX-UEoDqvWOVYeBYJouBTgBk4WD71YTsziLZHh0i6qsjq7HoM8QILrfg442-kF4FjmzwtBKdMV4xgZhb96CwkFdNFWyuAGu4Sr4dMR06h9XLC3VPLlKh_3W-_0KPmAmBeHRXJtTsUEyusOE7z2IY_3aXmRG-W2s0SsLRus8RfPRgEpuwM2J-k-U09xIRkm-tZoJPkqn8FGWkTGbrMhpJv9nMHMohVGpkD_LiI</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImVyWnlDakd3bmlBYWVmTFdTUk9uYVU3d2xHb1A4U3h5VTlEVEVtTjl0MzgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM3MDc2LCJuYmYiOjE3NDQ2MzcwNzYsImV4cCI6MTc0NDY0MjIzNSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWmFFK01peGtmVWJHZ3FnVnROeHNGWHpqNGZxSndZRk5DM2poQTJ5SHBRdk1ncmdyUjNudHJ0MTB5YzArOTlYS3NtUUFqWkpGR3gxdVBrTHpFOXFuOFlNQytkVnpxS2R5ZUswQ3dqTGIzU091VmFKQldWUVVvRWZ2dURWbmlqcnUiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ5bmx2VTFTMWxVU3JEcFBJMzR3REFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Imt2VEhRcXA3bXh2X0xqd0VDYVZ5UDJLd0daT1NnNDQ0ell5U2FqZlpaejgiLCJ4bXNfaWRyZWwiOiIxIDE4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.gIHcXocSVlPHAKJ9ZLqbCV4UbxtBYNLIygUmIG26RpePnL_raKLzkkGGdkIVjscdn2FLshbqChO-UYdyETNwVjR_brYYnPftqw24qBQXVJhVFiF7LKCTxlDo_amx3-ygVReKr2otr0U2BqdqL50JCTA-4LgihE6tKn09JATCXJP0QQajCBxTB7ZG7akWZQERc5jOlHDjylEQ5lN8aI_8IpFxRC6YZf1rIzsJTQmi4f8wNfLUjzjY4w5q8c77-xt5HsNTURF-SVzjTj-M9dV7_Mj11be2bZaPCJaW0AdtW7HdpZ111GdgYbV3XWMfzHFF1wqjRv55DfBHZRKky3tRew</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InB2cDBkT29tRmd0em96VHhyQnFEYnFQVFMxNHFEalJ4VVJSZm5MMkhUeU0iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM4MTYxLCJuYmYiOjE3NDQ2MzgxNjEsImV4cCI6MTc0NDY0MzgwOCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWUxRM0Z1ZFk5Y2FaV24zc2gzSEw1U2hBU2g1cWNpWmUxR3BySExoZjA4UVlUM3I4bnhPQmR4OVNkaGdPVGNlRldwRVZmMWpMczZEMytjTmVXZU51NW9lNG5EMURtTkhtbjh3emtjVUJmd0Joa0NvRjcxWWZMV2xibFVtU0gxTWkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiIydzFfU2o5b1pFV3dBN2pVMDRCM0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InlIUFI4QS1xVnpIVzh6NDE0U1o1ZWZvSy12VzF3R29GbEtLMVE3T2JiMWsiLCJ4bXNfaWRyZWwiOiIxIDQiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.UWhOSPa774SKBLeN_SruJEeMRMEcg_VpnucDq21XOfocX3_CfeX6KqqIPJDgqXwz2muof8IG9VE12DKV_Uwz3nija8RpWGVC7fHoaohqmFxbfA6KBqnE9k8iidiq5ZS7i55N5uK2K6RW1f4rlEqmayqsLyaOK8BFJw8zvwvqRH47LaQPhlsJlKJJJR9PEm_ii6qrDqCGO2TXqhxdTByaHZGLrIwpae_NL8dkXxCheSL1Fwu5I_GBuz6VQTNMfoDPzrX2latya9MBhQ8pbDiNieG7x4m9EBTBWUQsR7rT-SY6zvflGhjqdtbJi9rgJ_BpXvhAWi8GCI_vgZV98IhJfQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8QLsxaYYl4GBfX74BMM6xjTvciCF0VSyKH5R4CMfO9gs1Rs4NF8-XbOdfRHjx5U9OyZZyN_jiI_r3o3HrFDnBL0wqDz5q0j2QoU9O69H1Dchudoa3QHK2Z-wllaWaDzXMkOFG1pEftZKh_vnpcVr1Kv_OlEf-lt3_lkTprleKenUMNxQeX2tPkpXrqlhTV89tNQMolguqHL0rl4dHovsJVrbR8GZ2IDFlqu6psfqOWP6ggZorp5vefj9alpNbiVBzbutqChggnJUEaCK0OEC2N3oUgJNeTKuRYIN6XWAgtN3MKoRlgJiIXXSHP2H0o4wZHr3kPwk1AXPfTuSswwMtk5KY7HEKfjZqrPnz4wyhO2pj_4zZZPtHCq7a0k88GpXAPSkK1gGz1AN2r2jRDOg10FPphlXOTuE1QzacIUoW5enALNoGBStGbCq3fgN5tiUv6N5gWdIxgpIGCaCJe7vNhU-g3GkexTelpolS_H66rXBjRLY-zE7gHUf0heermvBAmoSUr5uii38hnLKGAO4Kfj6zPIwhCqLaQrTvzrbYtbu6JgqtpnahpotGSX2Xiy5QDGA3JtvlissAOz7OQxkNUdJWx7Ibf_-VzSmi2TWcW-z7fWPr6RNonBaWX-UEoDqvWOVYeBYJouBTgBk4WD71YTsziLZHh0i6qsjq7HoM8QILrfg442-kF4FjmzwtBKdMV4xgZhb96CwkFdNFWyuAGu4Sr4dMR06h9XLC3VPLlKh_3W-_0KPmAmBeHRXJtTsUEyusOE7z2IY_3aXmRG-W2s0SsLRus8RfPRgEpuwM2J-k-U09xIRkm-tZoJPkqn8FGWkTGbrMhpJv9nMHMohVGpkD_LiI</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-bIaX0hU2h7sZpFjcrDIKoGWp9C237luxNTJYsNBu8Zj_pF6u3E0pDskVFf1qmPjQ6ySzHKjiQDRemWiJaOf6fk-YQpR7KlybSeGjQUKiSKodX-bAzTiWN8__dYo4W9mtlKZyiAR481a8jABmmjm2leCciNmemYmlHgeuhdOW78ePE0CGggbohAWKiU9yKMhvMJX2n8nqHcsXb-om7N_x0AEoIKdXRljow1mPyuw6j_buoX6eVJvIGjmN_-EmmynymrGANbfKtpmqQHJC-e_BM6hvFKOxpvhXZrvjPi_Mek0Uc9pJAlqGC59OqdcVKdfh8lRWKD5Z5FrH0tVbuVdK0aANcmRJwHyPtkag0HSF-C8ikjGT98TJP0MK7P8Mr-KMJjNeQIdAbO_-YSTgVumuDvGU4b6AApod9BSFs5M2dMkiUl02NP9ggfjw2hU3pX6wrrMAnJzOb-nY831dTuMbQjceqR1oMDelQxotMTC-CMGYl7e3UoCPXl9UhnJHVeE_M3gYS1GlOP9aA4ju2x0UO0e-0uLXkpDQHcKRYUP5hUHCZgZLBG6vtftdWmYU_apMq8Rqmu157Zm71OmVjAmiLKb3Nod72xKv0Pt4ge38YWagIzs225NyZz4S47-ovAulRxHkzjd_fNgNhJ7nC_fI3waBeBo8eqqW4KhxTUPqtfc_9HdI9f3nDweRE3uUqOiLmoXYz5EFWnkvIMmv0abIdtm6xNNGOLRxhb3r2xjejNOgVLrjLMX0QWvFzvl2PkHP6n37tZGv2ImYgF94NDXxk-6SuCZG9bpRJvJUWxMzCHS3nyl4mluvHRTCzZ24oBk7FUfvGdF0wPZIxEz0I83hqyCOEQPI</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InB2cDBkT29tRmd0em96VHhyQnFEYnFQVFMxNHFEalJ4VVJSZm5MMkhUeU0iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM4MTYxLCJuYmYiOjE3NDQ2MzgxNjEsImV4cCI6MTc0NDY0MzgwOCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWUxRM0Z1ZFk5Y2FaV24zc2gzSEw1U2hBU2g1cWNpWmUxR3BySExoZjA4UVlUM3I4bnhPQmR4OVNkaGdPVGNlRldwRVZmMWpMczZEMytjTmVXZU51NW9lNG5EMURtTkhtbjh3emtjVUJmd0Joa0NvRjcxWWZMV2xibFVtU0gxTWkiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiIydzFfU2o5b1pFV3dBN2pVMDRCM0FBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InlIUFI4QS1xVnpIVzh6NDE0U1o1ZWZvSy12VzF3R29GbEtLMVE3T2JiMWsiLCJ4bXNfaWRyZWwiOiIxIDQiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.UWhOSPa774SKBLeN_SruJEeMRMEcg_VpnucDq21XOfocX3_CfeX6KqqIPJDgqXwz2muof8IG9VE12DKV_Uwz3nija8RpWGVC7fHoaohqmFxbfA6KBqnE9k8iidiq5ZS7i55N5uK2K6RW1f4rlEqmayqsLyaOK8BFJw8zvwvqRH47LaQPhlsJlKJJJR9PEm_ii6qrDqCGO2TXqhxdTByaHZGLrIwpae_NL8dkXxCheSL1Fwu5I_GBuz6VQTNMfoDPzrX2latya9MBhQ8pbDiNieG7x4m9EBTBWUQsR7rT-SY6zvflGhjqdtbJi9rgJ_BpXvhAWi8GCI_vgZV98IhJfQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImFIeE83NWRpN0Q1dzBZd3hnSlRlVEFFVW16WEdETmRKazV6NlM2OEdVVEUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM4ODkyLCJuYmYiOjE3NDQ2Mzg4OTIsImV4cCI6MTc0NDY0MzUxMSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQ0tseWZ3alRxcmloSVBlVFhNWDBYeUF1ZXlqcmVlY0kvdWwvY1NMZWFoN25vNkN3b1lNK2NENHl0VFZVUmNHYXQ5eElVU2hna1VpRlJmdlAyWWRDbmF0MkQyU2MrbFdKUzJCUHNhN2Yybmc1M0EzbERFcGtQSlJtRXZrQy93VjAiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJUMTV2alZCSHRVNmNxZDlWVjcwZkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjdNc3JDM0FmZTl4RE5TQUpDX0lsVTlLOEF5ZENSMllJWE5zZF9hTDdvaUUiLCJ4bXNfaWRyZWwiOiIxIDMwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Ada0AXo7BmapAXsz2jKRrvxwi-iHo8Z2A1RDsArQJ2xmfsiLGBad_Nw9wr53G9UvozOsKaZ_8jDsITIk7nhIWYhs6CWpyKsAi7Pf0HYHMLaIoBjCo20J5ipxfIe2j_MQYFOrGabV5YWnzYzgSB7KmLfude2ZDh_gO74jVhwRLA2BYN39SqGy3P3z6h6tiv-xaCgu4tC4sdHXUfD9zJO7vIzeEQo0UTSh2q7ynNlrli68KMDWH9Ac9PBn9FoD74tZRRwswWh0pbN_uHcnYR8Jo1irbqU6FhuDE6jT6Ha4kdJPvtdefl25rZiCsxOSL309jHCK94KlHImiwRZbUACkBA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-bIaX0hU2h7sZpFjcrDIKoGWp9C237luxNTJYsNBu8Zj_pF6u3E0pDskVFf1qmPjQ6ySzHKjiQDRemWiJaOf6fk-YQpR7KlybSeGjQUKiSKodX-bAzTiWN8__dYo4W9mtlKZyiAR481a8jABmmjm2leCciNmemYmlHgeuhdOW78ePE0CGggbohAWKiU9yKMhvMJX2n8nqHcsXb-om7N_x0AEoIKdXRljow1mPyuw6j_buoX6eVJvIGjmN_-EmmynymrGANbfKtpmqQHJC-e_BM6hvFKOxpvhXZrvjPi_Mek0Uc9pJAlqGC59OqdcVKdfh8lRWKD5Z5FrH0tVbuVdK0aANcmRJwHyPtkag0HSF-C8ikjGT98TJP0MK7P8Mr-KMJjNeQIdAbO_-YSTgVumuDvGU4b6AApod9BSFs5M2dMkiUl02NP9ggfjw2hU3pX6wrrMAnJzOb-nY831dTuMbQjceqR1oMDelQxotMTC-CMGYl7e3UoCPXl9UhnJHVeE_M3gYS1GlOP9aA4ju2x0UO0e-0uLXkpDQHcKRYUP5hUHCZgZLBG6vtftdWmYU_apMq8Rqmu157Zm71OmVjAmiLKb3Nod72xKv0Pt4ge38YWagIzs225NyZz4S47-ovAulRxHkzjd_fNgNhJ7nC_fI3waBeBo8eqqW4KhxTUPqtfc_9HdI9f3nDweRE3uUqOiLmoXYz5EFWnkvIMmv0abIdtm6xNNGOLRxhb3r2xjejNOgVLrjLMX0QWvFzvl2PkHP6n37tZGv2ImYgF94NDXxk-6SuCZG9bpRJvJUWxMzCHS3nyl4mluvHRTCzZ24oBk7FUfvGdF0wPZIxEz0I83hqyCOEQPI</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_zKBAtH3REIQcByRjkGRNo7wWVl1WxP1dqg8TgEZtef4JQVPuqeJE5Zo_5Pkj4M-D964G_N1ch1wu9uNr2fSRPXFefDOVXpXsDKnG0RCZ9_IBI5B4xJ2Fjhj80lMz0FtgQn6Yn8i6mo8uiRzVnDxdxGIBUFPsA7yakXWy6HhnLRkA9cg7l27Yw6jOl6XT2KXRgtOrsHasIqramqxKmjLtEV2ZrFr1q2r53iqn2glEx67IEJJlzZQTe-gmaTB9nuaGLY7MmjHq-q3roGhsBFHQ-mM-mgrLnkspyDMPblTnWcWNm2PI_IBqPPf1QxJP2KpuwcIfNLyqnNXGnwRvkWAQYeGUW4ImJ84Ijt5mOLos6N1ta0SoQcXMzsLrhwrRhMETmSwHPpmX-UwhpE8HKTB12MiYb51BhY1iPCVhckh8B-xJHgEz3u6A6B9S17MIyF854dN2MqHopghrjcmC6RxId5YdXYSy3YCA4PVuCdeotnYW1Xuuu_hk4PU2UQIvjBIOwALeWAsyAyuOISv7RKYr1iv790OXqwAYkA8Z31UGAC5PwHDDuX_lYgInhgTQIPrrkuMNfYHjPkDa1IPieiI5wln8rQFC45KZrTC9nKOXZMrxvkJ2_0wlwEa02DvxvtVs0kOTftu6m6nBMa4RUZ8YGn7DfxKhIfSofniMBhXzZXVjqsH_7B1SsTNOTOfBsTemVRZCdlyW0njoIQn4ym8YDw05FHTyv0n11vmm9Ckbr1Lue2enJUy4Y0fNy3H1-1Y_0X1kJp9tPGGb4eJsZApRIhg6MY6q1PyGw3fPKCKgY3ZWm7u-LQTSTgtmhUr1EQAwPzSz4HoPD_aVm34PjSkDGPtn6OMg</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImFIeE83NWRpN0Q1dzBZd3hnSlRlVEFFVW16WEdETmRKazV6NlM2OEdVVEUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjM4ODkyLCJuYmYiOjE3NDQ2Mzg4OTIsImV4cCI6MTc0NDY0MzUxMSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBQ0tseWZ3alRxcmloSVBlVFhNWDBYeUF1ZXlqcmVlY0kvdWwvY1NMZWFoN25vNkN3b1lNK2NENHl0VFZVUmNHYXQ5eElVU2hna1VpRlJmdlAyWWRDbmF0MkQyU2MrbFdKUzJCUHNhN2Yybmc1M0EzbERFcGtQSlJtRXZrQy93VjAiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJUMTV2alZCSHRVNmNxZDlWVjcwZkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IjdNc3JDM0FmZTl4RE5TQUpDX0lsVTlLOEF5ZENSMllJWE5zZF9hTDdvaUUiLCJ4bXNfaWRyZWwiOiIxIDMwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Ada0AXo7BmapAXsz2jKRrvxwi-iHo8Z2A1RDsArQJ2xmfsiLGBad_Nw9wr53G9UvozOsKaZ_8jDsITIk7nhIWYhs6CWpyKsAi7Pf0HYHMLaIoBjCo20J5ipxfIe2j_MQYFOrGabV5YWnzYzgSB7KmLfude2ZDh_gO74jVhwRLA2BYN39SqGy3P3z6h6tiv-xaCgu4tC4sdHXUfD9zJO7vIzeEQo0UTSh2q7ynNlrli68KMDWH9Ac9PBn9FoD74tZRRwswWh0pbN_uHcnYR8Jo1irbqU6FhuDE6jT6Ha4kdJPvtdefl25rZiCsxOSL309jHCK94KlHImiwRZbUACkBA</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkFkUGxJSUxYemhnbVhHWkc2aTN6WHpoN3pmbnlkbDdCZjZqc3A2VlNwSXciLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQwNzA5LCJuYmYiOjE3NDQ2NDA3MDksImV4cCI6MTc0NDY0NTUxNywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBaFhiLzhETk54bVJhTGpsclhJZEN4ZEY1RHcxVzdGQ0hXZkQ5WFkyRDFTeTU2WlpTNUt0Vm5oc1hpTWxqWmtsdkU5M3NLQmRiT01Kd3Z1NU5CYkNhZGxGc1poMlpDSUVxWHVxWnhaSlZqUG9jNDBCQXprcUhWdnlXKzJnWHpWL0ciLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJYVTBGSnRJbHFVS1NGSk9jVzhrNEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InFLRHJ4Nm0tM1RIbHdRRHBKbnQzckNiSEJ3R3F6cDY3U3RNOTRIVm1jdU0iLCJ4bXNfaWRyZWwiOiIzMiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.GvPlzUnlLoUbp1mNY-OzwCgfnUhKV-aSddC3tzeZu4K1PsBs0dKwWYpHO_qDBWHDMdBBiV__Gx1TWy-xSHYcEFr7tNs2zx0skNAaPgyT8ycq457D9pvBhbJqg654OSekzHUUfo_qUV0f4Y0OTrtHl1pdM34j5N8pMalzAOrw0zMD_tKV9x-dg2Scynb5-F6CJYjFoDTWufJYhkyKyQhIvqiA_JnVk8TCjax4MJLwxQaUWSz0_ge2a-JEECvOXVHY47wQdpD9RP7rcED6L5DF51dSeUf378c5UF13EVIagghqaaVK9izB8I3rbr2fKJhs-1l3kw0ydQyORSxKh9hzxQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_zKBAtH3REIQcByRjkGRNo7wWVl1WxP1dqg8TgEZtef4JQVPuqeJE5Zo_5Pkj4M-D964G_N1ch1wu9uNr2fSRPXFefDOVXpXsDKnG0RCZ9_IBI5B4xJ2Fjhj80lMz0FtgQn6Yn8i6mo8uiRzVnDxdxGIBUFPsA7yakXWy6HhnLRkA9cg7l27Yw6jOl6XT2KXRgtOrsHasIqramqxKmjLtEV2ZrFr1q2r53iqn2glEx67IEJJlzZQTe-gmaTB9nuaGLY7MmjHq-q3roGhsBFHQ-mM-mgrLnkspyDMPblTnWcWNm2PI_IBqPPf1QxJP2KpuwcIfNLyqnNXGnwRvkWAQYeGUW4ImJ84Ijt5mOLos6N1ta0SoQcXMzsLrhwrRhMETmSwHPpmX-UwhpE8HKTB12MiYb51BhY1iPCVhckh8B-xJHgEz3u6A6B9S17MIyF854dN2MqHopghrjcmC6RxId5YdXYSy3YCA4PVuCdeotnYW1Xuuu_hk4PU2UQIvjBIOwALeWAsyAyuOISv7RKYr1iv790OXqwAYkA8Z31UGAC5PwHDDuX_lYgInhgTQIPrrkuMNfYHjPkDa1IPieiI5wln8rQFC45KZrTC9nKOXZMrxvkJ2_0wlwEa02DvxvtVs0kOTftu6m6nBMa4RUZ8YGn7DfxKhIfSofniMBhXzZXVjqsH_7B1SsTNOTOfBsTemVRZCdlyW0njoIQn4ym8YDw05FHTyv0n11vmm9Ckbr1Lue2enJUy4Y0fNy3H1-1Y_0X1kJp9tPGGb4eJsZApRIhg6MY6q1PyGw3fPKCKgY3ZWm7u-LQTSTgtmhUr1EQAwPzSz4HoPD_aVm34PjSkDGPtn6OMg</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9tYKyf4Q8obxoSWmJ1ztiqYQFOfPf_0H1ddRb7LnfzAkxRYx3V6wfEf0dTMt4L4msMjdyv3ZRgOrZ68UN7V4HGhLhVneZPWUY-DSRBy77cJlMtoxfi3kxOuj1jH9gM4pwmQlmTKab7kE3qYGFbJ7cRMtpfRp_nFxHplRVXq4xO9WCX5D_5mTa8EAoWudXnqNbn6kG9yfF8fxQ7JW_ELL3hdhwNHHUSr049TZxbl92emX-LI8wSTacrZ9ffl0FuOatGgmxJeFecASOcFGLX2KHrfTx3-WFUXf_OEhEANd41OOZqLPOhuto3Z25u8P3YAHGm0kmEArkx-2DJxoL2HEC48a9RyrURqije0EguoPqolcj_SR15_nOGo5zqqpoOTU8SUXakhQ6I4tn0gg0eByv4ey8oLmaZkBSVxOgpnHjZXoYPRHvU4V10CDKk3Qu2nYfDOH705gy8ljl8V9MvFEV1sZ6lKu56bTQ-AxUB0iYFviYbu8vsykbDsRYd0NP7Ike9NCmz9IeRbQmmR-alt3GiBwNYQLV4U0UoIWCdDCxar-9V3-MH1ZK0mhEr-HSNoa0wTWbis9E3-Yu15Oq-C2SM2YSfzmslBqnb3-sIhMfNmQHiVMVXnDyk5O7AIqxMJaDD4FJaEoPMaCZxBnVH5GJ_grABpSiWK4g86I1W0iAPusfdOrmjDEM-AEsEnDWHIob1KeUJ9R1rWhqve2huTKsUMfjAAVAXIRidjwdc5TE_fIjvpgtXQrD1cq0lltDahZ1KlrVsZ4yOX9rKFLUT82oZVsye5BtFlkv8rHpYzvM4d6lUKVwIN0RNRTK1jBI_2wQWtfYB1S36q6rcdxB2FHSoGktHhfY</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkFkUGxJSUxYemhnbVhHWkc2aTN6WHpoN3pmbnlkbDdCZjZqc3A2VlNwSXciLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQwNzA5LCJuYmYiOjE3NDQ2NDA3MDksImV4cCI6MTc0NDY0NTUxNywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBaFhiLzhETk54bVJhTGpsclhJZEN4ZEY1RHcxVzdGQ0hXZkQ5WFkyRDFTeTU2WlpTNUt0Vm5oc1hpTWxqWmtsdkU5M3NLQmRiT01Kd3Z1NU5CYkNhZGxGc1poMlpDSUVxWHVxWnhaSlZqUG9jNDBCQXprcUhWdnlXKzJnWHpWL0ciLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJYVTBGSnRJbHFVS1NGSk9jVzhrNEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InFLRHJ4Nm0tM1RIbHdRRHBKbnQzckNiSEJ3R3F6cDY3U3RNOTRIVm1jdU0iLCJ4bXNfaWRyZWwiOiIzMiAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.GvPlzUnlLoUbp1mNY-OzwCgfnUhKV-aSddC3tzeZu4K1PsBs0dKwWYpHO_qDBWHDMdBBiV__Gx1TWy-xSHYcEFr7tNs2zx0skNAaPgyT8ycq457D9pvBhbJqg654OSekzHUUfo_qUV0f4Y0OTrtHl1pdM34j5N8pMalzAOrw0zMD_tKV9x-dg2Scynb5-F6CJYjFoDTWufJYhkyKyQhIvqiA_JnVk8TCjax4MJLwxQaUWSz0_ge2a-JEECvOXVHY47wQdpD9RP7rcED6L5DF51dSeUf378c5UF13EVIagghqaaVK9izB8I3rbr2fKJhs-1l3kw0ydQyORSxKh9hzxQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ik9Ld056azE5ZnVRUnVLeU9tdkJKUHZ1bkJNeG9YZ0ZBWjBRTzNhQ1JQZzgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQxNzQ5LCJuYmYiOjE3NDQ2NDE3NDksImV4cCI6MTc0NDY0NjUzMiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRCttcHdrQWo3Y0FPQ0JPYWNPeXMrNHVFdTc0cnJnQ3NLTlQvMFJSYVdYS0lhZExOU2lST1VreWFEQkdzWHFVKzFSQjFXOXJONzFsTWtsSHJqVWJoSVRheVdlUmVPdloycjhVSEI0ZW9BYzFlMjZaYTRhTDdOVnByaHdqeElXK1QiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ6VVNSSFp3SGFFLVRRR29hRHVOdEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ikk5MHVoaU53dzFWRXhSWlVvV0k3OXhSeW1nZ19NaDdHT1FKbXM0Ulg2WVUiLCJ4bXNfaWRyZWwiOiIxIDEwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.a68wBHj2QtPy2v83QzmBs5U4la317U3CfqXiJ9NMI2VgYQnqlfv3RIal6zsYUlvb9JTsAwooCHMnXx8j0tYTgnIKwhkAMlDxolIp8LG5LQcWLz7M2eEvpoVCu325FlE-aGfKrUPQF4IHn_oM8aHe0B8TlaTcBQirOrpTkwNonOenPBP7McNFunk1KYWEY-ZVIGfXsnF-oo5cmxb5hn-MTxQN8HeVEp99W0eXBJsgXSPYtZAwz_EIUnGniwkf2Hi-98lPxaTpQc2mzfQXF34vae6wwjuESl8GZRXEbnv9ObDFUUfeTpuf37aVgqtGY3kaJVPUSmMrLpRn98rgjxkItQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P9tYKyf4Q8obxoSWmJ1ztiqYQFOfPf_0H1ddRb7LnfzAkxRYx3V6wfEf0dTMt4L4msMjdyv3ZRgOrZ68UN7V4HGhLhVneZPWUY-DSRBy77cJlMtoxfi3kxOuj1jH9gM4pwmQlmTKab7kE3qYGFbJ7cRMtpfRp_nFxHplRVXq4xO9WCX5D_5mTa8EAoWudXnqNbn6kG9yfF8fxQ7JW_ELL3hdhwNHHUSr049TZxbl92emX-LI8wSTacrZ9ffl0FuOatGgmxJeFecASOcFGLX2KHrfTx3-WFUXf_OEhEANd41OOZqLPOhuto3Z25u8P3YAHGm0kmEArkx-2DJxoL2HEC48a9RyrURqije0EguoPqolcj_SR15_nOGo5zqqpoOTU8SUXakhQ6I4tn0gg0eByv4ey8oLmaZkBSVxOgpnHjZXoYPRHvU4V10CDKk3Qu2nYfDOH705gy8ljl8V9MvFEV1sZ6lKu56bTQ-AxUB0iYFviYbu8vsykbDsRYd0NP7Ike9NCmz9IeRbQmmR-alt3GiBwNYQLV4U0UoIWCdDCxar-9V3-MH1ZK0mhEr-HSNoa0wTWbis9E3-Yu15Oq-C2SM2YSfzmslBqnb3-sIhMfNmQHiVMVXnDyk5O7AIqxMJaDD4FJaEoPMaCZxBnVH5GJ_grABpSiWK4g86I1W0iAPusfdOrmjDEM-AEsEnDWHIob1KeUJ9R1rWhqve2huTKsUMfjAAVAXIRidjwdc5TE_fIjvpgtXQrD1cq0lltDahZ1KlrVsZ4yOX9rKFLUT82oZVsye5BtFlkv8rHpYzvM4d6lUKVwIN0RNRTK1jBI_2wQWtfYB1S36q6rcdxB2FHSoGktHhfY</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_bZroBoGn_a6nLRQc6M4d5tQMsEmGck2KDVxI5Y9TigE2QnsLW9Y0_RzxvEWIALVkAB3bM5ZBrfdvr9DtdwPU1XdQfiBqcjjd3yHFoopkC9Js8nVua-fR1OHSxE1be3p78ldot1eUM22ei2-_GZZbcCRPnTwSrX6-cqLur887cH0j-1NGJdI63brALwvTeFs1j9lLW7SBs5o4WrXGrGzW2xaFUMOYJMDU2q46Hv-0F5Y8foUxmryDGfkKMnMbMa4DbFBc6mRYQ0ufQ9VJ-gvrhIOpSsLeqGOoaNQLU1Xno05sosWt-C7x_wyAEqBYtibjPucmlcTdqTzOTJWd9WZrm4ZcIf9eMbGfea2JVkx-E5ygoo5Q47cHE-qnOnGjBMV-jzBPp2RR1GSdHWFLyPf_IDYPI14Ibpv_4LYH2MDU6KE6pvEzIrt_-kkkHo0Z0RCsl92d08zIONNDaVieaHYX8-OpxYdbubHwUMtvCqsxsq-A66zrAPlkyZXGdXx5bJpZrotQtDS_dF9_VUr3E6fckmEmhPCBVHtggh_m3UpJpy89Mq_Y2jQbPA6LQSNa8WBKZPRCeNqkeV1x2x7ucc5zo7lUr7aRCdTLWeJpwgqeaTr-s0Q5QKGZ_mmhwSum3xCozcaNlIK8WomOP5DMfhZ6N0gbqee2-pvlFeCFVmGsZzYgrF7ejIeSrmKbsurzfBDYJWJYvm5meV6dqbusaf8qpG-mvW8HgUnvXzT9YJKK9Fajs6NXSnPz7JZySxP-_UzScp6HzCCCJD4Gq4P5Huwirq-PSwT5QUY3HoL9kNXE_K1DoLuCGQl792a7_cmGl1WUacfx8OI2ZQk2cI5iAbA4nK2Vi6K8</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ik9Ld056azE5ZnVRUnVLeU9tdkJKUHZ1bkJNeG9YZ0ZBWjBRTzNhQ1JQZzgiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQxNzQ5LCJuYmYiOjE3NDQ2NDE3NDksImV4cCI6MTc0NDY0NjUzMiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRCttcHdrQWo3Y0FPQ0JPYWNPeXMrNHVFdTc0cnJnQ3NLTlQvMFJSYVdYS0lhZExOU2lST1VreWFEQkdzWHFVKzFSQjFXOXJONzFsTWtsSHJqVWJoSVRheVdlUmVPdloycjhVSEI0ZW9BYzFlMjZaYTRhTDdOVnByaHdqeElXK1QiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJ6VVNSSFp3SGFFLVRRR29hRHVOdEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ikk5MHVoaU53dzFWRXhSWlVvV0k3OXhSeW1nZ19NaDdHT1FKbXM0Ulg2WVUiLCJ4bXNfaWRyZWwiOiIxIDEwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.a68wBHj2QtPy2v83QzmBs5U4la317U3CfqXiJ9NMI2VgYQnqlfv3RIal6zsYUlvb9JTsAwooCHMnXx8j0tYTgnIKwhkAMlDxolIp8LG5LQcWLz7M2eEvpoVCu325FlE-aGfKrUPQF4IHn_oM8aHe0B8TlaTcBQirOrpTkwNonOenPBP7McNFunk1KYWEY-ZVIGfXsnF-oo5cmxb5hn-MTxQN8HeVEp99W0eXBJsgXSPYtZAwz_EIUnGniwkf2Hi-98lPxaTpQc2mzfQXF34vae6wwjuESl8GZRXEbnv9ObDFUUfeTpuf37aVgqtGY3kaJVPUSmMrLpRn98rgjxkItQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ikh5SWQyU1hKaWdUaWpUekZMNG9mblFIQUpINFZCbVFZMl90OGs4dF82U0UiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQyNDkwLCJuYmYiOjE3NDQ2NDI0OTAsImV4cCI6MTc0NDY0NzUxNSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBN1FuRVI2TjRVdk5EOHFmQzREWUxUSUtBRE91WlhIck11QzdlbWlpMXZOeG5HNEhtYkQvSGliZFQ1WldWUWF0a0F4UGJNdERxVnNBVkU3LzVaL25zYStqTGZ5b0d3aGpNOEpLSTFpOC9LWWZaWVd3MUk2OUdwVklkcGFkb21KTG0iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJUaGNFcUFuN3JFT1FQWmpsbU95bUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlptMWNNbFliRFdWZDdPLWFEcUVOYmhNUEZJZEhQT1FzbEtOQm5rTEQxSmciLCJ4bXNfaWRyZWwiOiIxIDYiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.JiNeGCNlrPxWGehOuhXBFA6CtTawlhxiSEN6cL2KVqlIr2600ZaRIUsg86swTq4-FDAn3-geJwI276IvE9HYc6rIeDUq-pVQUvIRa0jRre6GdT4CAVuuhWVD2NfzGI6zqCvOwtqaFVEDQs-vB-KYG2otHBsB9PWdTTCSnOgUdFQ4S-X7y03ndOiH1kdk9EUF2RDQqI2-elPp776p5TqAQW6vvg0BivVlVkbTMrb2zzBw4gzC2Q0Qdx60zHKQ3FM44wCTuTLpc31_QpN_cD7Wd51OxhZI_TXxym8Kx-HlpL8xKHDBPPVdnebaYltgwCT6Gb6nXnzxXwMfOCN5KNY3yQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_bZroBoGn_a6nLRQc6M4d5tQMsEmGck2KDVxI5Y9TigE2QnsLW9Y0_RzxvEWIALVkAB3bM5ZBrfdvr9DtdwPU1XdQfiBqcjjd3yHFoopkC9Js8nVua-fR1OHSxE1be3p78ldot1eUM22ei2-_GZZbcCRPnTwSrX6-cqLur887cH0j-1NGJdI63brALwvTeFs1j9lLW7SBs5o4WrXGrGzW2xaFUMOYJMDU2q46Hv-0F5Y8foUxmryDGfkKMnMbMa4DbFBc6mRYQ0ufQ9VJ-gvrhIOpSsLeqGOoaNQLU1Xno05sosWt-C7x_wyAEqBYtibjPucmlcTdqTzOTJWd9WZrm4ZcIf9eMbGfea2JVkx-E5ygoo5Q47cHE-qnOnGjBMV-jzBPp2RR1GSdHWFLyPf_IDYPI14Ibpv_4LYH2MDU6KE6pvEzIrt_-kkkHo0Z0RCsl92d08zIONNDaVieaHYX8-OpxYdbubHwUMtvCqsxsq-A66zrAPlkyZXGdXx5bJpZrotQtDS_dF9_VUr3E6fckmEmhPCBVHtggh_m3UpJpy89Mq_Y2jQbPA6LQSNa8WBKZPRCeNqkeV1x2x7ucc5zo7lUr7aRCdTLWeJpwgqeaTr-s0Q5QKGZ_mmhwSum3xCozcaNlIK8WomOP5DMfhZ6N0gbqee2-pvlFeCFVmGsZzYgrF7ejIeSrmKbsurzfBDYJWJYvm5meV6dqbusaf8qpG-mvW8HgUnvXzT9YJKK9Fajs6NXSnPz7JZySxP-_UzScp6HzCCCJD4Gq4P5Huwirq-PSwT5QUY3HoL9kNXE_K1DoLuCGQl792a7_cmGl1WUacfx8OI2ZQk2cI5iAbA4nK2Vi6K8</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-67iY-bcADaU7a6nPeDZmSfFANbyUPVQthBvvwfEjIfRhCVxqGdniUYKPy2qy-apVjyQBFoZtG4gKiKbgnoreVHJsTJvumobnsR0va34jOPsT42AwCGtUYE8cUNd-60h8t32kCA-cI-O9E5B4Z5O51OT41J0wtCm8Q8kwfHMEAo15uTM9Hvs7eKDiKsths4Fr9XHk015H5OwWjYm9Eeo8gPVI9yLRvZoxdl1Ig-lzs64bJ5_a57ZfTsIPYvXww1MbXyS6JQp7AbPCoETC_dopOuXdP7FpJByCTQn81Z7Rntb_ONKD7uUFaOp64_AD3Cql5Gbh66dFT-5ociOgzq2ll89dlCKv82R7E6TgYUAhmI57Po-g4ii5SenS1lEP330C_SVTZuCSjn9LKbKdXazij0DHhJZgr_yaffjR5XXmQ6Ukdy0RJb3fUcQFq-7IHS6H80mXuh9HBFKRhhRZ0bPe5BVqb5wyFg0KK1g-9MRYWKns6wNwZdK44KK4TBlgJWVDPU3bf4ML9syob4uM6Qfh4eQFJEQjhU1ZJf3ztQNdY0bSdftgDvU8SfhMe58DInzLHwxm4UIrN7UJS9P4s2L7spf5zIy3zIszpn--qLk1wV9Yd9wfNcbB_Utvt1lkIjQFezKDrcWPCyR-FfLDIGy2UKX6AVopgrfB5MaMzchFdBAEgFLnO4sMnZxakAx8NJMSRrWW-4lFH4C7LxKuUH1nGWhBHOpMSMEQyxvozgU5vAmcOsFw6KP0ZLno1r3txSUZB9k5iF0SugTGVOQ35Frq_ktfG4lPDuk9QN1aU2HC3NSMNTX--wWgI0_g5hCS-2bnKPhvq9uiWqlHiPEygy1NmXJrgaWY</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ikh5SWQyU1hKaWdUaWpUekZMNG9mblFIQUpINFZCbVFZMl90OGs4dF82U0UiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQyNDkwLCJuYmYiOjE3NDQ2NDI0OTAsImV4cCI6MTc0NDY0NzUxNSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBN1FuRVI2TjRVdk5EOHFmQzREWUxUSUtBRE91WlhIck11QzdlbWlpMXZOeG5HNEhtYkQvSGliZFQ1WldWUWF0a0F4UGJNdERxVnNBVkU3LzVaL25zYStqTGZ5b0d3aGpNOEpLSTFpOC9LWWZaWVd3MUk2OUdwVklkcGFkb21KTG0iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJUaGNFcUFuN3JFT1FQWmpsbU95bUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlptMWNNbFliRFdWZDdPLWFEcUVOYmhNUEZJZEhQT1FzbEtOQm5rTEQxSmciLCJ4bXNfaWRyZWwiOiIxIDYiLCJ4bXNfc3QiOnsic3ViIjoiQ253LWVxVG5Nc1AtSGIyc2F6RW5MNnp5WFVMQ3lXSGVRcnNmaUtFaEFmcyJ9LCJ4bXNfdGNkdCI6MTY5ODIwNjIyMH0.JiNeGCNlrPxWGehOuhXBFA6CtTawlhxiSEN6cL2KVqlIr2600ZaRIUsg86swTq4-FDAn3-geJwI276IvE9HYc6rIeDUq-pVQUvIRa0jRre6GdT4CAVuuhWVD2NfzGI6zqCvOwtqaFVEDQs-vB-KYG2otHBsB9PWdTTCSnOgUdFQ4S-X7y03ndOiH1kdk9EUF2RDQqI2-elPp776p5TqAQW6vvg0BivVlVkbTMrb2zzBw4gzC2Q0Qdx60zHKQ3FM44wCTuTLpc31_QpN_cD7Wd51OxhZI_TXxym8Kx-HlpL8xKHDBPPVdnebaYltgwCT6Gb6nXnzxXwMfOCN5KNY3yQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IllJVUNVY0hXNXNycEwxcHA4aTRfdUVzT0JDTmk0d1VIVllfOUpPSVd0MzAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQ0MjAwLCJuYmYiOjE3NDQ2NDQyMDAsImV4cCI6MTc0NDY0ODg4MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRjIzOEQ5WFhnOTU4T3RVNVRSSzQvR0NTaWVOSm5HTjBtdFllOS92a1Z6RE50RWdVZnRzZUVlYUtrUkdYRVF0a3IyTkRxMWNnaEJiVnhVSnNMMlBFTVNIM1NHL3pSY0YvN0FnR3hsZ2Y3VEZKZnkzL0hIR1h2ZEpYRjZYQ3hjblEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJaWnhtTGV0LXVVV3hpM1JoSXN1eUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlNrUFFDc05RZlJLMFZBM2xfdGNfSEpfVTJPZkMtbkk5SEt5OTBCTEpEXzgiLCJ4bXNfaWRyZWwiOiIxIDI2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.P8UQ7bmHBsCrJJLFYLJ9Oq-pRnERJK2aps7gsqAGbFlQMxklZGUi_gessRCqskBXA5-4F1Wd1iBBdCMYMOurBZWZfqkKSAxM8YqOlv0ffGD0C8MJatggOSqI8NYuw8qfL7JmnA2CjIMlz9ZIX_LZWogZxojRRaq469gPW-liMknTzZoQMxPSsDiRQ21AucxDkdsAfqGy4nLCk8w7v7q1zW-rHet5gJOHQ2rwb23txbMirr1pSuEu0c7jYX-YIzKKIa3xt-4H-P9glYdjrWQGNgXH_0lW_fR83XdUbmrP767L8szomIa1ERJz_38f5cJKutDi6ErDK9yLxt8Zw509mQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P-67iY-bcADaU7a6nPeDZmSfFANbyUPVQthBvvwfEjIfRhCVxqGdniUYKPy2qy-apVjyQBFoZtG4gKiKbgnoreVHJsTJvumobnsR0va34jOPsT42AwCGtUYE8cUNd-60h8t32kCA-cI-O9E5B4Z5O51OT41J0wtCm8Q8kwfHMEAo15uTM9Hvs7eKDiKsths4Fr9XHk015H5OwWjYm9Eeo8gPVI9yLRvZoxdl1Ig-lzs64bJ5_a57ZfTsIPYvXww1MbXyS6JQp7AbPCoETC_dopOuXdP7FpJByCTQn81Z7Rntb_ONKD7uUFaOp64_AD3Cql5Gbh66dFT-5ociOgzq2ll89dlCKv82R7E6TgYUAhmI57Po-g4ii5SenS1lEP330C_SVTZuCSjn9LKbKdXazij0DHhJZgr_yaffjR5XXmQ6Ukdy0RJb3fUcQFq-7IHS6H80mXuh9HBFKRhhRZ0bPe5BVqb5wyFg0KK1g-9MRYWKns6wNwZdK44KK4TBlgJWVDPU3bf4ML9syob4uM6Qfh4eQFJEQjhU1ZJf3ztQNdY0bSdftgDvU8SfhMe58DInzLHwxm4UIrN7UJS9P4s2L7spf5zIy3zIszpn--qLk1wV9Yd9wfNcbB_Utvt1lkIjQFezKDrcWPCyR-FfLDIGy2UKX6AVopgrfB5MaMzchFdBAEgFLnO4sMnZxakAx8NJMSRrWW-4lFH4C7LxKuUH1nGWhBHOpMSMEQyxvozgU5vAmcOsFw6KP0ZLno1r3txSUZB9k5iF0SugTGVOQ35Frq_ktfG4lPDuk9QN1aU2HC3NSMNTX--wWgI0_g5hCS-2bnKPhvq9uiWqlHiPEygy1NmXJrgaWY</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_LL4muA2XgJYiAnVDjY-HfhdXJXWEsZm7ao6-IMOuUwMQo_XHOqsO2SeYiHIOIAyQX-jhH52DkBVKNSwUWQm1sofYftUGeKehl9jWcWQWTC-rkC2gVF_cPBiyeGVhgOYyxUBygNL5rPMi_glDGot18ybfiis4QZ36F1pKts1oR-xsVHDNIn4lImbSNyw9PKGeHkmbpdRBtJt7b2Wvq3WiVtP8v5vLpRI2tkFyeIztG10QAJizlMhkpSqJneJjFdZDA-bg-kUcrtHPsYcufzutZqNedyGnj4upKTLv6rua5UTiR4TOrA6VayTNNws1berbcQpxCLUlIgUI9zVmx1sgTxlqQJoAjIfsW-1DqRkaYXKkGgzXFTBszJOcYaH3-4gjfzwoOhJhu3FEDrA4ZLpyb4n5q9vkhNQMQL14wRXcECzpMmYZtKWCmvtOm62QHNdZWiuTR26IWbodmTT44ZCxeNt0jGPDA85g-mattSa_4hrZ9B7G8MfFtbvknvWoopdIdRC2bYrqEczT6x0nvq9AsJdsllu_YQCH-6IYCN5rNZrvp6oKLKON1LrDPJfE2Bjj1zfWOQCUZWGtqLKLZ9cZoLQekDn7QglILGn5IM7Ra8GDNukBO6OMRU5KGVT6nBDKRtlhL4PjamkRa5X562fYomB3fsA1XF_tNB4iPLxWGecur4G8UU83-fg44VfPuC2jT6kIm8ESwLaUMN4Ra1z8gV6ga7R9o3u78-3gr9Cs1SFfpMPc2K1D4Lp9xX2YbGGYB2jA7BiyG5VginbqFDDjjaLWa-fjNeFRGLneQKJP9R5O-jO8xKYzOf4HMQOWuuxMRBNZsZ49i0iPyELfcOFnrzGf0wQo</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IllJVUNVY0hXNXNycEwxcHA4aTRfdUVzT0JDTmk0d1VIVllfOUpPSVd0MzAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQ0MjAwLCJuYmYiOjE3NDQ2NDQyMDAsImV4cCI6MTc0NDY0ODg4MiwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBRjIzOEQ5WFhnOTU4T3RVNVRSSzQvR0NTaWVOSm5HTjBtdFllOS92a1Z6RE50RWdVZnRzZUVlYUtrUkdYRVF0a3IyTkRxMWNnaEJiVnhVSnNMMlBFTVNIM1NHL3pSY0YvN0FnR3hsZ2Y3VEZKZnkzL0hIR1h2ZEpYRjZYQ3hjblEiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJaWnhtTGV0LXVVV3hpM1JoSXN1eUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlNrUFFDc05RZlJLMFZBM2xfdGNfSEpfVTJPZkMtbkk5SEt5OTBCTEpEXzgiLCJ4bXNfaWRyZWwiOiIxIDI2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.P8UQ7bmHBsCrJJLFYLJ9Oq-pRnERJK2aps7gsqAGbFlQMxklZGUi_gessRCqskBXA5-4F1Wd1iBBdCMYMOurBZWZfqkKSAxM8YqOlv0ffGD0C8MJatggOSqI8NYuw8qfL7JmnA2CjIMlz9ZIX_LZWogZxojRRaq469gPW-liMknTzZoQMxPSsDiRQ21AucxDkdsAfqGy4nLCk8w7v7q1zW-rHet5gJOHQ2rwb23txbMirr1pSuEu0c7jYX-YIzKKIa3xt-4H-P9glYdjrWQGNgXH_0lW_fR83XdUbmrP767L8szomIa1ERJz_38f5cJKutDi6ErDK9yLxt8Zw509mQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ikg2TFlMRmVKUGxfRTRIc045Mk03c1p5QVlxRnJia3FVcXhxbXN3NkM5VE0iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQ1MTIzLCJuYmYiOjE3NDQ2NDUxMjMsImV4cCI6MTc0NDY0OTczMSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBZ2FvQnByYjFPMDFoNHYzWGxYZTdiR2lrcXlWRk0wbk9nY2Q0Y25pSndhejRSRWlwcDlGL1UyMDdWdlM2U2p6d1Y5U0RsOUUzV2Q0SFo4QWhsZmJoRURhOURDRS9zSmhTV1Q5NUlDNjB4NXhFSXh6eW5sSzhlTEE5c2p1dkE1MEYiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJCaWZBeGxzX0QwU2tMNjFKMVBJeUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InRxT2N0UHBHdWVxNVhSRzYtdWswQ1E5YXRmR0dZNnNVYXg5M1k0c2JfUFUiLCJ4bXNfaWRyZWwiOiIxIDEyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Eoz8kv0yUb4_BScihPHaCP5RYP9_xvwVnHNK4R07unjAP5HTO7h9xnZN7flzORwpGkcL-hYnCn8bjayzaraljWqhZQtQfLVWSp8f5Ruj0AQ3EpBLQTb2GYgw4Nh42wXk32-O22uHItVSRoo-Ekc9xrnV93iiP77l8Bzbk8bOQhFx83E6Gc-v4KuGvVpKTQGlALFNC8xE_22Gw8V7XRxySwZOFqChoTLAPGmt39ckpFp9EM3X7suIa2gBxrQmVV0PepaesZlKfyuSUN4QEUJV0DZGHD2g8yOzNNxXqIPj3FZmmnlxiyxweOTY_uOn5R1-YK7Cp-0Jxu9jhVqXD9AZyQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_LL4muA2XgJYiAnVDjY-HfhdXJXWEsZm7ao6-IMOuUwMQo_XHOqsO2SeYiHIOIAyQX-jhH52DkBVKNSwUWQm1sofYftUGeKehl9jWcWQWTC-rkC2gVF_cPBiyeGVhgOYyxUBygNL5rPMi_glDGot18ybfiis4QZ36F1pKts1oR-xsVHDNIn4lImbSNyw9PKGeHkmbpdRBtJt7b2Wvq3WiVtP8v5vLpRI2tkFyeIztG10QAJizlMhkpSqJneJjFdZDA-bg-kUcrtHPsYcufzutZqNedyGnj4upKTLv6rua5UTiR4TOrA6VayTNNws1berbcQpxCLUlIgUI9zVmx1sgTxlqQJoAjIfsW-1DqRkaYXKkGgzXFTBszJOcYaH3-4gjfzwoOhJhu3FEDrA4ZLpyb4n5q9vkhNQMQL14wRXcECzpMmYZtKWCmvtOm62QHNdZWiuTR26IWbodmTT44ZCxeNt0jGPDA85g-mattSa_4hrZ9B7G8MfFtbvknvWoopdIdRC2bYrqEczT6x0nvq9AsJdsllu_YQCH-6IYCN5rNZrvp6oKLKON1LrDPJfE2Bjj1zfWOQCUZWGtqLKLZ9cZoLQekDn7QglILGn5IM7Ra8GDNukBO6OMRU5KGVT6nBDKRtlhL4PjamkRa5X562fYomB3fsA1XF_tNB4iPLxWGecur4G8UU83-fg44VfPuC2jT6kIm8ESwLaUMN4Ra1z8gV6ga7R9o3u78-3gr9Cs1SFfpMPc2K1D4Lp9xX2YbGGYB2jA7BiyG5VginbqFDDjjaLWa-fjNeFRGLneQKJP9R5O-jO8xKYzOf4HMQOWuuxMRBNZsZ49i0iPyELfcOFnrzGf0wQo</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8PkaAQ17SqmBDjrlrW8cGwREaU00QbPvkjehREvYzCbEVY49s3BriVRu5EmzBErQzr1EIYsmvaO8FSTSfIoO3pxFN-iYHunZwxM-blPK6hXOPFsafAc1SkjcM_SAMVTVXRN9FRc9TmhjItnWsI708XDgZ6M6IouPbtRIY3D5Q8QsBcCHTacrm3xgemyyQfUIeidFkXVrdLMIlFQfR1d1LrMR-cwCY8KwVETSlqzzoTBmTlLFM5TbPhvAMu1zfgbjeNJYw8k4Uth0dUrq3nugv-p_Bwen1FczO5QH7PgmRRyPjqnWnYq9GnLeG76AaL8AhcoZsrYI2BwpgsY1m4TvUaRnqdmhL7eGiBkj4OcILIUhkNtNETHr04U8Q6kD1mr5_gKOXu3vPfLYo7H4h0K9cGTGwX1AtCzcX_YlGJEEsL7AG5ZFmREKyCKzGhRzdPXHeDs60DZfjxlv0KuvsYdIfZZwpZJm0Db4ebGRwhiUED1m4Fii-LeoS8mkgl9qmCCKkpeeeQmcKX9lWBj1qR2JDlf0h0pBDMSW790pB53bb-BBGhltH-mBpiE5r-iR-zoMZSU8N9jVIcYqSED0wKCUCPMOlCmSaK6VpE5oYUSSjmWG1Elr5ZMlYthv4wPgO0jjQgsQikMH43ch4UR2KhWMloMWyvQdCGXuZzD0ADOobx5-WjwqP3c7fcEwzXCZOp1hIGDtbWuo2n1EgpFAEcI2w0I5zcou2p9IkCulzlkpao8GdfESjN5bSuPCIfMLIeX1q3psk9KTj9FjstEyZwlylduze68D88DRP-iwmTZK0f5Q5jpUbdUPk8Lt0GDGC-rUKsaBH-t_kK-cSTe4485d3EwxuBrWU</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6Ikg2TFlMRmVKUGxfRTRIc045Mk03c1p5QVlxRnJia3FVcXhxbXN3NkM5VE0iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQ1MTIzLCJuYmYiOjE3NDQ2NDUxMjMsImV4cCI6MTc0NDY0OTczMSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBZ2FvQnByYjFPMDFoNHYzWGxYZTdiR2lrcXlWRk0wbk9nY2Q0Y25pSndhejRSRWlwcDlGL1UyMDdWdlM2U2p6d1Y5U0RsOUUzV2Q0SFo4QWhsZmJoRURhOURDRS9zSmhTV1Q5NUlDNjB4NXhFSXh6eW5sSzhlTEE5c2p1dkE1MEYiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJCaWZBeGxzX0QwU2tMNjFKMVBJeUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InRxT2N0UHBHdWVxNVhSRzYtdWswQ1E5YXRmR0dZNnNVYXg5M1k0c2JfUFUiLCJ4bXNfaWRyZWwiOiIxIDEyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.Eoz8kv0yUb4_BScihPHaCP5RYP9_xvwVnHNK4R07unjAP5HTO7h9xnZN7flzORwpGkcL-hYnCn8bjayzaraljWqhZQtQfLVWSp8f5Ruj0AQ3EpBLQTb2GYgw4Nh42wXk32-O22uHItVSRoo-Ekc9xrnV93iiP77l8Bzbk8bOQhFx83E6Gc-v4KuGvVpKTQGlALFNC8xE_22Gw8V7XRxySwZOFqChoTLAPGmt39ckpFp9EM3X7suIa2gBxrQmVV0PepaesZlKfyuSUN4QEUJV0DZGHD2g8yOzNNxXqIPj3FZmmnlxiyxweOTY_uOn5R1-YK7Cp-0Jxu9jhVqXD9AZyQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImhwZnZWTlZxWVU4SkFhNHZCcExYdUNfWjBYNFNrd2JSY3hOc2JiQXVXemsiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQ1ODQ2LCJuYmYiOjE3NDQ2NDU4NDYsImV4cCI6MTc0NDY1MTM1OCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBYThNMGJ6SzBFNjFWamRKMmdYeHR4SnBMMTVFUnlNTFVEZ1I3aHBBUjl5cHZBQUtIRGdHYUxoenBnck13VzBaUGtPK1dleHFNbC9rV2lLaGFmWDlyaVZhb21lcDBGcUtLUkFNOFBISExDaWZuY0t6S3IrL0ZQZnpPMVQrOHA3ZUsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJyQVZQZDF3Q3RrbVQweG5WaDRBQkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImZiWmZjS0RFM3EtRElkVFRCYm1BVWtwRmV6cjFZUEpIVUVPcmZDNkJEQlUiLCJ4bXNfaWRyZWwiOiIxIDE2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.KtGnbTpW4LUOT6BLyH5mOaR5Z1Ci5qhkZUxkiUqkacs4q86_LYAY7X2WBHqcgkzGcUs5mjStdl7JBW2-wX5XTICB3_lyy9qvemw5gHybhTOWVtfqzWXs7vXtzDp6xq_QBDNOqBTUe4cBIWxdfwff9qRlwGT8bRJgBJ75cfKrS_ySkTnt3fmeSCbyaBjfUmudywaRWFhBFLFJMYiiCCKc48aK1qF5DgfKQa9VrNAqIW1qlWzB7P91Ec30nuwqpy2lFdSs6NVJpEEFeUdqj2ZRXypBCYNcrI248rXezUjteLQCBAB7xf2O5QNbYDFsB8H-CSD3zhgcd41SiMhhKgj2CQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8PkaAQ17SqmBDjrlrW8cGwREaU00QbPvkjehREvYzCbEVY49s3BriVRu5EmzBErQzr1EIYsmvaO8FSTSfIoO3pxFN-iYHunZwxM-blPK6hXOPFsafAc1SkjcM_SAMVTVXRN9FRc9TmhjItnWsI708XDgZ6M6IouPbtRIY3D5Q8QsBcCHTacrm3xgemyyQfUIeidFkXVrdLMIlFQfR1d1LrMR-cwCY8KwVETSlqzzoTBmTlLFM5TbPhvAMu1zfgbjeNJYw8k4Uth0dUrq3nugv-p_Bwen1FczO5QH7PgmRRyPjqnWnYq9GnLeG76AaL8AhcoZsrYI2BwpgsY1m4TvUaRnqdmhL7eGiBkj4OcILIUhkNtNETHr04U8Q6kD1mr5_gKOXu3vPfLYo7H4h0K9cGTGwX1AtCzcX_YlGJEEsL7AG5ZFmREKyCKzGhRzdPXHeDs60DZfjxlv0KuvsYdIfZZwpZJm0Db4ebGRwhiUED1m4Fii-LeoS8mkgl9qmCCKkpeeeQmcKX9lWBj1qR2JDlf0h0pBDMSW790pB53bb-BBGhltH-mBpiE5r-iR-zoMZSU8N9jVIcYqSED0wKCUCPMOlCmSaK6VpE5oYUSSjmWG1Elr5ZMlYthv4wPgO0jjQgsQikMH43ch4UR2KhWMloMWyvQdCGXuZzD0ADOobx5-WjwqP3c7fcEwzXCZOp1hIGDtbWuo2n1EgpFAEcI2w0I5zcou2p9IkCulzlkpao8GdfESjN5bSuPCIfMLIeX1q3psk9KTj9FjstEyZwlylduze68D88DRP-iwmTZK0f5Q5jpUbdUPk8Lt0GDGC-rUKsaBH-t_kK-cSTe4485d3EwxuBrWU</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_BJ-UnU4sXqn1uaebKCOotrItOh32Bgbjynq1HIMeIDvka0VEV1bMgtQOf_OTn1w50IrferieffE3k2i53X-r0DXj4fzNPQwmxqYEfkQKJrydioOEIKeHC8547pUHcWA2irsWwFTQkp6ggx5b7gJL-2L3oNn5h48BXPjfDTJ3g1zqSdXgxMduZAc8dMN990l-82W2vZY8PxDDC0XMNGFBQLSp4FoXvK06cLi-Zc_k1D-n72aG13LvRLVuLfcg2mfyjQwK9J3u21ZEDactxLhD9dzUwPxYUEHRdkLJRN0463vdWr37gNVDIwaghuancaRmHHFe5WwSRyhTPbQLikyDssW8gyaMM5OT-EjRV_uT4tH_acmhE_qeWC8rD-cXPWp15-Ut2A2tc4ftBWUNaFu1a0hh9cUntiMi8c96inT2bQhFQS0cFNTvGM4ezNRABdfAgoT_sVWZzj_LS8RlKrR7H_Oiruf7_DjhoKLpl4vGGaZ0EX1eaIAsXSXzN7FbvSzVodhXl_ngAeJHwQ0UOYEH9GlLK7Iawe0I7Y0FoFV8EVbxR55WNXvOsiYCgWs97lJMiJSM0qeJ8KsC7oxNYHBxJpUPggnTYhLBBtyu83n3y9_eC25FBu2DbiTiPiuua6_ZuEyzEugPUwNayWKlMzVdXrIBnrIdk73rVCRR2m7XqcrnUBaijbbAD0Q3k1mNuxcNR_rzkrupQ297mtOQ3l1xeTeRagP5eSwje7epnYRwkkwo6PnSZirs2cyietVF2iE85poCUoA1chofuzaG1G7Yeh4r1UlXFwc459MFe4WmwWPxuXqY-QihPjwaStk_q6uLvdnxgpNNkCUekcJXE5Uoa-fWK6oM</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImhwZnZWTlZxWVU4SkFhNHZCcExYdUNfWjBYNFNrd2JSY3hOc2JiQXVXemsiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjQ1ODQ2LCJuYmYiOjE3NDQ2NDU4NDYsImV4cCI6MTc0NDY1MTM1OCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBYThNMGJ6SzBFNjFWamRKMmdYeHR4SnBMMTVFUnlNTFVEZ1I3aHBBUjl5cHZBQUtIRGdHYUxoenBnck13VzBaUGtPK1dleHFNbC9rV2lLaGFmWDlyaVZhb21lcDBGcUtLUkFNOFBISExDaWZuY0t6S3IrL0ZQZnpPMVQrOHA3ZUsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJyQVZQZDF3Q3RrbVQweG5WaDRBQkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImZiWmZjS0RFM3EtRElkVFRCYm1BVWtwRmV6cjFZUEpIVUVPcmZDNkJEQlUiLCJ4bXNfaWRyZWwiOiIxIDE2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.KtGnbTpW4LUOT6BLyH5mOaR5Z1Ci5qhkZUxkiUqkacs4q86_LYAY7X2WBHqcgkzGcUs5mjStdl7JBW2-wX5XTICB3_lyy9qvemw5gHybhTOWVtfqzWXs7vXtzDp6xq_QBDNOqBTUe4cBIWxdfwff9qRlwGT8bRJgBJ75cfKrS_ySkTnt3fmeSCbyaBjfUmudywaRWFhBFLFJMYiiCCKc48aK1qF5DgfKQa9VrNAqIW1qlWzB7P91Ec30nuwqpy2lFdSs6NVJpEEFeUdqj2ZRXypBCYNcrI248rXezUjteLQCBAB7xf2O5QNbYDFsB8H-CSD3zhgcd41SiMhhKgj2CQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkltOERab0poOUlmTmR1RmlXUWdmMHpPUGZlYmI3eFZFbFlMQlIweEZwLUkiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjkxNjU1LCJuYmYiOjE3NDQ2OTE2NTUsImV4cCI6MTc0NDY5NzEwMywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWmFFK01peGtmVWJHZ3FnVnROeHNGWHpqNGZxSndZRk5DM2poQTJ5SHBRdk1ncmdyUjNudHJ0MTB5YzArOTlYS3NtUUFqWkpGR3gxdVBrTHpFOXFuOFlNQytkVnpxS2R5ZUswQ3dqTGIzU091VmFKQldWUVVvRWZ2dURWbmlqcnUiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJEZXRIMmV4dl9FbThiNG5IX3A1TkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ii1aWlVZNDZoSDNSdFZEZHMwWEJ4a09GN3pqLWs5dGRLSHlnS0Q3blVqNlEiLCJ4bXNfaWRyZWwiOiIxIDI2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.THSjshDrhaUL7A4BJrNZtvRCdIVW7wny6doxtCYbBdheqvCMRBW5c2-zjonNeyUWtXghzDddb_y23ksUI9F0JJdWMLZYVclpHAC_jux60DesQQ3Yi5UPmp5JYfHJu6PcjdDskws9w2doTIiHeu5fAY3WGKS7l1Z9QGf8-tmlTX-GXcivtlc7KB1gzEu-ADOeUHYxzhCYChgk7dvc2-inpjXkjGfHulqFZB_2VXZi8V48bKwXsw-voCPhQEQi-72tx4R4hMLUSMZBJuixVlR8jHvJa9mP4_FkDRxnPI_4RrAFbQDQk_QtaXV8UaFF9rSe89QjPS08OPyD7LHkRs6e4A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_BJ-UnU4sXqn1uaebKCOotrItOh32Bgbjynq1HIMeIDvka0VEV1bMgtQOf_OTn1w50IrferieffE3k2i53X-r0DXj4fzNPQwmxqYEfkQKJrydioOEIKeHC8547pUHcWA2irsWwFTQkp6ggx5b7gJL-2L3oNn5h48BXPjfDTJ3g1zqSdXgxMduZAc8dMN990l-82W2vZY8PxDDC0XMNGFBQLSp4FoXvK06cLi-Zc_k1D-n72aG13LvRLVuLfcg2mfyjQwK9J3u21ZEDactxLhD9dzUwPxYUEHRdkLJRN0463vdWr37gNVDIwaghuancaRmHHFe5WwSRyhTPbQLikyDssW8gyaMM5OT-EjRV_uT4tH_acmhE_qeWC8rD-cXPWp15-Ut2A2tc4ftBWUNaFu1a0hh9cUntiMi8c96inT2bQhFQS0cFNTvGM4ezNRABdfAgoT_sVWZzj_LS8RlKrR7H_Oiruf7_DjhoKLpl4vGGaZ0EX1eaIAsXSXzN7FbvSzVodhXl_ngAeJHwQ0UOYEH9GlLK7Iawe0I7Y0FoFV8EVbxR55WNXvOsiYCgWs97lJMiJSM0qeJ8KsC7oxNYHBxJpUPggnTYhLBBtyu83n3y9_eC25FBu2DbiTiPiuua6_ZuEyzEugPUwNayWKlMzVdXrIBnrIdk73rVCRR2m7XqcrnUBaijbbAD0Q3k1mNuxcNR_rzkrupQ297mtOQ3l1xeTeRagP5eSwje7epnYRwkkwo6PnSZirs2cyietVF2iE85poCUoA1chofuzaG1G7Yeh4r1UlXFwc459MFe4WmwWPxuXqY-QihPjwaStk_q6uLvdnxgpNNkCUekcJXE5Uoa-fWK6oM</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8GJJ9C_Gf7SEPvGXf703glpkbmkwuNxsZuTqnowJ7DNqyvJxHuLXaptFONAP1TyUEaJnn2GQMTHYGvjC_DBl0TYmcBV8-yM-8mp7aXBACeWkhBS5LrXlwRN85Q9DlQVbBpAwsVPJA_vxNOu_l9bwFjXHXW18zkKva86Ch-wyWrtf0rwmFFor-TWEDSPqWnXgfZx1CbkgtWwwRTZIsY5Y4YGYu3oZPOISVPYnRA5DftUma4lP13h0I-q_56eqyQfQQn2YSv7t94Cf0nQo8o25JpF5WnCcmCLCwtxS78HP2_A7o7iC6ZwuBSxX3iRw5jp5b9u7ykFulzW232-vv3CNFRxr--1FAu5Je4XlEyg5WNaOzBuZeddC2-8HSW9S3tpGLIlEBHy-sdqkaI9_F0F-YMQoAZl1lNpaRPIrZbu_jMKt1PZIdW4BT4aYUBwrUaYhUCcxsVsNrvKH-JeLe_A7HxdOxTE9Q9OcZYJ4qmqH2dEuoCxzuZH4TGt74N6S8P20w843nDAO4x74qsCA8i47_B7pfkHbX5QIlsjeO8xUn30ICEH_1DYxurW47FZKjPFcBOkQrVFufR-39nVZrbCOBoBTEvVKJlzvbord9r9JXibpiEVmXRvFsd9PypZsDalPRM74yG8NptTSJIBqhuW1foKoyM6IXaR45G5Te5e4cjsxeREAcL7F_oAZm98yKaQ-iulp5mNFjSJ4uvoRn1SVyW_ccP5qDouYKhl5W7NyM6exn_cJ4QC1X5nnYk-DS9EiHF487AErZ1P941sBdNnvcvYY8UH5BIiQn_-qclHdiaGwdwHhGpBZoGVFFHeyxyqt1j34S1O4IqDzaiNG6x8W5IpwEhrYo</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkltOERab0poOUlmTmR1RmlXUWdmMHpPUGZlYmI3eFZFbFlMQlIweEZwLUkiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NjkxNjU1LCJuYmYiOjE3NDQ2OTE2NTUsImV4cCI6MTc0NDY5NzEwMywiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBWmFFK01peGtmVWJHZ3FnVnROeHNGWHpqNGZxSndZRk5DM2poQTJ5SHBRdk1ncmdyUjNudHJ0MTB5YzArOTlYS3NtUUFqWkpGR3gxdVBrTHpFOXFuOFlNQytkVnpxS2R5ZUswQ3dqTGIzU091VmFKQldWUVVvRWZ2dURWbmlqcnUiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJEZXRIMmV4dl9FbThiNG5IX3A1TkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6Ii1aWlVZNDZoSDNSdFZEZHMwWEJ4a09GN3pqLWs5dGRLSHlnS0Q3blVqNlEiLCJ4bXNfaWRyZWwiOiIxIDI2IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.THSjshDrhaUL7A4BJrNZtvRCdIVW7wny6doxtCYbBdheqvCMRBW5c2-zjonNeyUWtXghzDddb_y23ksUI9F0JJdWMLZYVclpHAC_jux60DesQQ3Yi5UPmp5JYfHJu6PcjdDskws9w2doTIiHeu5fAY3WGKS7l1Z9QGf8-tmlTX-GXcivtlc7KB1gzEu-ADOeUHYxzhCYChgk7dvc2-inpjXkjGfHulqFZB_2VXZi8V48bKwXsw-voCPhQEQi-72tx4R4hMLUSMZBJuixVlR8jHvJa9mP4_FkDRxnPI_4RrAFbQDQk_QtaXV8UaFF9rSe89QjPS08OPyD7LHkRs6e4A</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImNyRmdDOXd4TnBZdkZxMVZYMkJDc0JHN21IRDBSUEhxeU1DaWI5cWw4Nm8iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NzI3MzUzLCJuYmYiOjE3NDQ3MjczNTMsImV4cCI6MTc0NDczMjE2NSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBNk9hejltWjlSU2hKYjBHMGFvaWNNdDR0R3cyMFRteHBEZDMrVTZQSWNxR1FrUytlTldyMFJxZ04veVBOSElzNGtxdnJwajVhcFBSYWprYmhQTTF0WVdzTlJRVHpKeTEzZDM4aXVZdnhnMXBGTTBCYjBmRHRFakNRWVMrWGp5NWsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJhcXJIaTY3cXNFR0tOVHlFTkU5VEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImU0SDdGQ0NFeUZVUWdXd1c0LVM5MFFGS1lHRUFSbnJsTEd1c1dxcGg3ak0iLCJ4bXNfaWRyZWwiOiIxMCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.ULZrN7wNTX94AxjEzALbsE5ZjYx4sPPgsn4ENVfnM_OXkEsq0aGZX0xdDEKHlFhLVwZZ72BGqeEZ5YlrGn-QgTeLuKJpCEQoP43Ba0fXcwa78bk7seyOUJmKDuwB3QdYECFoh-oNphCrDJe9nS7ma_SCqhXcgyrlm3y1QYF0oLBHoDVuk35M3yUFIxs7qQpib6n71RsKjhybdrvZQ1rtiPx-0fCLxeLHvviXDawtxLRzV0wtL-Mr_iqVEHd5G2sxXS1MF9Ihwyed9jOmq0xDHEMy9v02rjctQ3Um_k2rViMrENXCueaSdjVK4fd90x8gJsWMXnyCaOLS01dVYqpHHQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8GJJ9C_Gf7SEPvGXf703glpkbmkwuNxsZuTqnowJ7DNqyvJxHuLXaptFONAP1TyUEaJnn2GQMTHYGvjC_DBl0TYmcBV8-yM-8mp7aXBACeWkhBS5LrXlwRN85Q9DlQVbBpAwsVPJA_vxNOu_l9bwFjXHXW18zkKva86Ch-wyWrtf0rwmFFor-TWEDSPqWnXgfZx1CbkgtWwwRTZIsY5Y4YGYu3oZPOISVPYnRA5DftUma4lP13h0I-q_56eqyQfQQn2YSv7t94Cf0nQo8o25JpF5WnCcmCLCwtxS78HP2_A7o7iC6ZwuBSxX3iRw5jp5b9u7ykFulzW232-vv3CNFRxr--1FAu5Je4XlEyg5WNaOzBuZeddC2-8HSW9S3tpGLIlEBHy-sdqkaI9_F0F-YMQoAZl1lNpaRPIrZbu_jMKt1PZIdW4BT4aYUBwrUaYhUCcxsVsNrvKH-JeLe_A7HxdOxTE9Q9OcZYJ4qmqH2dEuoCxzuZH4TGt74N6S8P20w843nDAO4x74qsCA8i47_B7pfkHbX5QIlsjeO8xUn30ICEH_1DYxurW47FZKjPFcBOkQrVFufR-39nVZrbCOBoBTEvVKJlzvbord9r9JXibpiEVmXRvFsd9PypZsDalPRM74yG8NptTSJIBqhuW1foKoyM6IXaR45G5Te5e4cjsxeREAcL7F_oAZm98yKaQ-iulp5mNFjSJ4uvoRn1SVyW_ccP5qDouYKhl5W7NyM6exn_cJ4QC1X5nnYk-DS9EiHF487AErZ1P941sBdNnvcvYY8UH5BIiQn_-qclHdiaGwdwHhGpBZoGVFFHeyxyqt1j34S1O4IqDzaiNG6x8W5IpwEhrYo</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8Rw6dshR_n9_dGVj3BBVWd_Puf26OnKZhLvOgGqt_LJw02NJ8BdmUFUiH3-dbQfEHqse-V80e2L3mLYB1_SkXKt8yT9qWJcpOjEi4E3yJNvN0rr-t2yNEcE_Lhm_uAjezlIWVM977UeVaSxZBehL1bi31rfMHfoZQPZTacXc2nruNe52wOT2FNBGKT5nh58UjzDOpICOi5heRh80Thpc72680eFwSPzBQFEfl9btLudfMlfhuEx5S0mB3VkU97eJXTqh4-T71biobMEeo0RpS1vyqOcWaK3CwrpIDGTg2yge3df5ySHSM8mQz4Rmc6WMKrW2PbUXLOiZ-hn8gvY7tbFmH9O4YwEa7HXMCRtWI3SsfVUJUf0RAfL3vqRTl9QR-hysdi6buE2uEBlqfqj9jqyUUjzxvttoO2qXmFYa_ZrQQ-wT7ETpeGpukb8-V-93SB-EsIivOWxC4IwMbLhgc-tF8o63BDikXrIDtSA9NeV8K82FcBiOwSAIbjwD26474P-wjQcZ2BilT99n9oxid1zI3Nb6PE6PI-pd4nGYZhRbNRuxM2iMCvHpscfI2R2SVooKZYdMsxxvd-aoKKkikSF_ksXZyZqLOyEA9kJWox759diYoijMC5xcy74LcMzJl4bQKA_ZR9FPPdQUZ5kgXkUmBQPqvZ1VPElHkF9Pm7da8eRw5GW9nuwxouNeD1Kpu6jo1EwItNURX_ACoUhcIpaPrXhb_FTuVN7_MTwXIOWYWNTBwDHCxGLyRkaKg1AU-N5RmWX2kACco1AdfcKIHkxsV2-O8wlA8ZOxVdumZ8oZ6wSjHSLpmWj5e0nB8PhsOox9Q-2dV-j4BUoC9uLJChbIYXOpo</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImNyRmdDOXd4TnBZdkZxMVZYMkJDc0JHN21IRDBSUEhxeU1DaWI5cWw4Nm8iLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0NzI3MzUzLCJuYmYiOjE3NDQ3MjczNTMsImV4cCI6MTc0NDczMjE2NSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBNk9hejltWjlSU2hKYjBHMGFvaWNNdDR0R3cyMFRteHBEZDMrVTZQSWNxR1FrUytlTldyMFJxZ04veVBOSElzNGtxdnJwajVhcFBSYWprYmhQTTF0WVdzTlJRVHpKeTEzZDM4aXVZdnhnMXBGTTBCYjBmRHRFakNRWVMrWGp5NWsiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJhcXJIaTY3cXNFR0tOVHlFTkU5VEFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6ImU0SDdGQ0NFeUZVUWdXd1c0LVM5MFFGS1lHRUFSbnJsTEd1c1dxcGg3ak0iLCJ4bXNfaWRyZWwiOiIxMCAxIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.ULZrN7wNTX94AxjEzALbsE5ZjYx4sPPgsn4ENVfnM_OXkEsq0aGZX0xdDEKHlFhLVwZZ72BGqeEZ5YlrGn-QgTeLuKJpCEQoP43Ba0fXcwa78bk7seyOUJmKDuwB3QdYECFoh-oNphCrDJe9nS7ma_SCqhXcgyrlm3y1QYF0oLBHoDVuk35M3yUFIxs7qQpib6n71RsKjhybdrvZQ1rtiPx-0fCLxeLHvviXDawtxLRzV0wtL-Mr_iqVEHd5G2sxXS1MF9Ihwyed9jOmq0xDHEMy9v02rjctQ3Um_k2rViMrENXCueaSdjVK4fd90x8gJsWMXnyCaOLS01dVYqpHHQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkdmNTNUblBuQ05EM0Z5S3ZoOTQ0dDZXX0Jic2tkeXVfbTZMaUVBYlU5X3MiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0Nzc3ODU5LCJuYmYiOjE3NDQ3Nzc4NTksImV4cCI6MTc0NDc4MjY2OSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBNko2RFdIV1c0Qyt2VzFJLys2RURkWWdRbFpPazdVZEZ2Z2JTWjhRQk5xU2FkbjQ3NFpscU1QUVdLK0gyaHRjN3RuUHUwSmpvaE84cUdLK0FyaTRlMXZuVjRPTUo2WGZmZXNTTkdSY0w0d3NtbVFpM0NPY1BYOFo4NmMrQVdlbVIiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJwd3FDZE5XMTRrQ09wVnZleHhaSUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InFtS2ZKWDVPZTBBTGdLbUdWY1lxejFZRDRFYzJ0VE5qWmJQRXd3OHk4YmciLCJ4bXNfaWRyZWwiOiIxIDI4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.dl6woGYVbhZ5GvdUKi48T0NwRNvVVJK2mjLKXaY2nQ1JdkSMHNoJxdeaqQftMaEuMesj1OQnvbi_5SN-oD5_M0Xc1MolMw-Ar3fUnGjHfSpA0zaQ3tjeEhnyOWwfo9XfHsyKAU1w1P3MTHehbaOizK-C2LsIn88hpnsEDnexOzT8mhjjSrMyX-_migzdOIW6h0rqXwmF0GxyedfMs6bsv51xllCJhcuDT1gUSwIqDsR328ZskvSiAryIuQslWdDWt7EDWIJTtBS8rE3-i45JP_O9NmsNEi8WY4N7ZWkYUzyCLqhHJU3coTIRMYMBMsqw8IojJIrj4BfJk6GYbzqOHQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8Rw6dshR_n9_dGVj3BBVWd_Puf26OnKZhLvOgGqt_LJw02NJ8BdmUFUiH3-dbQfEHqse-V80e2L3mLYB1_SkXKt8yT9qWJcpOjEi4E3yJNvN0rr-t2yNEcE_Lhm_uAjezlIWVM977UeVaSxZBehL1bi31rfMHfoZQPZTacXc2nruNe52wOT2FNBGKT5nh58UjzDOpICOi5heRh80Thpc72680eFwSPzBQFEfl9btLudfMlfhuEx5S0mB3VkU97eJXTqh4-T71biobMEeo0RpS1vyqOcWaK3CwrpIDGTg2yge3df5ySHSM8mQz4Rmc6WMKrW2PbUXLOiZ-hn8gvY7tbFmH9O4YwEa7HXMCRtWI3SsfVUJUf0RAfL3vqRTl9QR-hysdi6buE2uEBlqfqj9jqyUUjzxvttoO2qXmFYa_ZrQQ-wT7ETpeGpukb8-V-93SB-EsIivOWxC4IwMbLhgc-tF8o63BDikXrIDtSA9NeV8K82FcBiOwSAIbjwD26474P-wjQcZ2BilT99n9oxid1zI3Nb6PE6PI-pd4nGYZhRbNRuxM2iMCvHpscfI2R2SVooKZYdMsxxvd-aoKKkikSF_ksXZyZqLOyEA9kJWox759diYoijMC5xcy74LcMzJl4bQKA_ZR9FPPdQUZ5kgXkUmBQPqvZ1VPElHkF9Pm7da8eRw5GW9nuwxouNeD1Kpu6jo1EwItNURX_ACoUhcIpaPrXhb_FTuVN7_MTwXIOWYWNTBwDHCxGLyRkaKg1AU-N5RmWX2kACco1AdfcKIHkxsV2-O8wlA8ZOxVdumZ8oZ6wSjHSLpmWj5e0nB8PhsOox9Q-2dV-j4BUoC9uLJChbIYXOpo</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_MechHRLFjO687sOMRM17Ot5F3-5n70OBlqHzU2AiYS7vptaGotSziR4gS1wJk9JXe_9sRjZrgWM-dfnp7N-CQkQkCXWO1oNktNFHarkHKQlojMLd8PZgMsR1DsabpK6a8Ff5PjwbukkxwO3lcGazED3lyFLqKMxTdAEPkaNE9iMEIOO6qNhk9_KKkjgu2JpwKWo1JZX-eRepkhHmq_tCm1D0mQbTp643wXs01wK0BoorCSQrYo8m_koI3-FJXVsbUsUE3sG494etVho6JHjebfk1ZfA4mnxFub80DTXTmGp6lflVsdT4EtAyz9LKbnv6W60CMLwE8yvWsgs8BCdD6IEq-SjYteApWeLvtF4HaRk_SqtwagGiF9HhHhm9sHl-BTC4diiNZBMzQUOXcKsdXxobjiclVCzKG_5MCOdeo-YLYdPdnPiDebIf8j-ujzuzSx7LCCFwqcw0_V3qKWMlg_ZHILyhtHFnwc2NT9onC9nECNMzQP8bJkgSeROlFJaexMR9Y1GujnX1yFvT8iZT-Yzb7GFehuJg0cidtcveNrCYcVS4yvQF4X8VJy-7wmE6N0VdU_GIZ1c-LgbV_YXUj2TaDN4JH6AnjnYUOSbrPAGzhngIZNRD616eZngEPGHJYRmpYfIvdOsDWxtgeKThQysXaNw1IMdgziQaZrVJKyxIzfkyQz02pDCWfQDQgjwElCn-pIXN3IteMMGwUMvJcwQH1V4j2zfVdfm03Jvf5yu6rP8jBcmQXgwDUfStMYzbU6rqI_JN1ikrr1UoELenzW7dWcAxk1nKOc-F55ULDZG5sLElHcmKUwJl_NiG1i_kaKjDbtimrmpYwhlVC_Rdl8VGCaME</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6IkdmNTNUblBuQ05EM0Z5S3ZoOTQ0dDZXX0Jic2tkeXVfbTZMaUVBYlU5X3MiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0Nzc3ODU5LCJuYmYiOjE3NDQ3Nzc4NTksImV4cCI6MTc0NDc4MjY2OSwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBNko2RFdIV1c0Qyt2VzFJLys2RURkWWdRbFpPazdVZEZ2Z2JTWjhRQk5xU2FkbjQ3NFpscU1QUVdLK0gyaHRjN3RuUHUwSmpvaE84cUdLK0FyaTRlMXZuVjRPTUo2WGZmZXNTTkdSY0w0d3NtbVFpM0NPY1BYOFo4NmMrQVdlbVIiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJwd3FDZE5XMTRrQ09wVnZleHhaSUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6InFtS2ZKWDVPZTBBTGdLbUdWY1lxejFZRDRFYzJ0VE5qWmJQRXd3OHk4YmciLCJ4bXNfaWRyZWwiOiIxIDI4IiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.dl6woGYVbhZ5GvdUKi48T0NwRNvVVJK2mjLKXaY2nQ1JdkSMHNoJxdeaqQftMaEuMesj1OQnvbi_5SN-oD5_M0Xc1MolMw-Ar3fUnGjHfSpA0zaQ3tjeEhnyOWwfo9XfHsyKAU1w1P3MTHehbaOizK-C2LsIn88hpnsEDnexOzT8mhjjSrMyX-_migzdOIW6h0rqXwmF0GxyedfMs6bsv51xllCJhcuDT1gUSwIqDsR328ZskvSiAryIuQslWdDWt7EDWIJTtBS8rE3-i45JP_O9NmsNEi8WY4N7ZWkYUzyCLqhHJU3coTIRMYMBMsqw8IojJIrj4BfJk6GYbzqOHQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InpqbWpqRWJKamxDS2lKNU5aejBjSHZSVW5RY0VXcTVXTDRPdTlNNmlmVDAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0ODY0MzMyLCJuYmYiOjE3NDQ4NjQzMzIsImV4cCI6MTc0NDg2OTM3OCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSE5qNHRyYThoVEhpMHhIRklQQTJJUUJoTWhaemtDRnhtOEl6blc3L1NHT0RXZVBjdHlxUkV3cVFJQ1IwbThkYy9BWWlQcjdxT0I3bDBPd0Uram9URk11akJHUzJpZVVMRWNGRy9rWmVlZSs4TkMvSGp2OHZNWkROS1FxdXhpV2IiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJPM0t6NTFPdXEweVZCcHZ0SWdZSUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlJXMU50WEx6MU8xY2dnVi0zZFFJU0tfT3FiUi13UVJaY0tOa1Y5UFUwS0EiLCJ4bXNfaWRyZWwiOiIxIDIyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.RcqLgMiyBhQ680eg50xvKhxXS-cuhc8ra1Xn7V17kJ19sGh99lsKNxkAbTAAEWiWkhHMHaEDG6T5PYlErZXOgtQKxVEeSxTgTLZ0ifC9pK1wMAtLeGvZ63ORAKXQIYF6hMgoXYOw9NgkwP7GYBZJKcbc9u47p0Bw6o8CVcYMO__rJNqvw6EsG9P9hivQY83VUv0DkxNT8S78LlVgpccIGobpQNHZ5q7MitSH327Rg8Mpcullb7jzE7E6-_vBkgapziqsnXdzQ-OQI2Sij2WyYrucRvf4rYAYObrmY-t8gkafZWwXNwBylTrpmwHgUQ6pS6-vq8yWMifbS-nY1IZnmQ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_MechHRLFjO687sOMRM17Ot5F3-5n70OBlqHzU2AiYS7vptaGotSziR4gS1wJk9JXe_9sRjZrgWM-dfnp7N-CQkQkCXWO1oNktNFHarkHKQlojMLd8PZgMsR1DsabpK6a8Ff5PjwbukkxwO3lcGazED3lyFLqKMxTdAEPkaNE9iMEIOO6qNhk9_KKkjgu2JpwKWo1JZX-eRepkhHmq_tCm1D0mQbTp643wXs01wK0BoorCSQrYo8m_koI3-FJXVsbUsUE3sG494etVho6JHjebfk1ZfA4mnxFub80DTXTmGp6lflVsdT4EtAyz9LKbnv6W60CMLwE8yvWsgs8BCdD6IEq-SjYteApWeLvtF4HaRk_SqtwagGiF9HhHhm9sHl-BTC4diiNZBMzQUOXcKsdXxobjiclVCzKG_5MCOdeo-YLYdPdnPiDebIf8j-ujzuzSx7LCCFwqcw0_V3qKWMlg_ZHILyhtHFnwc2NT9onC9nECNMzQP8bJkgSeROlFJaexMR9Y1GujnX1yFvT8iZT-Yzb7GFehuJg0cidtcveNrCYcVS4yvQF4X8VJy-7wmE6N0VdU_GIZ1c-LgbV_YXUj2TaDN4JH6AnjnYUOSbrPAGzhngIZNRD616eZngEPGHJYRmpYfIvdOsDWxtgeKThQysXaNw1IMdgziQaZrVJKyxIzfkyQz02pDCWfQDQgjwElCn-pIXN3IteMMGwUMvJcwQH1V4j2zfVdfm03Jvf5yu6rP8jBcmQXgwDUfStMYzbU6rqI_JN1ikrr1UoELenzW7dWcAxk1nKOc-F55ULDZG5sLElHcmKUwJl_NiG1i_kaKjDbtimrmpYwhlVC_Rdl8VGCaME</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8DXtIqurRqLEvHRjVKmI9j8UZSlYiMPayW6RbJQTYa6eTf8Sz8ERDqrB4tIHGB0mOi-ViGHGP7TFdQ3Dbmymjg_z55L4c7f_WH4i1osEvNItCbafNgG3SX0TyU5K4S5InYDQrlYbFVtnl6paVGPi2MkKmUsKFL7GhvasU0R7J7wAQtOjMjbNSIn5Y__HpDBzSjfI4mBmgBgb6oYBvfbvL8FDogBYBGOO_4FmSG8hiTJlURvZaNFcvKRCUMAwS4pC9Z9FQZviyRHkYO3EmnbILaJgoAhWLdPcGZ__McKEjl2M2mGjpIoI3kZ6ykVzZ_abkInZnNgK__Z05Ijs9NRz9sDJTAVK-dzfuonij_f43bHdcKuOocqprquUsykYI_9Bmu2H6RWankdKYP81xGFLXtweLNyyvv8SRmHG2OWCBjjKITaXwiOrhuFj33Csk9vfw6g_EQQ7z6xIzEgITOUa_bmuyuLbXVNDQ03ddtB6S5Ugk6zKKa0HEgtkFK5sl0kQD8dOdpF2Cy3KMRoVnk2i3vAbyYNR2vsxlnc34ZxHd63grflpBKCoqCPvwFuxkbrOurk4wygnFB_ff8qoBdkLaD5y9cjrr1VjbsNpvXgmAafm2-77OYO1lUTsH4mn5XwGKXd4SBAzH6NLj7G-IYxvy_m8n69Ro3DLsolsNXHsV7PXpCZSv2g8yeTt-ZKY_cT0ZilPMRj7I6C7NUUUoTPjTZlv7IoKc7EJ7QvhCb6msDeIPY4-8GhzIWrzaAs8YWT5uVsNGo8YwRbkDjlLsTHwxSPtQzVZOEhE9pXEcnTdsQFPpEPI7q7pYfnlsy2VzOJjXS26F2Yr2jteDbpEkK6Ww0unX7n7I</t>
         </is>
       </c>
     </row>

--- a/Access_Token.xlsx
+++ b/Access_Token.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6InpqbWpqRWJKamxDS2lKNU5aejBjSHZSVW5RY0VXcTVXTDRPdTlNNmlmVDAiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0ODY0MzMyLCJuYmYiOjE3NDQ4NjQzMzIsImV4cCI6MTc0NDg2OTM3OCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBSE5qNHRyYThoVEhpMHhIRklQQTJJUUJoTWhaemtDRnhtOEl6blc3L1NHT0RXZVBjdHlxUkV3cVFJQ1IwbThkYy9BWWlQcjdxT0I3bDBPd0Uram9URk11akJHUzJpZVVMRWNGRy9rWmVlZSs4TkMvSGp2OHZNWkROS1FxdXhpV2IiLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiJPM0t6NTFPdXEweVZCcHZ0SWdZSUFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlJXMU50WEx6MU8xY2dnVi0zZFFJU0tfT3FiUi13UVJaY0tOa1Y5UFUwS0EiLCJ4bXNfaWRyZWwiOiIxIDIyIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.RcqLgMiyBhQ680eg50xvKhxXS-cuhc8ra1Xn7V17kJ19sGh99lsKNxkAbTAAEWiWkhHMHaEDG6T5PYlErZXOgtQKxVEeSxTgTLZ0ifC9pK1wMAtLeGvZ63ORAKXQIYF6hMgoXYOw9NgkwP7GYBZJKcbc9u47p0Bw6o8CVcYMO__rJNqvw6EsG9P9hivQY83VUv0DkxNT8S78LlVgpccIGobpQNHZ5q7MitSH327Rg8Mpcullb7jzE7E6-_vBkgapziqsnXdzQ-OQI2Sij2WyYrucRvf4rYAYObrmY-t8gkafZWwXNwBylTrpmwHgUQ6pS6-vq8yWMifbS-nY1IZnmQ</t>
+          <t>eyJ0eXAiOiJKV1QiLCJub25jZSI6ImpGSnRSU0RpN1FndHoyRlhJeXo3emNUODBNMDhoY2UybWxtdk9YeDdyYlUiLCJhbGciOiJSUzI1NiIsIng1dCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSIsImtpZCI6IkNOdjBPSTNSd3FsSEZFVm5hb01Bc2hDSDJYRSJ9.eyJhdWQiOiIwMDAwMDAwMy0wMDAwLTAwMDAtYzAwMC0wMDAwMDAwMDAwMDAiLCJpc3MiOiJodHRwczovL3N0cy53aW5kb3dzLm5ldC9mMjcyMWI1Ni0xNDkzLTQ5NzUtODY3MS01MWIzMTUxMDkzMTcvIiwiaWF0IjoxNzQ0OTUwNzM1LCJuYmYiOjE3NDQ5NTA3MzUsImV4cCI6MTc0NDk1NTExMCwiYWNjdCI6MCwiYWNyIjoiMSIsImFjcnMiOlsicDEiXSwiYWlvIjoiQVdRQW0vOFpBQUFBZi9iMmVEdTRhUGFoWEorbTc1TGFnK201VjRMM0lWS3ExVXdsZXJBRzhGcjJRWXlRR200S3Q3M0lJckEwb1htZlI1bFZDdXlDRENQekpsQVNuQ21hZjJHZW1wT0VWTDhnZUxCMU9DZTZhT2JHd1hGWUhLVE0vMkd1aUY0WUpqK20iLCJhbXIiOlsicHdkIiwibWZhIl0sImFwcF9kaXNwbGF5bmFtZSI6InVzaW5nIGludmVudG9yeSIsImFwcGlkIjoiZDIzZmVlMjMtYjVjMy00MDU2LTkwZjMtMDIyNDRmNmYyYWI1IiwiYXBwaWRhY3IiOiIxIiwiZmFtaWx5X25hbWUiOiJUYW4iLCJnaXZlbl9uYW1lIjoiVG9uIFRoYXQiLCJpZHR5cCI6InVzZXIiLCJpcGFkZHIiOiIyNDAyOjgwMDo2Mzc4OjMwNGY6MjA1MjoyNDg6NzgwYzoyZGUxIiwibmFtZSI6IlRvbiBUaGF0IFRhbiIsIm9pZCI6IjY1OTdhMGZhLWY0ZWEtNDU1Yi05NTUxLWVjODIzMjgwMGRlYiIsIm9ucHJlbV9zaWQiOiJTLTEtNS0yMS0xNTEwNzgzNjQ3LTE2Mjk5ODU0MTktMzk1MTE2MTQwNi0xMzYzIiwicGxhdGYiOiIzIiwicHVpZCI6IjEwMDMyMDAzNzU2MDIxMzMiLCJyaCI6IjEuQVNzQVZodHk4cE1VZFVtR2NWR3pGUkNURndNQUFBQUFBQUFBd0FBQUFBQUFBQURDQUswckFBLiIsInNjcCI6IkZpbGVzLlJlYWQgRmlsZXMuUmVhZC5BbGwgU2l0ZXMuUmVhZC5BbGwgVXNlci5SZWFkIHByb2ZpbGUgb3BlbmlkIGVtYWlsIiwic2lkIjoiMDAzZGQ0MzktMGU1MC05Y2U5LWZlNDQtODk3Nzk5YTQ0OTcyIiwic2lnbmluX3N0YXRlIjpbImttc2kiXSwic3ViIjoiYk1DYkpBUlU0LUlzMWlQOGp1ZUdpMC1fSWlhR1NoaXEtZlZfdXlHdGgxTSIsInRlbmFudF9yZWdpb25fc2NvcGUiOiJBUyIsInRpZCI6ImYyNzIxYjU2LTE0OTMtNDk3NS04NjcxLTUxYjMxNTEwOTMxNyIsInVuaXF1ZV9uYW1lIjoidGFudHRAbWF5Y2hhLmNvbS52biIsInVwbiI6InRhbnR0QG1heWNoYS5jb20udm4iLCJ1dGkiOiI3Wm0wTGhnRzdraTBpZHc3d2M0TkFBIiwidmVyIjoiMS4wIiwid2lkcyI6WyJiNzlmYmY0ZC0zZWY5LTQ2ODktODE0My03NmIxOTRlODU1MDkiXSwieG1zX2Z0ZCI6IlJPVDg5b1E3dXBWWlVidGlFb2sxWWNLMDdKUE1JdXZBcEt6THRBT1BkTDgiLCJ4bXNfaWRyZWwiOiIxIDMwIiwieG1zX3N0Ijp7InN1YiI6IkNudy1lcVRuTXNQLUhiMnNhekVuTDZ6eVhVTEN5V0hlUXJzZmlLRWhBZnMifSwieG1zX3RjZHQiOjE2OTgyMDYyMjB9.IhRXPJgdPWCo-ckPME-mNmJT7KOVfx-idH5wNZIs3zty5z1GILZ60fVt2oHnB8Jg-LBExbfYWmTdKLVPAomqhU_KNxrLLi-qIuKCKCR-8x1D1nqX4-M0jmquSnyW4D3fAxl0EWAg_SKfgBWRMOT7GZsllidWMJznl0WRhQ3ceWtHuiZlCx4N-KsoJd5fVZrthryT25xP4zpB17G1gQIGvZ5UVerqgZCUFE0FTTE5bXhAglhcsGmkKqvCiUstXedxpp13CGdCH4PwcbAFHk5aFr5tHvBjnJ-mOXXAR7u-i5LsBvZqZJl3X4Tqu1DgE_aFTQVw3SBPOURWdx9JhB3vfA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P8DXtIqurRqLEvHRjVKmI9j8UZSlYiMPayW6RbJQTYa6eTf8Sz8ERDqrB4tIHGB0mOi-ViGHGP7TFdQ3Dbmymjg_z55L4c7f_WH4i1osEvNItCbafNgG3SX0TyU5K4S5InYDQrlYbFVtnl6paVGPi2MkKmUsKFL7GhvasU0R7J7wAQtOjMjbNSIn5Y__HpDBzSjfI4mBmgBgb6oYBvfbvL8FDogBYBGOO_4FmSG8hiTJlURvZaNFcvKRCUMAwS4pC9Z9FQZviyRHkYO3EmnbILaJgoAhWLdPcGZ__McKEjl2M2mGjpIoI3kZ6ykVzZ_abkInZnNgK__Z05Ijs9NRz9sDJTAVK-dzfuonij_f43bHdcKuOocqprquUsykYI_9Bmu2H6RWankdKYP81xGFLXtweLNyyvv8SRmHG2OWCBjjKITaXwiOrhuFj33Csk9vfw6g_EQQ7z6xIzEgITOUa_bmuyuLbXVNDQ03ddtB6S5Ugk6zKKa0HEgtkFK5sl0kQD8dOdpF2Cy3KMRoVnk2i3vAbyYNR2vsxlnc34ZxHd63grflpBKCoqCPvwFuxkbrOurk4wygnFB_ff8qoBdkLaD5y9cjrr1VjbsNpvXgmAafm2-77OYO1lUTsH4mn5XwGKXd4SBAzH6NLj7G-IYxvy_m8n69Ro3DLsolsNXHsV7PXpCZSv2g8yeTt-ZKY_cT0ZilPMRj7I6C7NUUUoTPjTZlv7IoKc7EJ7QvhCb6msDeIPY4-8GhzIWrzaAs8YWT5uVsNGo8YwRbkDjlLsTHwxSPtQzVZOEhE9pXEcnTdsQFPpEPI7q7pYfnlsy2VzOJjXS26F2Yr2jteDbpEkK6Ww0unX7n7I</t>
+          <t>1.ASsAVhty8pMUdUmGcVGzFRCTFyPuP9LDtVZAkPMCJE9vKrXCAK0rAA.AgABAwEAAABVrSpeuWamRam2jAF1XRQEAwDs_wUA9P_ViRGDFn5y78RDb1_xx3tzTN-U_Dt23Lf4MIxQGQp6CEv-edUH6S8NZu3edNSVl82nr2_ZAon0tNgSmSMYWaiQrDbwyJU117dAotQrqdlB8laSQDKQMdVIX68CWylmkgubesULCC9-A73bSR-Wss59LH5QeGtpihudmUwk-o64DwwmDLXj5NsfByGW9UcFc_0lAP5Miac3Fji52pUnNKei6idUjSL7hrULQGtjUqESzIcCyDeAIL9iqf06r1YSEd5FQ_Do4JCywihcy2KfPR9OKf4RnMWxdAOQL2ibvEb2jfasoHUtJkIYh9I7pHv0G-HG8d-d_0U_gI0xE8txMrhkmJApF4vVbvYodaudQCdytd0tx2u_lF4QRrL_JK2iTxVU5B7hEUrQq-BS0Tpz8JmzcBpRZQwUn70DTBgkCYWVur5T6ndQXgIJ_5EQ70f8dBh6VJkGs9Km2hP2lvTZ_m9FMDTWbH77EzcJxBpegsW7_G3UfcvXXyenul8wA8Fem1iwkZiM3MkDtwd1Jk37-y3z_g9M7nhODLAO78xrgQ1vqyaoI5YK4yTekuPClTjg6363UXFhmhzAvfR_e6FfQef_xlpYzHSnNy1vAsx5zTzVPL_P54MXXFLgdSGOdz5k8lsX6XJHRmlhuzDONvblag2DSKIw6HgIGuAeMO293jHh5cC3UkG--zsk6iLYLkxzHTDgRCIq701IciEmjY6t1pxrZOb7l8seJtDb_TKK77cDl5gVDOzG2K58s4Ql7RpL6V6Dt0p3cRpERDHn7SHPxWeQNO-c5gSIznTEeDizZIVCp0IjC3GdyhJOcTZYHKhRhP4Xsz_yN5Lex8W0VbVShCFMoeakftM</t>
         </is>
       </c>
     </row>
